--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_promedio.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_promedio.xlsx
@@ -597,19 +597,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.39188596770434</v>
+        <v>8.72550643866807</v>
       </c>
       <c r="D2" t="n">
-        <v>22.50864989410156</v>
+        <v>10.70286965451886</v>
       </c>
       <c r="E2" t="n">
-        <v>23.84545570360761</v>
+        <v>13.78916672700726</v>
       </c>
       <c r="F2" t="n">
-        <v>30.27552273258901</v>
+        <v>12.59029918429002</v>
       </c>
       <c r="G2" t="n">
-        <v>36.77784920995319</v>
+        <v>17.20611525939182</v>
       </c>
       <c r="H2" t="n">
         <v>32.44229129255692</v>
@@ -636,7 +636,7 @@
         <v>77.80837367685866</v>
       </c>
       <c r="P2" t="n">
-        <v>66.6646671156912</v>
+        <v>66.66466711569119</v>
       </c>
       <c r="Q2" t="n">
         <v>68.2468053067428</v>
@@ -654,13 +654,13 @@
         <v>58.63928207308501</v>
       </c>
       <c r="V2" t="n">
-        <v>67.96257783574573</v>
+        <v>67.96257783574572</v>
       </c>
       <c r="W2" t="n">
-        <v>71.88267144221643</v>
+        <v>71.88267144221642</v>
       </c>
       <c r="X2" t="n">
-        <v>72.50856391922511</v>
+        <v>72.5085639192251</v>
       </c>
       <c r="Y2" t="n">
         <v>67.39221552652715</v>
@@ -702,7 +702,7 @@
         <v>71.19247607396875</v>
       </c>
       <c r="AL2" t="n">
-        <v>54.1980844596099</v>
+        <v>54.19808445960991</v>
       </c>
       <c r="AM2" t="n">
         <v>45.64738830111439</v>
@@ -717,10 +717,10 @@
         <v>26.82732881100442</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26.55541957268361</v>
+        <v>26.5554195726836</v>
       </c>
       <c r="AR2" t="n">
-        <v>23.80148456559427</v>
+        <v>23.80148456559428</v>
       </c>
       <c r="AS2" t="n">
         <v>22.60468705689848</v>
@@ -732,13 +732,13 @@
         <v>23.09726785763187</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.01621054304319</v>
+        <v>22.0162105430432</v>
       </c>
       <c r="AW2" t="n">
         <v>21.31602984892343</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.950903133771</v>
+        <v>20.95090313377101</v>
       </c>
     </row>
     <row r="3">
@@ -749,25 +749,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.513722669491555</v>
+        <v>1.289103470297963</v>
       </c>
       <c r="D3" t="n">
-        <v>3.133978873453709</v>
+        <v>1.473116393967037</v>
       </c>
       <c r="E3" t="n">
-        <v>3.147034881744489</v>
+        <v>1.524875752107127</v>
       </c>
       <c r="F3" t="n">
-        <v>3.098165560287151</v>
+        <v>1.689883336189191</v>
       </c>
       <c r="G3" t="n">
-        <v>2.527321867702613</v>
+        <v>1.417787066650458</v>
       </c>
       <c r="H3" t="n">
         <v>2.926671197075423</v>
       </c>
       <c r="I3" t="n">
-        <v>3.355358588276087</v>
+        <v>3.355358588276086</v>
       </c>
       <c r="J3" t="n">
         <v>4.849629015776802</v>
@@ -800,7 +800,7 @@
         <v>4.379202715813359</v>
       </c>
       <c r="T3" t="n">
-        <v>4.262330903356138</v>
+        <v>4.262330903356139</v>
       </c>
       <c r="U3" t="n">
         <v>4.164602430981425</v>
@@ -818,7 +818,7 @@
         <v>4.184126883540626</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.542217524663599</v>
+        <v>4.542217524663598</v>
       </c>
       <c r="AA3" t="n">
         <v>4.765279754982693</v>
@@ -827,25 +827,25 @@
         <v>4.754060963413239</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.359273487281952</v>
+        <v>5.359273487281953</v>
       </c>
       <c r="AD3" t="n">
         <v>5.284593653127827</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.014462142933592</v>
+        <v>6.014462142933593</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.846682322730341</v>
+        <v>5.84668232273034</v>
       </c>
       <c r="AG3" t="n">
         <v>5.485877102642315</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.405265890258727</v>
+        <v>5.405265890258725</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.606223539164412</v>
+        <v>5.606223539164413</v>
       </c>
       <c r="AJ3" t="n">
         <v>5.623059615042242</v>
@@ -875,10 +875,10 @@
         <v>4.063344330489724</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.761611465567203</v>
+        <v>3.761611465567202</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.525122657378158</v>
+        <v>3.525122657378159</v>
       </c>
       <c r="AU3" t="n">
         <v>3.479956435478077</v>
@@ -887,7 +887,7 @@
         <v>3.282508999355975</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.372709948981862</v>
+        <v>3.372709948981863</v>
       </c>
       <c r="AX3" t="n">
         <v>2.846618231434848</v>
@@ -901,19 +901,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.24532746329601</v>
+        <v>5.154702803002372</v>
       </c>
       <c r="D4" t="n">
-        <v>14.32965157803432</v>
+        <v>8.012197875237286</v>
       </c>
       <c r="E4" t="n">
-        <v>15.45580619002602</v>
+        <v>8.087612821333584</v>
       </c>
       <c r="F4" t="n">
-        <v>17.01782816947003</v>
+        <v>10.58176413182171</v>
       </c>
       <c r="G4" t="n">
-        <v>23.27073708886529</v>
+        <v>8.365375792292603</v>
       </c>
       <c r="H4" t="n">
         <v>34.47369303291534</v>
@@ -922,25 +922,25 @@
         <v>48.56247311855362</v>
       </c>
       <c r="J4" t="n">
-        <v>82.22701371012086</v>
+        <v>82.22701371012084</v>
       </c>
       <c r="K4" t="n">
-        <v>53.84798259645919</v>
+        <v>53.8479825964592</v>
       </c>
       <c r="L4" t="n">
-        <v>60.96612320586861</v>
+        <v>60.96612320586862</v>
       </c>
       <c r="M4" t="n">
         <v>75.18136380527038</v>
       </c>
       <c r="N4" t="n">
-        <v>83.41621227927844</v>
+        <v>83.41621227927845</v>
       </c>
       <c r="O4" t="n">
         <v>70.15039459163451</v>
       </c>
       <c r="P4" t="n">
-        <v>62.87295061128196</v>
+        <v>62.87295061128195</v>
       </c>
       <c r="Q4" t="n">
         <v>74.26634326212785</v>
@@ -949,28 +949,28 @@
         <v>69.17327111157465</v>
       </c>
       <c r="S4" t="n">
-        <v>69.11540108191082</v>
+        <v>69.11540108191083</v>
       </c>
       <c r="T4" t="n">
         <v>61.11554306983881</v>
       </c>
       <c r="U4" t="n">
-        <v>64.02398581128683</v>
+        <v>64.02398581128682</v>
       </c>
       <c r="V4" t="n">
-        <v>77.74924801928874</v>
+        <v>77.74924801928873</v>
       </c>
       <c r="W4" t="n">
-        <v>67.39292036213367</v>
+        <v>67.39292036213368</v>
       </c>
       <c r="X4" t="n">
-        <v>70.47788079949188</v>
+        <v>70.4778807994919</v>
       </c>
       <c r="Y4" t="n">
         <v>71.65678183577258</v>
       </c>
       <c r="Z4" t="n">
-        <v>69.62400614883562</v>
+        <v>69.6240061488356</v>
       </c>
       <c r="AA4" t="n">
         <v>61.44476881916788</v>
@@ -979,7 +979,7 @@
         <v>68.67214662121867</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.36819158735676</v>
+        <v>76.36819158735678</v>
       </c>
       <c r="AD4" t="n">
         <v>82.37654986781534</v>
@@ -991,16 +991,16 @@
         <v>74.67900761405261</v>
       </c>
       <c r="AG4" t="n">
-        <v>65.09857878554558</v>
+        <v>65.0985787855456</v>
       </c>
       <c r="AH4" t="n">
-        <v>65.25067187990273</v>
+        <v>65.25067187990274</v>
       </c>
       <c r="AI4" t="n">
         <v>50.98050917052793</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50.45058775254345</v>
+        <v>50.45058775254346</v>
       </c>
       <c r="AK4" t="n">
         <v>45.35876677261851</v>
@@ -1018,13 +1018,13 @@
         <v>22.27597002364101</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.02218182032096</v>
+        <v>19.02218182032095</v>
       </c>
       <c r="AQ4" t="n">
         <v>18.74323067494089</v>
       </c>
       <c r="AR4" t="n">
-        <v>17.06181071002967</v>
+        <v>17.06181071002968</v>
       </c>
       <c r="AS4" t="n">
         <v>15.10906913003705</v>
@@ -1036,7 +1036,7 @@
         <v>12.86298708253616</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.28948358177824</v>
+        <v>12.28948358177823</v>
       </c>
       <c r="AW4" t="n">
         <v>11.63962991998835</v>
@@ -1053,25 +1053,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>20.48864296097016</v>
+        <v>10.98271782293401</v>
       </c>
       <c r="D5" t="n">
-        <v>20.14263631840986</v>
+        <v>7.828978713913435</v>
       </c>
       <c r="E5" t="n">
-        <v>20.49321604178658</v>
+        <v>9.412115626676176</v>
       </c>
       <c r="F5" t="n">
-        <v>22.07373136195193</v>
+        <v>11.69154138695006</v>
       </c>
       <c r="G5" t="n">
-        <v>26.87665943771943</v>
+        <v>11.26150127805929</v>
       </c>
       <c r="H5" t="n">
         <v>28.2894911640267</v>
       </c>
       <c r="I5" t="n">
-        <v>36.65229383018777</v>
+        <v>36.65229383018776</v>
       </c>
       <c r="J5" t="n">
         <v>49.89016071722747</v>
@@ -1086,25 +1086,25 @@
         <v>57.12974325414566</v>
       </c>
       <c r="N5" t="n">
-        <v>76.87347626300276</v>
+        <v>76.87347626300274</v>
       </c>
       <c r="O5" t="n">
-        <v>64.84542868931089</v>
+        <v>64.84542868931091</v>
       </c>
       <c r="P5" t="n">
         <v>55.28614270719016</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.81457648194909</v>
+        <v>61.81457648194908</v>
       </c>
       <c r="R5" t="n">
-        <v>57.95249685476331</v>
+        <v>57.9524968547633</v>
       </c>
       <c r="S5" t="n">
         <v>56.70360371657004</v>
       </c>
       <c r="T5" t="n">
-        <v>46.42048697920232</v>
+        <v>46.42048697920234</v>
       </c>
       <c r="U5" t="n">
         <v>66.86149148916698</v>
@@ -1119,13 +1119,13 @@
         <v>53.42862074278924</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.59826453511125</v>
+        <v>47.59826453511126</v>
       </c>
       <c r="Z5" t="n">
-        <v>42.55143526707446</v>
+        <v>42.55143526707447</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.64847430403142</v>
+        <v>38.64847430403143</v>
       </c>
       <c r="AB5" t="n">
         <v>41.06257221205498</v>
@@ -1137,7 +1137,7 @@
         <v>50.8940277072481</v>
       </c>
       <c r="AE5" t="n">
-        <v>37.72926390530593</v>
+        <v>37.72926390530592</v>
       </c>
       <c r="AF5" t="n">
         <v>35.56764836474756</v>
@@ -1146,7 +1146,7 @@
         <v>34.5612446734085</v>
       </c>
       <c r="AH5" t="n">
-        <v>30.3932699595558</v>
+        <v>30.39326995955579</v>
       </c>
       <c r="AI5" t="n">
         <v>32.2588785155824</v>
@@ -1173,7 +1173,7 @@
         <v>25.89221576766632</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24.74474177563333</v>
+        <v>24.74474177563332</v>
       </c>
       <c r="AR5" t="n">
         <v>22.76259300527692</v>
@@ -1188,10 +1188,10 @@
         <v>23.94822177152718</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.51747402794131</v>
+        <v>21.5174740279413</v>
       </c>
       <c r="AW5" t="n">
-        <v>20.51076044207242</v>
+        <v>20.51076044207241</v>
       </c>
       <c r="AX5" t="n">
         <v>21.54464126018494</v>
@@ -1205,22 +1205,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.638697152043084</v>
+        <v>2.164604450480177</v>
       </c>
       <c r="D6" t="n">
-        <v>6.14300241618975</v>
+        <v>3.026975129288552</v>
       </c>
       <c r="E6" t="n">
-        <v>5.622827295769167</v>
+        <v>2.940999602905303</v>
       </c>
       <c r="F6" t="n">
-        <v>7.926187931963872</v>
+        <v>3.597641851999924</v>
       </c>
       <c r="G6" t="n">
-        <v>8.211049338344987</v>
+        <v>3.661997940679414</v>
       </c>
       <c r="H6" t="n">
-        <v>12.77260089257191</v>
+        <v>12.7726008925719</v>
       </c>
       <c r="I6" t="n">
         <v>18.31925859906218</v>
@@ -1232,7 +1232,7 @@
         <v>24.51811919283126</v>
       </c>
       <c r="L6" t="n">
-        <v>24.53181508474571</v>
+        <v>24.5318150847457</v>
       </c>
       <c r="M6" t="n">
         <v>30.25460613722691</v>
@@ -1259,13 +1259,13 @@
         <v>27.74614510219207</v>
       </c>
       <c r="U6" t="n">
-        <v>22.21465748023658</v>
+        <v>22.21465748023657</v>
       </c>
       <c r="V6" t="n">
         <v>25.26572856560291</v>
       </c>
       <c r="W6" t="n">
-        <v>23.24242923079734</v>
+        <v>23.24242923079735</v>
       </c>
       <c r="X6" t="n">
         <v>23.34226271719622</v>
@@ -1307,28 +1307,28 @@
         <v>9.661487079966534</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.389829853885988</v>
+        <v>8.389829853885987</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.062940972130991</v>
+        <v>7.06294097213099</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.061747987913662</v>
+        <v>5.061747987913663</v>
       </c>
       <c r="AN6" t="n">
         <v>4.62652935194592</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.106950867788638</v>
+        <v>4.106950867788637</v>
       </c>
       <c r="AP6" t="n">
         <v>3.542508265252936</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.614596441263838</v>
+        <v>3.614596441263837</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.34800771375257</v>
+        <v>3.348007713752571</v>
       </c>
       <c r="AS6" t="n">
         <v>2.809114268877166</v>
@@ -1337,7 +1337,7 @@
         <v>3.014192662144859</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.590920629550725</v>
+        <v>2.590920629550724</v>
       </c>
       <c r="AV6" t="n">
         <v>2.825376688389033</v>
@@ -1357,19 +1357,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.73867562107181</v>
+        <v>5.893104616991954</v>
       </c>
       <c r="D7" t="n">
-        <v>10.904167635186</v>
+        <v>6.139789283706043</v>
       </c>
       <c r="E7" t="n">
-        <v>13.39831109814525</v>
+        <v>6.822858926752324</v>
       </c>
       <c r="F7" t="n">
-        <v>13.58187753148488</v>
+        <v>5.304794816144798</v>
       </c>
       <c r="G7" t="n">
-        <v>22.97512406679576</v>
+        <v>11.62874404253335</v>
       </c>
       <c r="H7" t="n">
         <v>26.04489849019448</v>
@@ -1387,10 +1387,10 @@
         <v>44.03980896896162</v>
       </c>
       <c r="M7" t="n">
-        <v>38.20781889547489</v>
+        <v>38.20781889547488</v>
       </c>
       <c r="N7" t="n">
-        <v>55.77682159942238</v>
+        <v>55.77682159942239</v>
       </c>
       <c r="O7" t="n">
         <v>42.99807215171304</v>
@@ -1411,34 +1411,34 @@
         <v>28.85044923527841</v>
       </c>
       <c r="U7" t="n">
-        <v>32.47965946028935</v>
+        <v>32.47965946028934</v>
       </c>
       <c r="V7" t="n">
         <v>33.08566970248439</v>
       </c>
       <c r="W7" t="n">
-        <v>21.99220329002025</v>
+        <v>21.99220329002026</v>
       </c>
       <c r="X7" t="n">
         <v>22.08971265487608</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.27099709559025</v>
+        <v>22.27099709559024</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.60929868100997</v>
+        <v>21.60929868100998</v>
       </c>
       <c r="AA7" t="n">
         <v>14.03167398404442</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.59720931324771</v>
+        <v>14.5972093132477</v>
       </c>
       <c r="AC7" t="n">
         <v>12.04002859043469</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.4914532841611</v>
+        <v>17.49145328416109</v>
       </c>
       <c r="AE7" t="n">
         <v>12.15477759046965</v>
@@ -1462,7 +1462,7 @@
         <v>10.46085194808547</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.666214814480234</v>
+        <v>9.666214814480233</v>
       </c>
       <c r="AM7" t="n">
         <v>10.28104058060126</v>
@@ -1489,16 +1489,16 @@
         <v>8.530300768465809</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.601059396387555</v>
+        <v>8.601059396387553</v>
       </c>
       <c r="AV7" t="n">
         <v>7.923645003423173</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.529547049663305</v>
+        <v>7.529547049663306</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.750303771291824</v>
+        <v>7.750303771291823</v>
       </c>
     </row>
     <row r="8">
@@ -1509,22 +1509,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.88300239227652</v>
+        <v>9.441677886473157</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3224818071673</v>
+        <v>10.61671870660464</v>
       </c>
       <c r="E8" t="n">
-        <v>28.39973720276818</v>
+        <v>14.85797893996849</v>
       </c>
       <c r="F8" t="n">
-        <v>25.64134143990876</v>
+        <v>14.35880252001919</v>
       </c>
       <c r="G8" t="n">
-        <v>31.91884016374779</v>
+        <v>17.18254042416368</v>
       </c>
       <c r="H8" t="n">
-        <v>38.11730451706108</v>
+        <v>38.11730451706107</v>
       </c>
       <c r="I8" t="n">
         <v>56.75556467964092</v>
@@ -1536,13 +1536,13 @@
         <v>70.98238894981944</v>
       </c>
       <c r="L8" t="n">
-        <v>76.00737973173945</v>
+        <v>76.00737973173946</v>
       </c>
       <c r="M8" t="n">
         <v>81.353656030948</v>
       </c>
       <c r="N8" t="n">
-        <v>83.77841143134536</v>
+        <v>83.77841143134533</v>
       </c>
       <c r="O8" t="n">
         <v>78.530620519876</v>
@@ -1551,7 +1551,7 @@
         <v>64.62981447520501</v>
       </c>
       <c r="Q8" t="n">
-        <v>67.33442814368364</v>
+        <v>67.33442814368362</v>
       </c>
       <c r="R8" t="n">
         <v>66.78761350100014</v>
@@ -1560,7 +1560,7 @@
         <v>56.03103191645616</v>
       </c>
       <c r="T8" t="n">
-        <v>63.12271474511218</v>
+        <v>63.12271474511216</v>
       </c>
       <c r="U8" t="n">
         <v>59.30697524787489</v>
@@ -1569,22 +1569,22 @@
         <v>72.35264404098329</v>
       </c>
       <c r="W8" t="n">
-        <v>75.95551679879347</v>
+        <v>75.95551679879348</v>
       </c>
       <c r="X8" t="n">
-        <v>71.37664025031219</v>
+        <v>71.37664025031221</v>
       </c>
       <c r="Y8" t="n">
         <v>78.01012878242219</v>
       </c>
       <c r="Z8" t="n">
-        <v>79.3871522307324</v>
+        <v>79.38715223073238</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.57426350617814</v>
+        <v>83.57426350617813</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.55082523275891</v>
+        <v>96.55082523275888</v>
       </c>
       <c r="AC8" t="n">
         <v>101.55948943662</v>
@@ -1617,7 +1617,7 @@
         <v>63.60342622013341</v>
       </c>
       <c r="AM8" t="n">
-        <v>45.90596796163673</v>
+        <v>45.90596796163675</v>
       </c>
       <c r="AN8" t="n">
         <v>39.29424731878962</v>
@@ -1638,13 +1638,13 @@
         <v>22.12067610736493</v>
       </c>
       <c r="AT8" t="n">
-        <v>22.90726325501493</v>
+        <v>22.90726325501494</v>
       </c>
       <c r="AU8" t="n">
         <v>23.11528702843761</v>
       </c>
       <c r="AV8" t="n">
-        <v>20.37215805720167</v>
+        <v>20.37215805720168</v>
       </c>
       <c r="AW8" t="n">
         <v>21.51138677069067</v>
@@ -1661,22 +1661,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2.666728159067426</v>
+        <v>1.319700203998283</v>
       </c>
       <c r="D9" t="n">
-        <v>2.648069035384757</v>
+        <v>1.59121426692228</v>
       </c>
       <c r="E9" t="n">
-        <v>2.899718102134321</v>
+        <v>1.404384019957362</v>
       </c>
       <c r="F9" t="n">
-        <v>3.552620371895117</v>
+        <v>1.482794407758514</v>
       </c>
       <c r="G9" t="n">
-        <v>2.734166106786876</v>
+        <v>1.367401736519406</v>
       </c>
       <c r="H9" t="n">
-        <v>3.022827427182044</v>
+        <v>3.022827427182045</v>
       </c>
       <c r="I9" t="n">
         <v>3.754257378350612</v>
@@ -1685,13 +1685,13 @@
         <v>5.338085780911837</v>
       </c>
       <c r="K9" t="n">
-        <v>4.021244105853129</v>
+        <v>4.021244105853131</v>
       </c>
       <c r="L9" t="n">
-        <v>4.204667261781836</v>
+        <v>4.204667261781835</v>
       </c>
       <c r="M9" t="n">
-        <v>4.708485501225017</v>
+        <v>4.708485501225018</v>
       </c>
       <c r="N9" t="n">
         <v>5.630563560844402</v>
@@ -1703,28 +1703,28 @@
         <v>4.567036053596522</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.008097563074681</v>
+        <v>4.008097563074682</v>
       </c>
       <c r="R9" t="n">
         <v>4.805821870035196</v>
       </c>
       <c r="S9" t="n">
-        <v>4.385033230455382</v>
+        <v>4.385033230455381</v>
       </c>
       <c r="T9" t="n">
         <v>4.153671136512436</v>
       </c>
       <c r="U9" t="n">
-        <v>3.994830710091344</v>
+        <v>3.994830710091345</v>
       </c>
       <c r="V9" t="n">
         <v>4.667188339625117</v>
       </c>
       <c r="W9" t="n">
-        <v>4.282235263555223</v>
+        <v>4.282235263555222</v>
       </c>
       <c r="X9" t="n">
-        <v>4.384772625090881</v>
+        <v>4.384772625090882</v>
       </c>
       <c r="Y9" t="n">
         <v>4.38996401759728</v>
@@ -1733,25 +1733,25 @@
         <v>5.03232028886966</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.521822378815469</v>
+        <v>4.52182237881547</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.982270970356538</v>
+        <v>4.982270970356539</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.238821388156493</v>
+        <v>5.238821388156492</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.84986270702222</v>
+        <v>5.849862707022221</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.646612065056332</v>
+        <v>5.646612065056331</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.619666135030026</v>
+        <v>5.619666135030027</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.637204883701328</v>
+        <v>5.637204883701329</v>
       </c>
       <c r="AH9" t="n">
         <v>5.242662437565007</v>
@@ -1772,19 +1772,19 @@
         <v>4.435154956340853</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.300791219406512</v>
+        <v>4.300791219406511</v>
       </c>
       <c r="AO9" t="n">
         <v>4.039380520958971</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.593739269709676</v>
+        <v>3.593739269709675</v>
       </c>
       <c r="AQ9" t="n">
         <v>4.020251408775174</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.662608964131165</v>
+        <v>3.662608964131166</v>
       </c>
       <c r="AS9" t="n">
         <v>3.604704801280246</v>
@@ -1796,10 +1796,10 @@
         <v>3.764423534435959</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.669855572857738</v>
+        <v>3.669855572857737</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.150634192694998</v>
+        <v>3.150634192694997</v>
       </c>
       <c r="AX9" t="n">
         <v>3.142512767790531</v>
@@ -1813,19 +1813,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>10.88266613345143</v>
+        <v>5.075778639141227</v>
       </c>
       <c r="D10" t="n">
-        <v>13.70430057033841</v>
+        <v>7.116386631764543</v>
       </c>
       <c r="E10" t="n">
-        <v>13.84118126712161</v>
+        <v>5.002582947422908</v>
       </c>
       <c r="F10" t="n">
-        <v>21.78999400822828</v>
+        <v>14.23523580820868</v>
       </c>
       <c r="G10" t="n">
-        <v>27.5627804219799</v>
+        <v>10.95064363614758</v>
       </c>
       <c r="H10" t="n">
         <v>27.53771988535886</v>
@@ -1840,10 +1840,10 @@
         <v>61.9592852055268</v>
       </c>
       <c r="L10" t="n">
-        <v>68.13453118910586</v>
+        <v>68.13453118910587</v>
       </c>
       <c r="M10" t="n">
-        <v>86.9516695973396</v>
+        <v>86.95166959733962</v>
       </c>
       <c r="N10" t="n">
         <v>77.76640327930322</v>
@@ -1852,7 +1852,7 @@
         <v>74.90831799875457</v>
       </c>
       <c r="P10" t="n">
-        <v>79.19854585466233</v>
+        <v>79.19854585466231</v>
       </c>
       <c r="Q10" t="n">
         <v>83.7662217626016</v>
@@ -1861,7 +1861,7 @@
         <v>77.57340644933066</v>
       </c>
       <c r="S10" t="n">
-        <v>61.06023103836537</v>
+        <v>61.06023103836538</v>
       </c>
       <c r="T10" t="n">
         <v>69.51206944137049</v>
@@ -1882,10 +1882,10 @@
         <v>68.59465175514744</v>
       </c>
       <c r="Z10" t="n">
-        <v>74.88320186289486</v>
+        <v>74.88320186289485</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.79660552329945</v>
+        <v>64.79660552329946</v>
       </c>
       <c r="AB10" t="n">
         <v>74.55555602609178</v>
@@ -1894,16 +1894,16 @@
         <v>77.5436612157266</v>
       </c>
       <c r="AD10" t="n">
-        <v>87.26156684540832</v>
+        <v>87.26156684540831</v>
       </c>
       <c r="AE10" t="n">
-        <v>75.48781885318087</v>
+        <v>75.48781885318085</v>
       </c>
       <c r="AF10" t="n">
-        <v>69.73332127537049</v>
+        <v>69.73332127537047</v>
       </c>
       <c r="AG10" t="n">
-        <v>65.36680190910646</v>
+        <v>65.36680190910647</v>
       </c>
       <c r="AH10" t="n">
         <v>62.93925555937571</v>
@@ -1921,7 +1921,7 @@
         <v>38.42343666812172</v>
       </c>
       <c r="AM10" t="n">
-        <v>30.03557934039169</v>
+        <v>30.03557934039168</v>
       </c>
       <c r="AN10" t="n">
         <v>25.38435405556699</v>
@@ -1930,7 +1930,7 @@
         <v>21.75701859271167</v>
       </c>
       <c r="AP10" t="n">
-        <v>19.16463663121042</v>
+        <v>19.16463663121043</v>
       </c>
       <c r="AQ10" t="n">
         <v>19.24635955965806</v>
@@ -1939,7 +1939,7 @@
         <v>14.84294356710248</v>
       </c>
       <c r="AS10" t="n">
-        <v>14.6854280889555</v>
+        <v>14.68542808895551</v>
       </c>
       <c r="AT10" t="n">
         <v>12.95567691307378</v>
@@ -1965,19 +1965,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>19.58150926460254</v>
+        <v>8.374586041486939</v>
       </c>
       <c r="D11" t="n">
-        <v>20.22754979507227</v>
+        <v>11.01026510390238</v>
       </c>
       <c r="E11" t="n">
-        <v>21.93391644108869</v>
+        <v>10.36996702935598</v>
       </c>
       <c r="F11" t="n">
-        <v>26.84535633287623</v>
+        <v>12.98344953755699</v>
       </c>
       <c r="G11" t="n">
-        <v>25.32813809208257</v>
+        <v>13.12498867350266</v>
       </c>
       <c r="H11" t="n">
         <v>28.7085670806824</v>
@@ -1989,28 +1989,28 @@
         <v>52.0005786588051</v>
       </c>
       <c r="K11" t="n">
-        <v>57.61537020319687</v>
+        <v>57.61537020319686</v>
       </c>
       <c r="L11" t="n">
-        <v>50.27150857974889</v>
+        <v>50.27150857974888</v>
       </c>
       <c r="M11" t="n">
         <v>49.35037581170189</v>
       </c>
       <c r="N11" t="n">
-        <v>63.26461135474183</v>
+        <v>63.26461135474184</v>
       </c>
       <c r="O11" t="n">
         <v>55.75810426448812</v>
       </c>
       <c r="P11" t="n">
-        <v>56.60219992388784</v>
+        <v>56.60219992388782</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42983098510558</v>
+        <v>57.42983098510557</v>
       </c>
       <c r="R11" t="n">
-        <v>59.53375742657581</v>
+        <v>59.5337574265758</v>
       </c>
       <c r="S11" t="n">
         <v>64.70838461007141</v>
@@ -2028,13 +2028,13 @@
         <v>52.29086080459482</v>
       </c>
       <c r="X11" t="n">
-        <v>44.88246449988376</v>
+        <v>44.88246449988375</v>
       </c>
       <c r="Y11" t="n">
         <v>42.66949092822406</v>
       </c>
       <c r="Z11" t="n">
-        <v>43.95006937599974</v>
+        <v>43.95006937599975</v>
       </c>
       <c r="AA11" t="n">
         <v>41.94500616807585</v>
@@ -2043,7 +2043,7 @@
         <v>34.89670369141737</v>
       </c>
       <c r="AC11" t="n">
-        <v>35.48043819378401</v>
+        <v>35.48043819378402</v>
       </c>
       <c r="AD11" t="n">
         <v>43.38010705332421</v>
@@ -2052,19 +2052,19 @@
         <v>41.71940309623418</v>
       </c>
       <c r="AF11" t="n">
-        <v>33.77607660500364</v>
+        <v>33.77607660500365</v>
       </c>
       <c r="AG11" t="n">
         <v>27.09841956775209</v>
       </c>
       <c r="AH11" t="n">
-        <v>30.26404239092338</v>
+        <v>30.26404239092337</v>
       </c>
       <c r="AI11" t="n">
         <v>35.29234280573414</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32.16400046700294</v>
+        <v>32.16400046700295</v>
       </c>
       <c r="AK11" t="n">
         <v>25.98400133456202</v>
@@ -2082,7 +2082,7 @@
         <v>24.05432559139573</v>
       </c>
       <c r="AP11" t="n">
-        <v>24.37215317276387</v>
+        <v>24.37215317276388</v>
       </c>
       <c r="AQ11" t="n">
         <v>24.08599170573447</v>
@@ -2106,7 +2106,7 @@
         <v>20.31745229426333</v>
       </c>
       <c r="AX11" t="n">
-        <v>21.38630624595764</v>
+        <v>21.38630624595765</v>
       </c>
     </row>
     <row r="12">
@@ -2117,19 +2117,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4.333748218908605</v>
+        <v>2.271828781576556</v>
       </c>
       <c r="D12" t="n">
-        <v>5.157777014237615</v>
+        <v>2.283943520522665</v>
       </c>
       <c r="E12" t="n">
-        <v>7.500673198877074</v>
+        <v>3.608176765946512</v>
       </c>
       <c r="F12" t="n">
-        <v>8.363240795692619</v>
+        <v>4.760235574796782</v>
       </c>
       <c r="G12" t="n">
-        <v>8.312136583193848</v>
+        <v>4.676907647827023</v>
       </c>
       <c r="H12" t="n">
         <v>12.28378097307567</v>
@@ -2138,31 +2138,31 @@
         <v>19.17255335619434</v>
       </c>
       <c r="J12" t="n">
-        <v>29.07212377298589</v>
+        <v>29.0721237729859</v>
       </c>
       <c r="K12" t="n">
         <v>18.85121338855655</v>
       </c>
       <c r="L12" t="n">
-        <v>27.53232344341231</v>
+        <v>27.53232344341232</v>
       </c>
       <c r="M12" t="n">
         <v>29.62699921711369</v>
       </c>
       <c r="N12" t="n">
-        <v>30.97010147372534</v>
+        <v>30.97010147372535</v>
       </c>
       <c r="O12" t="n">
         <v>30.07312681405756</v>
       </c>
       <c r="P12" t="n">
-        <v>28.85844343502052</v>
+        <v>28.85844343502053</v>
       </c>
       <c r="Q12" t="n">
         <v>28.1418259631691</v>
       </c>
       <c r="R12" t="n">
-        <v>28.08175182442449</v>
+        <v>28.0817518244245</v>
       </c>
       <c r="S12" t="n">
         <v>26.33170083912902</v>
@@ -2171,10 +2171,10 @@
         <v>25.8575978552861</v>
       </c>
       <c r="U12" t="n">
-        <v>23.7259518119942</v>
+        <v>23.72595181199421</v>
       </c>
       <c r="V12" t="n">
-        <v>31.91235690078884</v>
+        <v>31.91235690078885</v>
       </c>
       <c r="W12" t="n">
         <v>21.50628407889405</v>
@@ -2186,10 +2186,10 @@
         <v>21.05675669938945</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.84081901587081</v>
+        <v>21.8408190158708</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.78336119058164</v>
+        <v>16.78336119058163</v>
       </c>
       <c r="AB12" t="n">
         <v>17.46229995404186</v>
@@ -2219,10 +2219,10 @@
         <v>10.69469376316164</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.321604009051192</v>
+        <v>8.321604009051191</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.677285219668621</v>
+        <v>7.677285219668622</v>
       </c>
       <c r="AM12" t="n">
         <v>5.30431963608005</v>
@@ -2246,19 +2246,19 @@
         <v>2.825898868575012</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.144745831021844</v>
+        <v>3.144745831021843</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.730053696473566</v>
+        <v>2.730053696473565</v>
       </c>
       <c r="AV12" t="n">
         <v>2.739219360969111</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.21587429911463</v>
+        <v>3.215874299114631</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.879420064337136</v>
+        <v>2.879420064337135</v>
       </c>
     </row>
     <row r="13">
@@ -2269,19 +2269,19 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.41938720503438</v>
+        <v>6.545396979327182</v>
       </c>
       <c r="D13" t="n">
-        <v>11.337088137075</v>
+        <v>5.254788661898459</v>
       </c>
       <c r="E13" t="n">
-        <v>11.62281453945065</v>
+        <v>5.446078461637572</v>
       </c>
       <c r="F13" t="n">
-        <v>12.20517524939117</v>
+        <v>8.014360568803818</v>
       </c>
       <c r="G13" t="n">
-        <v>24.63374808735253</v>
+        <v>12.1328863265003</v>
       </c>
       <c r="H13" t="n">
         <v>26.60783131617937</v>
@@ -2302,13 +2302,13 @@
         <v>44.72263090018846</v>
       </c>
       <c r="N13" t="n">
-        <v>42.66231277718963</v>
+        <v>42.66231277718965</v>
       </c>
       <c r="O13" t="n">
-        <v>46.89157555645497</v>
+        <v>46.89157555645498</v>
       </c>
       <c r="P13" t="n">
-        <v>40.45295610267718</v>
+        <v>40.45295610267717</v>
       </c>
       <c r="Q13" t="n">
         <v>45.21960122246698</v>
@@ -2317,13 +2317,13 @@
         <v>42.39957863012516</v>
       </c>
       <c r="S13" t="n">
-        <v>33.16463088192934</v>
+        <v>33.16463088192933</v>
       </c>
       <c r="T13" t="n">
         <v>29.65301518968509</v>
       </c>
       <c r="U13" t="n">
-        <v>28.29942438757333</v>
+        <v>28.29942438757334</v>
       </c>
       <c r="V13" t="n">
         <v>30.20312662995063</v>
@@ -2335,10 +2335,10 @@
         <v>25.51161418417754</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.17902268659581</v>
+        <v>23.17902268659582</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.10573023595952</v>
+        <v>23.10573023595953</v>
       </c>
       <c r="AA13" t="n">
         <v>14.92308522361619</v>
@@ -2371,7 +2371,7 @@
         <v>9.445871542635496</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.821538053834102</v>
+        <v>9.821538053834104</v>
       </c>
       <c r="AL13" t="n">
         <v>9.064617190723233</v>
@@ -2380,7 +2380,7 @@
         <v>7.726689416630859</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.036533470359119</v>
+        <v>8.036533470359121</v>
       </c>
       <c r="AO13" t="n">
         <v>11.37354686646602</v>
@@ -2401,13 +2401,13 @@
         <v>8.104103953550259</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.486951489629239</v>
+        <v>7.48695148962924</v>
       </c>
       <c r="AV13" t="n">
         <v>8.359850535909812</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.749977197754186</v>
+        <v>8.749977197754184</v>
       </c>
       <c r="AX13" t="n">
         <v>8.487083632268121</v>
@@ -2421,37 +2421,37 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.83113692079909</v>
+        <v>10.76462477134666</v>
       </c>
       <c r="D14" t="n">
-        <v>21.35731204175274</v>
+        <v>10.52823908239717</v>
       </c>
       <c r="E14" t="n">
-        <v>27.14584614903394</v>
+        <v>10.37459866517043</v>
       </c>
       <c r="F14" t="n">
-        <v>33.1673079439457</v>
+        <v>16.49821057090319</v>
       </c>
       <c r="G14" t="n">
-        <v>36.04504114226762</v>
+        <v>21.22381818397743</v>
       </c>
       <c r="H14" t="n">
         <v>35.53896483720938</v>
       </c>
       <c r="I14" t="n">
-        <v>49.09146085263055</v>
+        <v>49.09146085263053</v>
       </c>
       <c r="J14" t="n">
         <v>110.8626250373233</v>
       </c>
       <c r="K14" t="n">
-        <v>73.92132018026803</v>
+        <v>73.92132018026804</v>
       </c>
       <c r="L14" t="n">
         <v>71.45002454869268</v>
       </c>
       <c r="M14" t="n">
-        <v>82.6490603123228</v>
+        <v>82.64906031232277</v>
       </c>
       <c r="N14" t="n">
         <v>76.53716948945051</v>
@@ -2460,10 +2460,10 @@
         <v>75.53521942096295</v>
       </c>
       <c r="P14" t="n">
-        <v>68.02381272615789</v>
+        <v>68.02381272615787</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.19879996923014</v>
+        <v>67.19879996923012</v>
       </c>
       <c r="R14" t="n">
         <v>58.33586760370079</v>
@@ -2481,7 +2481,7 @@
         <v>79.33225866460424</v>
       </c>
       <c r="W14" t="n">
-        <v>59.35045647130971</v>
+        <v>59.35045647130973</v>
       </c>
       <c r="X14" t="n">
         <v>66.13374621594841</v>
@@ -2523,7 +2523,7 @@
         <v>76.32620714025899</v>
       </c>
       <c r="AK14" t="n">
-        <v>67.85860780585436</v>
+        <v>67.85860780585435</v>
       </c>
       <c r="AL14" t="n">
         <v>58.80477828529288</v>
@@ -2535,13 +2535,13 @@
         <v>38.79201904466611</v>
       </c>
       <c r="AO14" t="n">
-        <v>32.41280459647582</v>
+        <v>32.41280459647583</v>
       </c>
       <c r="AP14" t="n">
         <v>29.93581379075259</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26.88444162125278</v>
+        <v>26.88444162125279</v>
       </c>
       <c r="AR14" t="n">
         <v>25.05394676961076</v>
@@ -2559,7 +2559,7 @@
         <v>21.19714473318159</v>
       </c>
       <c r="AW14" t="n">
-        <v>21.96349453237676</v>
+        <v>21.96349453237675</v>
       </c>
       <c r="AX14" t="n">
         <v>19.09538148073762</v>
@@ -2573,22 +2573,22 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.906980942778489</v>
+        <v>1.626751255108262</v>
       </c>
       <c r="D15" t="n">
-        <v>3.09178381563232</v>
+        <v>1.580841387557955</v>
       </c>
       <c r="E15" t="n">
-        <v>3.061175879605464</v>
+        <v>1.433062056477306</v>
       </c>
       <c r="F15" t="n">
-        <v>3.47388333412037</v>
+        <v>1.106750916131654</v>
       </c>
       <c r="G15" t="n">
-        <v>3.029973872138287</v>
+        <v>1.41275611006394</v>
       </c>
       <c r="H15" t="n">
-        <v>2.549649939843043</v>
+        <v>2.549649939843044</v>
       </c>
       <c r="I15" t="n">
         <v>3.80414503902625</v>
@@ -2600,10 +2600,10 @@
         <v>3.946440606180246</v>
       </c>
       <c r="L15" t="n">
-        <v>4.712950997525603</v>
+        <v>4.712950997525604</v>
       </c>
       <c r="M15" t="n">
-        <v>5.36664171965341</v>
+        <v>5.366641719653411</v>
       </c>
       <c r="N15" t="n">
         <v>4.533667637195678</v>
@@ -2612,7 +2612,7 @@
         <v>4.758303254164968</v>
       </c>
       <c r="P15" t="n">
-        <v>4.298974715485225</v>
+        <v>4.298974715485226</v>
       </c>
       <c r="Q15" t="n">
         <v>4.822267091146386</v>
@@ -2621,7 +2621,7 @@
         <v>4.466296107204515</v>
       </c>
       <c r="S15" t="n">
-        <v>4.807909945650956</v>
+        <v>4.807909945650957</v>
       </c>
       <c r="T15" t="n">
         <v>4.386762608780711</v>
@@ -2630,16 +2630,16 @@
         <v>4.956641965777083</v>
       </c>
       <c r="V15" t="n">
-        <v>4.899302981360694</v>
+        <v>4.899302981360695</v>
       </c>
       <c r="W15" t="n">
-        <v>4.168557807674343</v>
+        <v>4.168557807674344</v>
       </c>
       <c r="X15" t="n">
         <v>4.335013592929718</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.189996642691946</v>
+        <v>4.189996642691947</v>
       </c>
       <c r="Z15" t="n">
         <v>5.079648385167228</v>
@@ -2654,7 +2654,7 @@
         <v>4.881668565561452</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.495960749277532</v>
+        <v>5.495960749277531</v>
       </c>
       <c r="AE15" t="n">
         <v>5.735619345390495</v>
@@ -2663,13 +2663,13 @@
         <v>5.479747912357344</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.664037628790596</v>
+        <v>5.664037628790598</v>
       </c>
       <c r="AH15" t="n">
         <v>5.091444807178672</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.39546865360238</v>
+        <v>5.395468653602379</v>
       </c>
       <c r="AJ15" t="n">
         <v>5.883161682291953</v>
@@ -2699,7 +2699,7 @@
         <v>4.104328529341447</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.562485370438539</v>
+        <v>3.56248537043854</v>
       </c>
       <c r="AT15" t="n">
         <v>3.379739826661874</v>
@@ -2714,7 +2714,7 @@
         <v>3.106487836235164</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.979810216337956</v>
+        <v>2.979810216337955</v>
       </c>
     </row>
     <row r="16">
@@ -2725,43 +2725,43 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.77075064404267</v>
+        <v>6.626708555453775</v>
       </c>
       <c r="D16" t="n">
-        <v>14.50376537485135</v>
+        <v>6.138363898469843</v>
       </c>
       <c r="E16" t="n">
-        <v>14.68160521829753</v>
+        <v>7.638412502171446</v>
       </c>
       <c r="F16" t="n">
-        <v>20.98162238718302</v>
+        <v>12.13217186373902</v>
       </c>
       <c r="G16" t="n">
-        <v>21.55918035194831</v>
+        <v>11.77224741053403</v>
       </c>
       <c r="H16" t="n">
-        <v>29.81315097319781</v>
+        <v>29.8131509731978</v>
       </c>
       <c r="I16" t="n">
-        <v>43.96352743048599</v>
+        <v>43.96352743048598</v>
       </c>
       <c r="J16" t="n">
-        <v>77.44307709167718</v>
+        <v>77.4430770916772</v>
       </c>
       <c r="K16" t="n">
         <v>62.48771951843066</v>
       </c>
       <c r="L16" t="n">
-        <v>71.06622313576671</v>
+        <v>71.06622313576669</v>
       </c>
       <c r="M16" t="n">
-        <v>85.94080921675042</v>
+        <v>85.94080921675044</v>
       </c>
       <c r="N16" t="n">
-        <v>91.25079136588931</v>
+        <v>91.25079136588928</v>
       </c>
       <c r="O16" t="n">
-        <v>78.98532590997945</v>
+        <v>78.98532590997947</v>
       </c>
       <c r="P16" t="n">
         <v>83.10464541947971</v>
@@ -2770,10 +2770,10 @@
         <v>77.94195249072031</v>
       </c>
       <c r="R16" t="n">
-        <v>61.82860042528942</v>
+        <v>61.82860042528943</v>
       </c>
       <c r="S16" t="n">
-        <v>65.54478137183108</v>
+        <v>65.54478137183109</v>
       </c>
       <c r="T16" t="n">
         <v>60.82561787875323</v>
@@ -2782,7 +2782,7 @@
         <v>65.76477640821909</v>
       </c>
       <c r="V16" t="n">
-        <v>82.53660844056569</v>
+        <v>82.5366084405657</v>
       </c>
       <c r="W16" t="n">
         <v>64.79870769393069</v>
@@ -2800,10 +2800,10 @@
         <v>66.68795483142145</v>
       </c>
       <c r="AB16" t="n">
-        <v>79.20347270913287</v>
+        <v>79.20347270913288</v>
       </c>
       <c r="AC16" t="n">
-        <v>74.77663721983363</v>
+        <v>74.77663721983362</v>
       </c>
       <c r="AD16" t="n">
         <v>92.51448877523846</v>
@@ -2812,7 +2812,7 @@
         <v>75.64318055378308</v>
       </c>
       <c r="AF16" t="n">
-        <v>68.60530399596456</v>
+        <v>68.60530399596455</v>
       </c>
       <c r="AG16" t="n">
         <v>66.06757775595473</v>
@@ -2827,7 +2827,7 @@
         <v>55.91047033146938</v>
       </c>
       <c r="AK16" t="n">
-        <v>46.85995351730941</v>
+        <v>46.85995351730939</v>
       </c>
       <c r="AL16" t="n">
         <v>37.17552740046322</v>
@@ -2836,7 +2836,7 @@
         <v>29.58599199703042</v>
       </c>
       <c r="AN16" t="n">
-        <v>26.59770259534834</v>
+        <v>26.59770259534833</v>
       </c>
       <c r="AO16" t="n">
         <v>22.51000028832212</v>
@@ -2877,19 +2877,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>20.90836641890522</v>
+        <v>12.01214630130926</v>
       </c>
       <c r="D17" t="n">
-        <v>20.44969018217279</v>
+        <v>10.46567399782247</v>
       </c>
       <c r="E17" t="n">
-        <v>18.30181019035833</v>
+        <v>9.556454096306663</v>
       </c>
       <c r="F17" t="n">
-        <v>24.10327376959361</v>
+        <v>11.36348778148013</v>
       </c>
       <c r="G17" t="n">
-        <v>25.4603562582638</v>
+        <v>15.81400256994171</v>
       </c>
       <c r="H17" t="n">
         <v>25.91687482845599</v>
@@ -2901,16 +2901,16 @@
         <v>48.99640068357196</v>
       </c>
       <c r="K17" t="n">
-        <v>51.39537992261206</v>
+        <v>51.39537992261204</v>
       </c>
       <c r="L17" t="n">
-        <v>47.14784866234989</v>
+        <v>47.14784866234987</v>
       </c>
       <c r="M17" t="n">
         <v>56.08671853049705</v>
       </c>
       <c r="N17" t="n">
-        <v>61.60687512316086</v>
+        <v>61.60687512316085</v>
       </c>
       <c r="O17" t="n">
         <v>70.21676360833611</v>
@@ -2919,7 +2919,7 @@
         <v>65.58201419730467</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.46088033435344</v>
+        <v>61.46088033435345</v>
       </c>
       <c r="R17" t="n">
         <v>64.09518834868041</v>
@@ -2928,13 +2928,13 @@
         <v>57.56067602251174</v>
       </c>
       <c r="T17" t="n">
-        <v>49.32233488673869</v>
+        <v>49.3223348867387</v>
       </c>
       <c r="U17" t="n">
         <v>51.50575577590268</v>
       </c>
       <c r="V17" t="n">
-        <v>62.78850081770527</v>
+        <v>62.78850081770526</v>
       </c>
       <c r="W17" t="n">
         <v>52.47228714785442</v>
@@ -2943,19 +2943,19 @@
         <v>47.33554158991959</v>
       </c>
       <c r="Y17" t="n">
-        <v>39.16431333073151</v>
+        <v>39.1643133307315</v>
       </c>
       <c r="Z17" t="n">
         <v>39.91987861497362</v>
       </c>
       <c r="AA17" t="n">
-        <v>37.14090029149822</v>
+        <v>37.14090029149823</v>
       </c>
       <c r="AB17" t="n">
         <v>34.72849722628956</v>
       </c>
       <c r="AC17" t="n">
-        <v>35.31958686362437</v>
+        <v>35.31958686362438</v>
       </c>
       <c r="AD17" t="n">
         <v>38.9547633682262</v>
@@ -2976,7 +2976,7 @@
         <v>33.12100346698462</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34.49572109247543</v>
+        <v>34.49572109247544</v>
       </c>
       <c r="AK17" t="n">
         <v>25.0622684265622</v>
@@ -2985,7 +2985,7 @@
         <v>30.01708040441758</v>
       </c>
       <c r="AM17" t="n">
-        <v>24.62519871854404</v>
+        <v>24.62519871854405</v>
       </c>
       <c r="AN17" t="n">
         <v>24.15383627524299</v>
@@ -2994,7 +2994,7 @@
         <v>22.75075976517683</v>
       </c>
       <c r="AP17" t="n">
-        <v>24.86410316132589</v>
+        <v>24.86410316132588</v>
       </c>
       <c r="AQ17" t="n">
         <v>23.28138535254816</v>
@@ -3029,19 +3029,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3.960045807937825</v>
+        <v>2.067434410712337</v>
       </c>
       <c r="D18" t="n">
-        <v>5.839394714042203</v>
+        <v>2.528686061377086</v>
       </c>
       <c r="E18" t="n">
-        <v>6.144330817298751</v>
+        <v>3.603167032131938</v>
       </c>
       <c r="F18" t="n">
-        <v>5.939580405044149</v>
+        <v>3.034793254461841</v>
       </c>
       <c r="G18" t="n">
-        <v>9.931096809385878</v>
+        <v>4.982880751460226</v>
       </c>
       <c r="H18" t="n">
         <v>13.94323841309146</v>
@@ -3059,7 +3059,7 @@
         <v>23.06367586382046</v>
       </c>
       <c r="M18" t="n">
-        <v>35.71578157532056</v>
+        <v>35.71578157532057</v>
       </c>
       <c r="N18" t="n">
         <v>31.4431298369139</v>
@@ -3077,16 +3077,16 @@
         <v>27.56078360690019</v>
       </c>
       <c r="S18" t="n">
-        <v>27.8277993213103</v>
+        <v>27.82779932131029</v>
       </c>
       <c r="T18" t="n">
-        <v>26.92183007927111</v>
+        <v>26.9218300792711</v>
       </c>
       <c r="U18" t="n">
-        <v>23.94468951674014</v>
+        <v>23.94468951674015</v>
       </c>
       <c r="V18" t="n">
-        <v>28.16540967605516</v>
+        <v>28.16540967605517</v>
       </c>
       <c r="W18" t="n">
         <v>21.79534318038348</v>
@@ -3107,7 +3107,7 @@
         <v>18.76746301531044</v>
       </c>
       <c r="AC18" t="n">
-        <v>20.3671179281243</v>
+        <v>20.36711792812431</v>
       </c>
       <c r="AD18" t="n">
         <v>18.73390696415996</v>
@@ -3116,13 +3116,13 @@
         <v>17.46275874216051</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.05780787681731</v>
+        <v>16.0578078768173</v>
       </c>
       <c r="AG18" t="n">
         <v>13.4905978156658</v>
       </c>
       <c r="AH18" t="n">
-        <v>12.06405516270603</v>
+        <v>12.06405516270602</v>
       </c>
       <c r="AI18" t="n">
         <v>10.53680439058484</v>
@@ -3131,16 +3131,16 @@
         <v>10.06789500513429</v>
       </c>
       <c r="AK18" t="n">
-        <v>7.764103884471356</v>
+        <v>7.764103884471354</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.152615177608794</v>
+        <v>7.152615177608793</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.681192985202872</v>
+        <v>4.681192985202873</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.133470781197635</v>
+        <v>4.133470781197636</v>
       </c>
       <c r="AO18" t="n">
         <v>3.886943830423919</v>
@@ -3149,7 +3149,7 @@
         <v>3.670969119148213</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.396431472680912</v>
+        <v>3.396431472680914</v>
       </c>
       <c r="AR18" t="n">
         <v>3.676427858455872</v>
@@ -3161,7 +3161,7 @@
         <v>3.056096684092934</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.06267225207811</v>
+        <v>3.062672252078109</v>
       </c>
       <c r="AV18" t="n">
         <v>2.848068980623373</v>
@@ -3181,19 +3181,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.22945502768783</v>
+        <v>9.607640785608872</v>
       </c>
       <c r="D19" t="n">
-        <v>12.25137158928072</v>
+        <v>6.345251954925279</v>
       </c>
       <c r="E19" t="n">
-        <v>13.23723467879863</v>
+        <v>7.221563561588917</v>
       </c>
       <c r="F19" t="n">
-        <v>14.00507981220492</v>
+        <v>4.769102949016593</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49780829296877</v>
+        <v>17.04611828032768</v>
       </c>
       <c r="H19" t="n">
         <v>27.83542849854429</v>
@@ -3217,13 +3217,13 @@
         <v>39.86132791691527</v>
       </c>
       <c r="O19" t="n">
-        <v>43.92887432889016</v>
+        <v>43.92887432889015</v>
       </c>
       <c r="P19" t="n">
         <v>39.91016640810231</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.7606729107764</v>
+        <v>42.76067291077641</v>
       </c>
       <c r="R19" t="n">
         <v>40.71515555045233</v>
@@ -3271,7 +3271,7 @@
         <v>10.75199469621093</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.05297886951627</v>
+        <v>13.05297886951628</v>
       </c>
       <c r="AH19" t="n">
         <v>10.8141187887878</v>
@@ -3313,13 +3313,13 @@
         <v>7.998664949470295</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.156260047898149</v>
+        <v>7.156260047898148</v>
       </c>
       <c r="AV19" t="n">
         <v>8.701625054724476</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.24869859083025</v>
+        <v>9.248698590830248</v>
       </c>
       <c r="AX19" t="n">
         <v>8.705566493401255</v>
@@ -3333,22 +3333,22 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>19.717478969736</v>
+        <v>9.604458201604013</v>
       </c>
       <c r="D20" t="n">
-        <v>22.58472608391455</v>
+        <v>9.228753797963059</v>
       </c>
       <c r="E20" t="n">
-        <v>24.81235816970081</v>
+        <v>13.32893845198605</v>
       </c>
       <c r="F20" t="n">
-        <v>31.93526461113007</v>
+        <v>20.70975405135325</v>
       </c>
       <c r="G20" t="n">
-        <v>28.0695654428809</v>
+        <v>16.9698035447564</v>
       </c>
       <c r="H20" t="n">
-        <v>29.81001800870503</v>
+        <v>29.81001800870504</v>
       </c>
       <c r="I20" t="n">
         <v>56.34046116234301</v>
@@ -3366,10 +3366,10 @@
         <v>81.72172869182354</v>
       </c>
       <c r="N20" t="n">
-        <v>84.18759854464957</v>
+        <v>84.18759854464959</v>
       </c>
       <c r="O20" t="n">
-        <v>81.13065855972019</v>
+        <v>81.1306585597202</v>
       </c>
       <c r="P20" t="n">
         <v>66.84005369986376</v>
@@ -3381,10 +3381,10 @@
         <v>64.28687008082792</v>
       </c>
       <c r="S20" t="n">
-        <v>62.01882152596998</v>
+        <v>62.01882152596999</v>
       </c>
       <c r="T20" t="n">
-        <v>60.52604327348856</v>
+        <v>60.52604327348857</v>
       </c>
       <c r="U20" t="n">
         <v>63.99586848394883</v>
@@ -3402,7 +3402,7 @@
         <v>67.47563018759588</v>
       </c>
       <c r="Z20" t="n">
-        <v>76.73403503265318</v>
+        <v>76.7340350326532</v>
       </c>
       <c r="AA20" t="n">
         <v>85.49404182943177</v>
@@ -3429,10 +3429,10 @@
         <v>101.0292513739579</v>
       </c>
       <c r="AI20" t="n">
-        <v>87.29321095692436</v>
+        <v>87.29321095692434</v>
       </c>
       <c r="AJ20" t="n">
-        <v>79.64764099973358</v>
+        <v>79.6476409997336</v>
       </c>
       <c r="AK20" t="n">
         <v>58.65169918810408</v>
@@ -3456,10 +3456,10 @@
         <v>26.86407567479453</v>
       </c>
       <c r="AR20" t="n">
-        <v>25.0894599054973</v>
+        <v>25.08945990549731</v>
       </c>
       <c r="AS20" t="n">
-        <v>22.91316023739541</v>
+        <v>22.91316023739542</v>
       </c>
       <c r="AT20" t="n">
         <v>23.08523950646076</v>
@@ -3485,19 +3485,19 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.051076513341005</v>
+        <v>1.595109337052378</v>
       </c>
       <c r="D21" t="n">
-        <v>3.158781068864155</v>
+        <v>1.475103742794679</v>
       </c>
       <c r="E21" t="n">
-        <v>3.196550022445605</v>
+        <v>1.47700967269584</v>
       </c>
       <c r="F21" t="n">
-        <v>3.204366305869181</v>
+        <v>1.575951871831338</v>
       </c>
       <c r="G21" t="n">
-        <v>2.81764614600336</v>
+        <v>1.408934644487209</v>
       </c>
       <c r="H21" t="n">
         <v>2.711552228943285</v>
@@ -3506,13 +3506,13 @@
         <v>3.918764628477077</v>
       </c>
       <c r="J21" t="n">
-        <v>4.440823332352679</v>
+        <v>4.44082333235268</v>
       </c>
       <c r="K21" t="n">
         <v>3.551112071782711</v>
       </c>
       <c r="L21" t="n">
-        <v>4.281245515983969</v>
+        <v>4.281245515983968</v>
       </c>
       <c r="M21" t="n">
         <v>4.944565296142785</v>
@@ -3524,10 +3524,10 @@
         <v>5.063142949289901</v>
       </c>
       <c r="P21" t="n">
-        <v>5.01217044878374</v>
+        <v>5.012170448783739</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.765430471618238</v>
+        <v>4.765430471618239</v>
       </c>
       <c r="R21" t="n">
         <v>4.498602073994872</v>
@@ -3548,7 +3548,7 @@
         <v>4.382194251014841</v>
       </c>
       <c r="X21" t="n">
-        <v>4.410099059405671</v>
+        <v>4.410099059405672</v>
       </c>
       <c r="Y21" t="n">
         <v>4.425092423169085</v>
@@ -3566,19 +3566,19 @@
         <v>5.186412418101793</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.74443853238942</v>
+        <v>5.744438532389421</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.606141603263949</v>
+        <v>5.606141603263947</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.667027395538878</v>
+        <v>5.667027395538879</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.501331820646916</v>
+        <v>5.501331820646917</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.854519389549278</v>
+        <v>5.854519389549279</v>
       </c>
       <c r="AI21" t="n">
         <v>6.025487474460687</v>
@@ -3587,19 +3587,19 @@
         <v>5.346390977701068</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.862154839251486</v>
+        <v>4.862154839251485</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.713451704003977</v>
+        <v>4.713451704003976</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.049817024893778</v>
+        <v>5.049817024893777</v>
       </c>
       <c r="AN21" t="n">
         <v>4.563138705648971</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.058685550598816</v>
+        <v>4.058685550598817</v>
       </c>
       <c r="AP21" t="n">
         <v>3.622660536720025</v>
@@ -3620,7 +3620,7 @@
         <v>3.585148915925125</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.529631253859622</v>
+        <v>3.529631253859621</v>
       </c>
       <c r="AW21" t="n">
         <v>3.569012995621496</v>
@@ -3637,28 +3637,28 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>10.63001187438608</v>
+        <v>4.963313919064659</v>
       </c>
       <c r="D22" t="n">
-        <v>14.69166411448712</v>
+        <v>4.845146574378782</v>
       </c>
       <c r="E22" t="n">
-        <v>16.02153017532545</v>
+        <v>7.130673264358315</v>
       </c>
       <c r="F22" t="n">
-        <v>17.77021753427745</v>
+        <v>8.063412080621966</v>
       </c>
       <c r="G22" t="n">
-        <v>21.77985587538098</v>
+        <v>7.647936561901194</v>
       </c>
       <c r="H22" t="n">
-        <v>33.15649288941888</v>
+        <v>33.15649288941889</v>
       </c>
       <c r="I22" t="n">
         <v>51.15839913708144</v>
       </c>
       <c r="J22" t="n">
-        <v>89.28682285203982</v>
+        <v>89.28682285203985</v>
       </c>
       <c r="K22" t="n">
         <v>59.0119391079357</v>
@@ -3670,25 +3670,25 @@
         <v>91.92787408050782</v>
       </c>
       <c r="N22" t="n">
-        <v>92.37777274015728</v>
+        <v>92.37777274015731</v>
       </c>
       <c r="O22" t="n">
         <v>68.66544274083138</v>
       </c>
       <c r="P22" t="n">
-        <v>77.81708873804754</v>
+        <v>77.81708873804756</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.12122056681422</v>
+        <v>69.1212205668142</v>
       </c>
       <c r="R22" t="n">
         <v>78.79350731360817</v>
       </c>
       <c r="S22" t="n">
-        <v>60.66166289297029</v>
+        <v>60.66166289297028</v>
       </c>
       <c r="T22" t="n">
-        <v>57.86245943154997</v>
+        <v>57.86245943154996</v>
       </c>
       <c r="U22" t="n">
         <v>63.14842954668574</v>
@@ -3703,13 +3703,13 @@
         <v>68.37609365393145</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.34541461437782</v>
+        <v>73.34541461437783</v>
       </c>
       <c r="Z22" t="n">
         <v>66.47572781776805</v>
       </c>
       <c r="AA22" t="n">
-        <v>66.97806587104813</v>
+        <v>66.97806587104814</v>
       </c>
       <c r="AB22" t="n">
         <v>70.86427846127224</v>
@@ -3721,10 +3721,10 @@
         <v>83.6677877469405</v>
       </c>
       <c r="AE22" t="n">
-        <v>74.43166771032185</v>
+        <v>74.43166771032186</v>
       </c>
       <c r="AF22" t="n">
-        <v>70.91998264878232</v>
+        <v>70.91998264878234</v>
       </c>
       <c r="AG22" t="n">
         <v>68.70545800746402</v>
@@ -3733,13 +3733,13 @@
         <v>61.22564522983525</v>
       </c>
       <c r="AI22" t="n">
-        <v>59.26625753411383</v>
+        <v>59.26625753411382</v>
       </c>
       <c r="AJ22" t="n">
         <v>54.49640144369908</v>
       </c>
       <c r="AK22" t="n">
-        <v>40.8754388796643</v>
+        <v>40.87543887966429</v>
       </c>
       <c r="AL22" t="n">
         <v>39.45260903713632</v>
@@ -3751,7 +3751,7 @@
         <v>23.4245485007739</v>
       </c>
       <c r="AO22" t="n">
-        <v>22.07077422146276</v>
+        <v>22.07077422146277</v>
       </c>
       <c r="AP22" t="n">
         <v>18.13628951005615</v>
@@ -3778,7 +3778,7 @@
         <v>12.47814175351029</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.48107788977227</v>
+        <v>10.48107788977228</v>
       </c>
     </row>
     <row r="23">
@@ -3789,37 +3789,37 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>18.41186998337526</v>
+        <v>10.47534802324693</v>
       </c>
       <c r="D23" t="n">
-        <v>20.54241694741313</v>
+        <v>10.66598169230211</v>
       </c>
       <c r="E23" t="n">
-        <v>18.35874100808591</v>
+        <v>9.619970060588358</v>
       </c>
       <c r="F23" t="n">
-        <v>19.57731477948943</v>
+        <v>10.53355092811341</v>
       </c>
       <c r="G23" t="n">
-        <v>24.25073424027558</v>
+        <v>11.42087737818145</v>
       </c>
       <c r="H23" t="n">
         <v>33.21785095532147</v>
       </c>
       <c r="I23" t="n">
-        <v>37.54812623647224</v>
+        <v>37.54812623647225</v>
       </c>
       <c r="J23" t="n">
         <v>46.18238493898197</v>
       </c>
       <c r="K23" t="n">
-        <v>48.12476577861964</v>
+        <v>48.12476577861963</v>
       </c>
       <c r="L23" t="n">
         <v>52.40949748138726</v>
       </c>
       <c r="M23" t="n">
-        <v>56.54734824236984</v>
+        <v>56.54734824236985</v>
       </c>
       <c r="N23" t="n">
         <v>70.29568516447475</v>
@@ -3840,28 +3840,28 @@
         <v>64.87873160300745</v>
       </c>
       <c r="T23" t="n">
-        <v>56.70814726188326</v>
+        <v>56.70814726188325</v>
       </c>
       <c r="U23" t="n">
-        <v>54.99828790516985</v>
+        <v>54.99828790516984</v>
       </c>
       <c r="V23" t="n">
         <v>57.26622808266738</v>
       </c>
       <c r="W23" t="n">
-        <v>44.17238541364549</v>
+        <v>44.1723854136455</v>
       </c>
       <c r="X23" t="n">
         <v>51.18402392616358</v>
       </c>
       <c r="Y23" t="n">
-        <v>44.15419266684405</v>
+        <v>44.15419266684407</v>
       </c>
       <c r="Z23" t="n">
         <v>46.95304194829217</v>
       </c>
       <c r="AA23" t="n">
-        <v>42.67663146666432</v>
+        <v>42.67663146666433</v>
       </c>
       <c r="AB23" t="n">
         <v>39.60175567297301</v>
@@ -3870,7 +3870,7 @@
         <v>40.6491387381212</v>
       </c>
       <c r="AD23" t="n">
-        <v>43.04508497375459</v>
+        <v>43.0450849737546</v>
       </c>
       <c r="AE23" t="n">
         <v>39.99485116900217</v>
@@ -3885,10 +3885,10 @@
         <v>36.21844029634767</v>
       </c>
       <c r="AI23" t="n">
-        <v>35.47287794135946</v>
+        <v>35.47287794135947</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28.45787558488846</v>
+        <v>28.45787558488847</v>
       </c>
       <c r="AK23" t="n">
         <v>24.93564632213783</v>
@@ -3909,10 +3909,10 @@
         <v>25.06912772400668</v>
       </c>
       <c r="AQ23" t="n">
-        <v>24.08819307070272</v>
+        <v>24.08819307070271</v>
       </c>
       <c r="AR23" t="n">
-        <v>23.92027339106362</v>
+        <v>23.92027339106363</v>
       </c>
       <c r="AS23" t="n">
         <v>23.70061973817674</v>
@@ -3941,25 +3941,25 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.822159999028883</v>
+        <v>1.934825419809368</v>
       </c>
       <c r="D24" t="n">
-        <v>4.979980623471055</v>
+        <v>2.721143601242153</v>
       </c>
       <c r="E24" t="n">
-        <v>6.169152369451065</v>
+        <v>3.332157515264137</v>
       </c>
       <c r="F24" t="n">
-        <v>7.980992666854839</v>
+        <v>3.402752027108537</v>
       </c>
       <c r="G24" t="n">
-        <v>9.081583910033403</v>
+        <v>4.157864177126371</v>
       </c>
       <c r="H24" t="n">
         <v>12.0552703425234</v>
       </c>
       <c r="I24" t="n">
-        <v>17.77083737455146</v>
+        <v>17.77083737455147</v>
       </c>
       <c r="J24" t="n">
         <v>26.03579065582229</v>
@@ -3992,7 +3992,7 @@
         <v>28.22315847173475</v>
       </c>
       <c r="T24" t="n">
-        <v>27.46482170877492</v>
+        <v>27.46482170877493</v>
       </c>
       <c r="U24" t="n">
         <v>21.95911065654114</v>
@@ -4004,7 +4004,7 @@
         <v>20.89647505236571</v>
       </c>
       <c r="X24" t="n">
-        <v>21.87083865852456</v>
+        <v>21.87083865852455</v>
       </c>
       <c r="Y24" t="n">
         <v>18.41147706227068</v>
@@ -4013,7 +4013,7 @@
         <v>22.98498525423531</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.35212889353031</v>
+        <v>17.3521288935303</v>
       </c>
       <c r="AB24" t="n">
         <v>19.61049390707298</v>
@@ -4052,10 +4052,10 @@
         <v>4.757873991925575</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.54883919058414</v>
+        <v>4.548839190584141</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.677221126604633</v>
+        <v>3.677221126604632</v>
       </c>
       <c r="AP24" t="n">
         <v>3.360280690501211</v>
@@ -4064,7 +4064,7 @@
         <v>3.559564967684047</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.090935591042542</v>
+        <v>3.090935591042543</v>
       </c>
       <c r="AS24" t="n">
         <v>3.036999343962357</v>
@@ -4073,13 +4073,13 @@
         <v>3.044062636692904</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.651683610407484</v>
+        <v>2.651683610407483</v>
       </c>
       <c r="AV24" t="n">
         <v>2.6190498805365</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.049996652959517</v>
+        <v>3.049996652959515</v>
       </c>
       <c r="AX24" t="n">
         <v>3.039353880604379</v>
@@ -4093,19 +4093,19 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.58940661344641</v>
+        <v>6.562346915635576</v>
       </c>
       <c r="D25" t="n">
-        <v>12.93851269525084</v>
+        <v>5.688260618348222</v>
       </c>
       <c r="E25" t="n">
-        <v>11.58146676259663</v>
+        <v>6.706870584872811</v>
       </c>
       <c r="F25" t="n">
-        <v>14.78910194407801</v>
+        <v>5.994818218688247</v>
       </c>
       <c r="G25" t="n">
-        <v>25.53198383481863</v>
+        <v>8.488165037942458</v>
       </c>
       <c r="H25" t="n">
         <v>28.04202627730448</v>
@@ -4138,13 +4138,13 @@
         <v>42.99983880425376</v>
       </c>
       <c r="R25" t="n">
-        <v>43.45891564549098</v>
+        <v>43.45891564549099</v>
       </c>
       <c r="S25" t="n">
         <v>29.5130808614561</v>
       </c>
       <c r="T25" t="n">
-        <v>29.76138917692299</v>
+        <v>29.761389176923</v>
       </c>
       <c r="U25" t="n">
         <v>31.46895723806405</v>
@@ -4198,7 +4198,7 @@
         <v>7.749454975552722</v>
       </c>
       <c r="AL25" t="n">
-        <v>11.41436034762326</v>
+        <v>11.41436034762327</v>
       </c>
       <c r="AM25" t="n">
         <v>10.5714449466469</v>
@@ -4207,16 +4207,16 @@
         <v>9.987058560970263</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.687177577099344</v>
+        <v>7.687177577099343</v>
       </c>
       <c r="AP25" t="n">
-        <v>8.792714021965464</v>
+        <v>8.792714021965466</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.191234720602987</v>
+        <v>8.191234720602985</v>
       </c>
       <c r="AR25" t="n">
-        <v>10.605194618275</v>
+        <v>10.60519461827499</v>
       </c>
       <c r="AS25" t="n">
         <v>9.337111490743347</v>
@@ -4225,10 +4225,10 @@
         <v>8.064981320352516</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.163800211117374</v>
+        <v>7.163800211117373</v>
       </c>
       <c r="AV25" t="n">
-        <v>9.042513238090232</v>
+        <v>9.04251323809023</v>
       </c>
       <c r="AW25" t="n">
         <v>8.7440023096211</v>
@@ -4245,43 +4245,43 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>19.4803600062204</v>
+        <v>10.34127542536506</v>
       </c>
       <c r="D26" t="n">
-        <v>21.82200558594372</v>
+        <v>12.4470664067482</v>
       </c>
       <c r="E26" t="n">
-        <v>27.74798447062388</v>
+        <v>15.20506500570892</v>
       </c>
       <c r="F26" t="n">
-        <v>29.70829237144009</v>
+        <v>16.71212599661859</v>
       </c>
       <c r="G26" t="n">
-        <v>32.61593277917601</v>
+        <v>20.50438113010859</v>
       </c>
       <c r="H26" t="n">
         <v>41.35602990773046</v>
       </c>
       <c r="I26" t="n">
-        <v>69.65119520708944</v>
+        <v>69.65119520708943</v>
       </c>
       <c r="J26" t="n">
-        <v>91.51874722536824</v>
+        <v>91.51874722536826</v>
       </c>
       <c r="K26" t="n">
-        <v>73.42208422592245</v>
+        <v>73.42208422592243</v>
       </c>
       <c r="L26" t="n">
-        <v>79.89072067487231</v>
+        <v>79.8907206748723</v>
       </c>
       <c r="M26" t="n">
         <v>87.38533765899484</v>
       </c>
       <c r="N26" t="n">
-        <v>97.46021602933139</v>
+        <v>97.46021602933141</v>
       </c>
       <c r="O26" t="n">
-        <v>68.82166803233731</v>
+        <v>68.8216680323373</v>
       </c>
       <c r="P26" t="n">
         <v>72.27064875665673</v>
@@ -4290,7 +4290,7 @@
         <v>65.06738182006472</v>
       </c>
       <c r="R26" t="n">
-        <v>63.67322595480397</v>
+        <v>63.67322595480398</v>
       </c>
       <c r="S26" t="n">
         <v>65.43157218914888</v>
@@ -4308,10 +4308,10 @@
         <v>59.53192778838413</v>
       </c>
       <c r="X26" t="n">
-        <v>79.57993963356418</v>
+        <v>79.57993963356419</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.58008929876938</v>
+        <v>75.58008929876937</v>
       </c>
       <c r="Z26" t="n">
         <v>75.03434129944986</v>
@@ -4341,7 +4341,7 @@
         <v>104.2221097245375</v>
       </c>
       <c r="AI26" t="n">
-        <v>89.71804503391918</v>
+        <v>89.71804503391921</v>
       </c>
       <c r="AJ26" t="n">
         <v>79.53511725806719</v>
@@ -4368,7 +4368,7 @@
         <v>26.44196757589892</v>
       </c>
       <c r="AR26" t="n">
-        <v>26.47380559862588</v>
+        <v>26.47380559862587</v>
       </c>
       <c r="AS26" t="n">
         <v>22.80350601849201</v>
@@ -4397,19 +4397,19 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.680884211636374</v>
+        <v>1.352336843435972</v>
       </c>
       <c r="D27" t="n">
-        <v>2.977349244379295</v>
+        <v>1.215057560133559</v>
       </c>
       <c r="E27" t="n">
-        <v>3.366467859236728</v>
+        <v>1.768483924499873</v>
       </c>
       <c r="F27" t="n">
-        <v>3.324362212836946</v>
+        <v>1.64227641807956</v>
       </c>
       <c r="G27" t="n">
-        <v>2.71320115594972</v>
+        <v>1.401470997844675</v>
       </c>
       <c r="H27" t="n">
         <v>3.32406675078922</v>
@@ -4421,19 +4421,19 @@
         <v>4.783837163062358</v>
       </c>
       <c r="K27" t="n">
-        <v>4.207810312500914</v>
+        <v>4.207810312500913</v>
       </c>
       <c r="L27" t="n">
-        <v>4.541173722998377</v>
+        <v>4.541173722998378</v>
       </c>
       <c r="M27" t="n">
         <v>4.465317195467418</v>
       </c>
       <c r="N27" t="n">
-        <v>5.23878382175284</v>
+        <v>5.238783821752841</v>
       </c>
       <c r="O27" t="n">
-        <v>5.379590491037735</v>
+        <v>5.379590491037736</v>
       </c>
       <c r="P27" t="n">
         <v>4.921110594415811</v>
@@ -4442,7 +4442,7 @@
         <v>4.881950015189595</v>
       </c>
       <c r="R27" t="n">
-        <v>4.271006380009427</v>
+        <v>4.271006380009428</v>
       </c>
       <c r="S27" t="n">
         <v>5.037842399614602</v>
@@ -4451,22 +4451,22 @@
         <v>4.298833468295404</v>
       </c>
       <c r="U27" t="n">
-        <v>4.4991270299345</v>
+        <v>4.499127029934502</v>
       </c>
       <c r="V27" t="n">
         <v>4.81914195474739</v>
       </c>
       <c r="W27" t="n">
-        <v>4.041691577581065</v>
+        <v>4.041691577581066</v>
       </c>
       <c r="X27" t="n">
-        <v>4.315091853166285</v>
+        <v>4.315091853166284</v>
       </c>
       <c r="Y27" t="n">
         <v>4.506076544730785</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.475993554450807</v>
+        <v>4.475993554450809</v>
       </c>
       <c r="AA27" t="n">
         <v>4.720968686385025</v>
@@ -4487,10 +4487,10 @@
         <v>5.389300254323535</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.459124375699064</v>
+        <v>5.459124375699065</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.559253168768294</v>
+        <v>5.559253168768293</v>
       </c>
       <c r="AI27" t="n">
         <v>5.599294418651327</v>
@@ -4499,7 +4499,7 @@
         <v>5.083308845759813</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.75882818079545</v>
+        <v>4.758828180795451</v>
       </c>
       <c r="AL27" t="n">
         <v>4.883012058237261</v>
@@ -4511,10 +4511,10 @@
         <v>4.644484716700093</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.193946559059934</v>
+        <v>4.193946559059935</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.867310241920714</v>
+        <v>3.867310241920713</v>
       </c>
       <c r="AQ27" t="n">
         <v>4.129957129091171</v>
@@ -4523,16 +4523,16 @@
         <v>3.815786986232619</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.468483611688899</v>
+        <v>3.4684836116889</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.782808746914644</v>
+        <v>3.782808746914645</v>
       </c>
       <c r="AU27" t="n">
         <v>4.17750802472477</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.009137581685709</v>
+        <v>3.009137581685708</v>
       </c>
       <c r="AW27" t="n">
         <v>3.250685942042145</v>
@@ -4549,25 +4549,25 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.71397285852135</v>
+        <v>6.615958633937882</v>
       </c>
       <c r="D28" t="n">
-        <v>15.06845908498613</v>
+        <v>6.814547993435504</v>
       </c>
       <c r="E28" t="n">
-        <v>16.20668633533367</v>
+        <v>9.717612902825103</v>
       </c>
       <c r="F28" t="n">
-        <v>20.3644984568711</v>
+        <v>8.176906779237646</v>
       </c>
       <c r="G28" t="n">
-        <v>22.73582448861073</v>
+        <v>14.02027390170973</v>
       </c>
       <c r="H28" t="n">
         <v>28.60007019347227</v>
       </c>
       <c r="I28" t="n">
-        <v>48.13651097520323</v>
+        <v>48.13651097520322</v>
       </c>
       <c r="J28" t="n">
         <v>91.36509352863601</v>
@@ -4579,7 +4579,7 @@
         <v>68.41301294282599</v>
       </c>
       <c r="M28" t="n">
-        <v>73.86186467385836</v>
+        <v>73.86186467385838</v>
       </c>
       <c r="N28" t="n">
         <v>79.28913040136911</v>
@@ -4594,10 +4594,10 @@
         <v>67.11023623240591</v>
       </c>
       <c r="R28" t="n">
-        <v>71.43109591164196</v>
+        <v>71.43109591164195</v>
       </c>
       <c r="S28" t="n">
-        <v>63.26304532094861</v>
+        <v>63.26304532094859</v>
       </c>
       <c r="T28" t="n">
         <v>58.499945315704</v>
@@ -4612,31 +4612,31 @@
         <v>65.31430160384957</v>
       </c>
       <c r="X28" t="n">
-        <v>65.78846167984901</v>
+        <v>65.78846167984899</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.70815621862589</v>
+        <v>70.7081562186259</v>
       </c>
       <c r="Z28" t="n">
         <v>73.66363381672996</v>
       </c>
       <c r="AA28" t="n">
-        <v>62.88813043169639</v>
+        <v>62.88813043169637</v>
       </c>
       <c r="AB28" t="n">
         <v>69.75934399837497</v>
       </c>
       <c r="AC28" t="n">
-        <v>75.6462099302743</v>
+        <v>75.64620993027428</v>
       </c>
       <c r="AD28" t="n">
-        <v>75.90562746031135</v>
+        <v>75.90562746031134</v>
       </c>
       <c r="AE28" t="n">
         <v>73.7703718551745</v>
       </c>
       <c r="AF28" t="n">
-        <v>69.32034127514301</v>
+        <v>69.32034127514302</v>
       </c>
       <c r="AG28" t="n">
         <v>66.76066676887822</v>
@@ -4645,22 +4645,22 @@
         <v>67.03122808938946</v>
       </c>
       <c r="AI28" t="n">
-        <v>53.81715648566907</v>
+        <v>53.81715648566906</v>
       </c>
       <c r="AJ28" t="n">
-        <v>52.27711372604749</v>
+        <v>52.27711372604748</v>
       </c>
       <c r="AK28" t="n">
         <v>39.76947389352929</v>
       </c>
       <c r="AL28" t="n">
-        <v>35.59017721139783</v>
+        <v>35.59017721139782</v>
       </c>
       <c r="AM28" t="n">
-        <v>30.27521048888697</v>
+        <v>30.27521048888696</v>
       </c>
       <c r="AN28" t="n">
-        <v>25.84162513654731</v>
+        <v>25.84162513654732</v>
       </c>
       <c r="AO28" t="n">
         <v>21.31968138594591</v>
@@ -4701,22 +4701,22 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>18.88142854092287</v>
+        <v>7.524452874294041</v>
       </c>
       <c r="D29" t="n">
-        <v>20.41460981099582</v>
+        <v>10.97990466567975</v>
       </c>
       <c r="E29" t="n">
-        <v>19.24582125041462</v>
+        <v>10.30402274919396</v>
       </c>
       <c r="F29" t="n">
-        <v>22.91657159056797</v>
+        <v>11.48435051818223</v>
       </c>
       <c r="G29" t="n">
-        <v>22.98840163835688</v>
+        <v>10.5926525752067</v>
       </c>
       <c r="H29" t="n">
-        <v>22.12293322970728</v>
+        <v>22.12293322970729</v>
       </c>
       <c r="I29" t="n">
         <v>32.31802929684202</v>
@@ -4725,7 +4725,7 @@
         <v>41.93088472363515</v>
       </c>
       <c r="K29" t="n">
-        <v>49.97365762130525</v>
+        <v>49.97365762130523</v>
       </c>
       <c r="L29" t="n">
         <v>54.96092102756715</v>
@@ -4734,16 +4734,16 @@
         <v>46.27976965299936</v>
       </c>
       <c r="N29" t="n">
-        <v>56.19720973090157</v>
+        <v>56.19720973090156</v>
       </c>
       <c r="O29" t="n">
-        <v>61.28031726374943</v>
+        <v>61.28031726374944</v>
       </c>
       <c r="P29" t="n">
         <v>63.65881195769748</v>
       </c>
       <c r="Q29" t="n">
-        <v>74.63509299248244</v>
+        <v>74.63509299248243</v>
       </c>
       <c r="R29" t="n">
         <v>73.30595151123788</v>
@@ -4758,19 +4758,19 @@
         <v>60.50768332092234</v>
       </c>
       <c r="V29" t="n">
-        <v>63.05074785669905</v>
+        <v>63.05074785669903</v>
       </c>
       <c r="W29" t="n">
-        <v>50.99178213055012</v>
+        <v>50.99178213055011</v>
       </c>
       <c r="X29" t="n">
-        <v>52.97550035597238</v>
+        <v>52.97550035597237</v>
       </c>
       <c r="Y29" t="n">
         <v>47.76517179049723</v>
       </c>
       <c r="Z29" t="n">
-        <v>44.83424325886575</v>
+        <v>44.83424325886576</v>
       </c>
       <c r="AA29" t="n">
         <v>36.17414068676613</v>
@@ -4782,7 +4782,7 @@
         <v>37.74229900471347</v>
       </c>
       <c r="AD29" t="n">
-        <v>40.77531843494268</v>
+        <v>40.77531843494269</v>
       </c>
       <c r="AE29" t="n">
         <v>46.41927788731739</v>
@@ -4794,7 +4794,7 @@
         <v>28.93642453052653</v>
       </c>
       <c r="AH29" t="n">
-        <v>31.32363780871131</v>
+        <v>31.3236378087113</v>
       </c>
       <c r="AI29" t="n">
         <v>32.39501572177983</v>
@@ -4821,13 +4821,13 @@
         <v>23.25791182995453</v>
       </c>
       <c r="AQ29" t="n">
-        <v>22.19243876610114</v>
+        <v>22.19243876610115</v>
       </c>
       <c r="AR29" t="n">
         <v>24.19464614770701</v>
       </c>
       <c r="AS29" t="n">
-        <v>23.81989041153498</v>
+        <v>23.81989041153499</v>
       </c>
       <c r="AT29" t="n">
         <v>23.72573793578647</v>
@@ -4853,19 +4853,19 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>3.932306263426307</v>
+        <v>2.020355761926706</v>
       </c>
       <c r="D30" t="n">
-        <v>6.039291647435116</v>
+        <v>2.87247456635576</v>
       </c>
       <c r="E30" t="n">
-        <v>6.007656836524061</v>
+        <v>3.396874036292693</v>
       </c>
       <c r="F30" t="n">
-        <v>7.736069967706419</v>
+        <v>4.902094322498323</v>
       </c>
       <c r="G30" t="n">
-        <v>8.624884496343423</v>
+        <v>4.554102811263417</v>
       </c>
       <c r="H30" t="n">
         <v>14.15117735804337</v>
@@ -4955,10 +4955,10 @@
         <v>9.757675627692954</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.945322716811082</v>
+        <v>7.945322716811081</v>
       </c>
       <c r="AL30" t="n">
-        <v>8.04923812048736</v>
+        <v>8.049238120487358</v>
       </c>
       <c r="AM30" t="n">
         <v>5.532842794143587</v>
@@ -4970,7 +4970,7 @@
         <v>3.53067300819352</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.481796818031071</v>
+        <v>3.481796818031072</v>
       </c>
       <c r="AQ30" t="n">
         <v>3.821066193227148</v>
@@ -4979,13 +4979,13 @@
         <v>3.222824431137354</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.738997417577024</v>
+        <v>2.738997417577023</v>
       </c>
       <c r="AT30" t="n">
         <v>2.811851069744673</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.638907129010646</v>
+        <v>2.638907129010647</v>
       </c>
       <c r="AV30" t="n">
         <v>2.710876115911095</v>
@@ -5005,19 +5005,19 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>10.99340592487486</v>
+        <v>4.907927992081328</v>
       </c>
       <c r="D31" t="n">
-        <v>14.01645787182538</v>
+        <v>4.475055425336906</v>
       </c>
       <c r="E31" t="n">
-        <v>10.98066710661854</v>
+        <v>5.683539136575418</v>
       </c>
       <c r="F31" t="n">
-        <v>14.64327636773471</v>
+        <v>6.990677843166029</v>
       </c>
       <c r="G31" t="n">
-        <v>21.65334772461395</v>
+        <v>9.102029063924743</v>
       </c>
       <c r="H31" t="n">
         <v>24.69175712166571</v>
@@ -5029,19 +5029,19 @@
         <v>27.51170169001502</v>
       </c>
       <c r="K31" t="n">
-        <v>37.43617949274507</v>
+        <v>37.43617949274508</v>
       </c>
       <c r="L31" t="n">
-        <v>44.50456332284551</v>
+        <v>44.5045633228455</v>
       </c>
       <c r="M31" t="n">
-        <v>47.34009266712627</v>
+        <v>47.34009266712626</v>
       </c>
       <c r="N31" t="n">
-        <v>45.89650642061028</v>
+        <v>45.89650642061027</v>
       </c>
       <c r="O31" t="n">
-        <v>47.11782256430358</v>
+        <v>47.11782256430357</v>
       </c>
       <c r="P31" t="n">
         <v>45.59862927986282</v>
@@ -5050,7 +5050,7 @@
         <v>50.5961580297618</v>
       </c>
       <c r="R31" t="n">
-        <v>45.23843050954155</v>
+        <v>45.23843050954156</v>
       </c>
       <c r="S31" t="n">
         <v>28.60128353623311</v>
@@ -5059,7 +5059,7 @@
         <v>32.43600136024182</v>
       </c>
       <c r="U31" t="n">
-        <v>33.56470073813901</v>
+        <v>33.56470073813902</v>
       </c>
       <c r="V31" t="n">
         <v>32.83641243173651</v>
@@ -5074,7 +5074,7 @@
         <v>29.46719816889512</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.34781090357885</v>
+        <v>21.34781090357886</v>
       </c>
       <c r="AA31" t="n">
         <v>12.65491479396631</v>
@@ -5116,7 +5116,7 @@
         <v>8.571882200587401</v>
       </c>
       <c r="AN31" t="n">
-        <v>11.17068338795487</v>
+        <v>11.17068338795488</v>
       </c>
       <c r="AO31" t="n">
         <v>8.714007652017779</v>
@@ -5137,16 +5137,16 @@
         <v>10.63884651298741</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.330904730859245</v>
+        <v>7.330904730859246</v>
       </c>
       <c r="AV31" t="n">
         <v>9.370711847903467</v>
       </c>
       <c r="AW31" t="n">
-        <v>8.98742891850747</v>
+        <v>8.987428918507472</v>
       </c>
       <c r="AX31" t="n">
-        <v>9.645013328968723</v>
+        <v>9.645013328968725</v>
       </c>
     </row>
   </sheetData>

--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_promedio.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_promedio.xlsx
@@ -633,7 +633,7 @@
         <v>88.9090692816754</v>
       </c>
       <c r="O2" t="n">
-        <v>77.80837367685866</v>
+        <v>77.80837367685865</v>
       </c>
       <c r="P2" t="n">
         <v>66.66466711569119</v>
@@ -660,7 +660,7 @@
         <v>71.88267144221642</v>
       </c>
       <c r="X2" t="n">
-        <v>72.5085639192251</v>
+        <v>72.50856391922511</v>
       </c>
       <c r="Y2" t="n">
         <v>67.39221552652715</v>
@@ -1098,7 +1098,7 @@
         <v>61.81457648194908</v>
       </c>
       <c r="R5" t="n">
-        <v>57.9524968547633</v>
+        <v>57.95249685476331</v>
       </c>
       <c r="S5" t="n">
         <v>56.70360371657004</v>
@@ -1125,7 +1125,7 @@
         <v>42.55143526707447</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.64847430403143</v>
+        <v>38.64847430403142</v>
       </c>
       <c r="AB5" t="n">
         <v>41.06257221205498</v>
@@ -1271,7 +1271,7 @@
         <v>23.34226271719622</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.95203728295627</v>
+        <v>18.95203728295628</v>
       </c>
       <c r="Z6" t="n">
         <v>18.52464711244921</v>
@@ -1462,7 +1462,7 @@
         <v>10.46085194808547</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.666214814480233</v>
+        <v>9.666214814480234</v>
       </c>
       <c r="AM7" t="n">
         <v>10.28104058060126</v>
@@ -1483,7 +1483,7 @@
         <v>9.561900571563918</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.471013591955955</v>
+        <v>9.471013591955957</v>
       </c>
       <c r="AT7" t="n">
         <v>8.530300768465809</v>
@@ -1498,7 +1498,7 @@
         <v>7.529547049663306</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.750303771291823</v>
+        <v>7.750303771291824</v>
       </c>
     </row>
     <row r="8">
@@ -1551,7 +1551,7 @@
         <v>64.62981447520501</v>
       </c>
       <c r="Q8" t="n">
-        <v>67.33442814368362</v>
+        <v>67.33442814368364</v>
       </c>
       <c r="R8" t="n">
         <v>66.78761350100014</v>
@@ -1837,7 +1837,7 @@
         <v>67.51362111444296</v>
       </c>
       <c r="K10" t="n">
-        <v>61.9592852055268</v>
+        <v>61.95928520552678</v>
       </c>
       <c r="L10" t="n">
         <v>68.13453118910587</v>
@@ -1921,7 +1921,7 @@
         <v>38.42343666812172</v>
       </c>
       <c r="AM10" t="n">
-        <v>30.03557934039168</v>
+        <v>30.03557934039169</v>
       </c>
       <c r="AN10" t="n">
         <v>25.38435405556699</v>
@@ -1945,7 +1945,7 @@
         <v>12.95567691307378</v>
       </c>
       <c r="AU10" t="n">
-        <v>13.82014948192753</v>
+        <v>13.82014948192754</v>
       </c>
       <c r="AV10" t="n">
         <v>13.74041956639468</v>
@@ -2001,7 +2001,7 @@
         <v>63.26461135474184</v>
       </c>
       <c r="O11" t="n">
-        <v>55.75810426448812</v>
+        <v>55.75810426448811</v>
       </c>
       <c r="P11" t="n">
         <v>56.60219992388782</v>
@@ -2028,7 +2028,7 @@
         <v>52.29086080459482</v>
       </c>
       <c r="X11" t="n">
-        <v>44.88246449988375</v>
+        <v>44.88246449988376</v>
       </c>
       <c r="Y11" t="n">
         <v>42.66949092822406</v>
@@ -2150,7 +2150,7 @@
         <v>29.62699921711369</v>
       </c>
       <c r="N12" t="n">
-        <v>30.97010147372535</v>
+        <v>30.97010147372534</v>
       </c>
       <c r="O12" t="n">
         <v>30.07312681405756</v>
@@ -2249,7 +2249,7 @@
         <v>3.144745831021843</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.730053696473565</v>
+        <v>2.730053696473566</v>
       </c>
       <c r="AV12" t="n">
         <v>2.739219360969111</v>
@@ -2377,7 +2377,7 @@
         <v>9.064617190723233</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.726689416630859</v>
+        <v>7.72668941663086</v>
       </c>
       <c r="AN13" t="n">
         <v>8.036533470359121</v>
@@ -2460,7 +2460,7 @@
         <v>75.53521942096295</v>
       </c>
       <c r="P14" t="n">
-        <v>68.02381272615787</v>
+        <v>68.02381272615789</v>
       </c>
       <c r="Q14" t="n">
         <v>67.19879996923012</v>
@@ -2588,7 +2588,7 @@
         <v>1.41275611006394</v>
       </c>
       <c r="H15" t="n">
-        <v>2.549649939843044</v>
+        <v>2.549649939843043</v>
       </c>
       <c r="I15" t="n">
         <v>3.80414503902625</v>
@@ -2749,7 +2749,7 @@
         <v>77.4430770916772</v>
       </c>
       <c r="K16" t="n">
-        <v>62.48771951843066</v>
+        <v>62.48771951843065</v>
       </c>
       <c r="L16" t="n">
         <v>71.06622313576669</v>
@@ -2904,7 +2904,7 @@
         <v>51.39537992261204</v>
       </c>
       <c r="L17" t="n">
-        <v>47.14784866234987</v>
+        <v>47.14784866234988</v>
       </c>
       <c r="M17" t="n">
         <v>56.08671853049705</v>
@@ -2934,7 +2934,7 @@
         <v>51.50575577590268</v>
       </c>
       <c r="V17" t="n">
-        <v>62.78850081770526</v>
+        <v>62.78850081770528</v>
       </c>
       <c r="W17" t="n">
         <v>52.47228714785442</v>
@@ -3661,7 +3661,7 @@
         <v>89.28682285203985</v>
       </c>
       <c r="K22" t="n">
-        <v>59.0119391079357</v>
+        <v>59.01193910793572</v>
       </c>
       <c r="L22" t="n">
         <v>61.78082018050633</v>
@@ -3688,7 +3688,7 @@
         <v>60.66166289297028</v>
       </c>
       <c r="T22" t="n">
-        <v>57.86245943154996</v>
+        <v>57.86245943154997</v>
       </c>
       <c r="U22" t="n">
         <v>63.14842954668574</v>
@@ -3912,7 +3912,7 @@
         <v>24.08819307070271</v>
       </c>
       <c r="AR23" t="n">
-        <v>23.92027339106363</v>
+        <v>23.92027339106362</v>
       </c>
       <c r="AS23" t="n">
         <v>23.70061973817674</v>
@@ -4192,7 +4192,7 @@
         <v>8.795416792906462</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.78474587979759</v>
+        <v>11.7847458797976</v>
       </c>
       <c r="AK25" t="n">
         <v>7.749454975552722</v>
@@ -4576,7 +4576,7 @@
         <v>67.2342001976811</v>
       </c>
       <c r="L28" t="n">
-        <v>68.41301294282599</v>
+        <v>68.413012942826</v>
       </c>
       <c r="M28" t="n">
         <v>73.86186467385838</v>
@@ -4773,7 +4773,7 @@
         <v>44.83424325886576</v>
       </c>
       <c r="AA29" t="n">
-        <v>36.17414068676613</v>
+        <v>36.17414068676614</v>
       </c>
       <c r="AB29" t="n">
         <v>37.56708395878729</v>
@@ -4815,7 +4815,7 @@
         <v>23.62541000775326</v>
       </c>
       <c r="AO29" t="n">
-        <v>24.06433471043213</v>
+        <v>24.06433471043212</v>
       </c>
       <c r="AP29" t="n">
         <v>23.25791182995453</v>
@@ -4919,7 +4919,7 @@
         <v>24.16724795843609</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.31352893231371</v>
+        <v>20.31352893231372</v>
       </c>
       <c r="Z30" t="n">
         <v>21.32572576240217</v>
@@ -4940,7 +4940,7 @@
         <v>16.41998037497277</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.05605298458838</v>
+        <v>15.05605298458837</v>
       </c>
       <c r="AG30" t="n">
         <v>13.69615790488738</v>
@@ -5011,7 +5011,7 @@
         <v>4.475055425336906</v>
       </c>
       <c r="E31" t="n">
-        <v>5.683539136575418</v>
+        <v>5.683539136575417</v>
       </c>
       <c r="F31" t="n">
         <v>6.990677843166029</v>

--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_promedio.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_promedio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX31"/>
+  <dimension ref="A1:AX37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,148 +597,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.72550643866807</v>
+        <v>45.77027256444158</v>
       </c>
       <c r="D2" t="n">
-        <v>10.70286965451886</v>
+        <v>42.41839760527432</v>
       </c>
       <c r="E2" t="n">
-        <v>13.78916672700726</v>
+        <v>30.70793734114484</v>
       </c>
       <c r="F2" t="n">
-        <v>12.59029918429002</v>
+        <v>33.74075749822071</v>
       </c>
       <c r="G2" t="n">
-        <v>17.20611525939182</v>
+        <v>34.84983884340722</v>
       </c>
       <c r="H2" t="n">
-        <v>32.44229129255692</v>
+        <v>35.79634823574038</v>
       </c>
       <c r="I2" t="n">
-        <v>59.89886639467601</v>
+        <v>26.86317312256928</v>
       </c>
       <c r="J2" t="n">
-        <v>114.3918259159404</v>
+        <v>36.51391220957583</v>
       </c>
       <c r="K2" t="n">
-        <v>64.06685055586424</v>
+        <v>40.10347010839622</v>
       </c>
       <c r="L2" t="n">
-        <v>66.45637441063086</v>
+        <v>33.88647707578455</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8630280396387</v>
+        <v>43.42784911254392</v>
       </c>
       <c r="N2" t="n">
-        <v>88.9090692816754</v>
+        <v>34.65082878884184</v>
       </c>
       <c r="O2" t="n">
-        <v>77.80837367685865</v>
+        <v>67.72009830923629</v>
       </c>
       <c r="P2" t="n">
-        <v>66.66466711569119</v>
+        <v>75.51379694142791</v>
       </c>
       <c r="Q2" t="n">
-        <v>68.2468053067428</v>
+        <v>68.82772170368573</v>
       </c>
       <c r="R2" t="n">
-        <v>65.82700973754091</v>
+        <v>73.62509479982195</v>
       </c>
       <c r="S2" t="n">
-        <v>67.49882715677629</v>
+        <v>72.0247497843316</v>
       </c>
       <c r="T2" t="n">
-        <v>66.27725890081585</v>
+        <v>79.85534599600216</v>
       </c>
       <c r="U2" t="n">
-        <v>58.63928207308501</v>
+        <v>68.42143400616787</v>
       </c>
       <c r="V2" t="n">
-        <v>67.96257783574572</v>
+        <v>66.36686271482877</v>
       </c>
       <c r="W2" t="n">
-        <v>71.88267144221642</v>
+        <v>72.28314795648967</v>
       </c>
       <c r="X2" t="n">
-        <v>72.50856391922511</v>
+        <v>66.81416920617409</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.39221552652715</v>
+        <v>64.49090214236917</v>
       </c>
       <c r="Z2" t="n">
-        <v>67.5798304291181</v>
+        <v>71.27142261809112</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.25871477745613</v>
+        <v>90.58692072301822</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.17829998948386</v>
+        <v>98.79412409845563</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.5216848352676</v>
+        <v>86.08943449397492</v>
       </c>
       <c r="AD2" t="n">
-        <v>118.8175559723952</v>
+        <v>92.66145690423583</v>
       </c>
       <c r="AE2" t="n">
-        <v>112.6469118014727</v>
+        <v>95.76018186705207</v>
       </c>
       <c r="AF2" t="n">
-        <v>116.6220157828697</v>
+        <v>93.45757166710601</v>
       </c>
       <c r="AG2" t="n">
-        <v>114.1019020281369</v>
+        <v>89.00439298846652</v>
       </c>
       <c r="AH2" t="n">
-        <v>101.2739995096213</v>
+        <v>95.45240590517881</v>
       </c>
       <c r="AI2" t="n">
-        <v>93.41274143273021</v>
+        <v>97.46772701373069</v>
       </c>
       <c r="AJ2" t="n">
-        <v>72.71408905988744</v>
+        <v>100.017900253174</v>
       </c>
       <c r="AK2" t="n">
-        <v>71.19247607396875</v>
+        <v>90.937922919431</v>
       </c>
       <c r="AL2" t="n">
-        <v>54.19808445960991</v>
+        <v>95.38683288052718</v>
       </c>
       <c r="AM2" t="n">
-        <v>45.64738830111439</v>
+        <v>27.43985420516713</v>
       </c>
       <c r="AN2" t="n">
-        <v>38.88119948697008</v>
+        <v>30.10195664384858</v>
       </c>
       <c r="AO2" t="n">
-        <v>33.22057714242833</v>
+        <v>28.01173571877181</v>
       </c>
       <c r="AP2" t="n">
-        <v>26.82732881100442</v>
+        <v>26.64433060287657</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26.5554195726836</v>
+        <v>28.59681770991536</v>
       </c>
       <c r="AR2" t="n">
-        <v>23.80148456559428</v>
+        <v>29.75969721805384</v>
       </c>
       <c r="AS2" t="n">
-        <v>22.60468705689848</v>
+        <v>27.61222067283934</v>
       </c>
       <c r="AT2" t="n">
-        <v>21.84925213442211</v>
+        <v>29.073722413674</v>
       </c>
       <c r="AU2" t="n">
-        <v>23.09726785763187</v>
+        <v>27.76911926158604</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.0162105430432</v>
+        <v>29.33690243340499</v>
       </c>
       <c r="AW2" t="n">
-        <v>21.31602984892343</v>
+        <v>28.32823829466108</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.95090313377101</v>
+        <v>27.75574671971211</v>
       </c>
     </row>
     <row r="3">
@@ -749,148 +749,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.289103470297963</v>
+        <v>2.39752272078191</v>
       </c>
       <c r="D3" t="n">
-        <v>1.473116393967037</v>
+        <v>2.395873881460679</v>
       </c>
       <c r="E3" t="n">
-        <v>1.524875752107127</v>
+        <v>2.44612467101306</v>
       </c>
       <c r="F3" t="n">
-        <v>1.689883336189191</v>
+        <v>3.027994082294629</v>
       </c>
       <c r="G3" t="n">
-        <v>1.417787066650458</v>
+        <v>2.931974130645028</v>
       </c>
       <c r="H3" t="n">
-        <v>2.926671197075423</v>
+        <v>2.153916526759766</v>
       </c>
       <c r="I3" t="n">
-        <v>3.355358588276086</v>
+        <v>3.016276492331472</v>
       </c>
       <c r="J3" t="n">
-        <v>4.849629015776802</v>
+        <v>2.953153544852082</v>
       </c>
       <c r="K3" t="n">
-        <v>3.579374331241344</v>
+        <v>2.863752074638679</v>
       </c>
       <c r="L3" t="n">
-        <v>4.202861191585384</v>
+        <v>2.765296073022</v>
       </c>
       <c r="M3" t="n">
-        <v>4.683593467473164</v>
+        <v>2.140360907196636</v>
       </c>
       <c r="N3" t="n">
-        <v>4.733536479448515</v>
+        <v>2.536224729014868</v>
       </c>
       <c r="O3" t="n">
-        <v>4.760545110320009</v>
+        <v>4.557444729849269</v>
       </c>
       <c r="P3" t="n">
-        <v>4.159039696977187</v>
+        <v>5.076612080456031</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.854975000585048</v>
+        <v>4.684952015011067</v>
       </c>
       <c r="R3" t="n">
-        <v>4.363467112889581</v>
+        <v>4.719938855392013</v>
       </c>
       <c r="S3" t="n">
-        <v>4.379202715813359</v>
+        <v>4.478584946057237</v>
       </c>
       <c r="T3" t="n">
-        <v>4.262330903356139</v>
+        <v>4.28049763470343</v>
       </c>
       <c r="U3" t="n">
-        <v>4.164602430981425</v>
+        <v>5.033942445908533</v>
       </c>
       <c r="V3" t="n">
-        <v>4.254379669919701</v>
+        <v>4.473193098539618</v>
       </c>
       <c r="W3" t="n">
-        <v>4.196444493523756</v>
+        <v>5.06768276131243</v>
       </c>
       <c r="X3" t="n">
-        <v>4.591319295811101</v>
+        <v>4.397248179486584</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.184126883540626</v>
+        <v>4.417633480668677</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.542217524663598</v>
+        <v>4.180918652716711</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.765279754982693</v>
+        <v>5.612862815945332</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.754060963413239</v>
+        <v>5.118000871075141</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.359273487281953</v>
+        <v>5.62914734343395</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.284593653127827</v>
+        <v>5.221094941881959</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.014462142933593</v>
+        <v>5.353282138396642</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.84668232273034</v>
+        <v>5.173073946686755</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.485877102642315</v>
+        <v>5.396422630331069</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.405265890258725</v>
+        <v>5.919318015976817</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.606223539164413</v>
+        <v>4.730931894816738</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.623059615042242</v>
+        <v>5.669689112883735</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.590830061454434</v>
+        <v>5.230007220045787</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.378431370075317</v>
+        <v>5.53461558381348</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.201338351106152</v>
+        <v>3.852142806799357</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.444355181467272</v>
+        <v>3.549376286372443</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.990697786597743</v>
+        <v>3.647362328207512</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.969211281718288</v>
+        <v>3.476851301093749</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.918070809014527</v>
+        <v>3.785191595674239</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.063344330489724</v>
+        <v>3.897003638947974</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.761611465567202</v>
+        <v>3.799925676768416</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.525122657378159</v>
+        <v>3.771070552585267</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.479956435478077</v>
+        <v>3.440369833343626</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.282508999355975</v>
+        <v>3.641595484970467</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.372709948981863</v>
+        <v>3.911383797535345</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.846618231434848</v>
+        <v>3.932740388748711</v>
       </c>
     </row>
     <row r="4">
@@ -901,148 +901,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.154702803002372</v>
+        <v>25.16950037013176</v>
       </c>
       <c r="D4" t="n">
-        <v>8.012197875237286</v>
+        <v>34.92963085948608</v>
       </c>
       <c r="E4" t="n">
-        <v>8.087612821333584</v>
+        <v>28.05021210473064</v>
       </c>
       <c r="F4" t="n">
-        <v>10.58176413182171</v>
+        <v>23.49443331717294</v>
       </c>
       <c r="G4" t="n">
-        <v>8.365375792292603</v>
+        <v>30.5191384802108</v>
       </c>
       <c r="H4" t="n">
-        <v>34.47369303291534</v>
+        <v>34.63810067332691</v>
       </c>
       <c r="I4" t="n">
-        <v>48.56247311855362</v>
+        <v>32.2514961473195</v>
       </c>
       <c r="J4" t="n">
-        <v>82.22701371012084</v>
+        <v>35.11277335208314</v>
       </c>
       <c r="K4" t="n">
-        <v>53.8479825964592</v>
+        <v>29.02960596036077</v>
       </c>
       <c r="L4" t="n">
-        <v>60.96612320586862</v>
+        <v>31.46331606931861</v>
       </c>
       <c r="M4" t="n">
-        <v>75.18136380527038</v>
+        <v>29.76872291705012</v>
       </c>
       <c r="N4" t="n">
-        <v>83.41621227927845</v>
+        <v>33.42629812730613</v>
       </c>
       <c r="O4" t="n">
-        <v>70.15039459163451</v>
+        <v>66.37597625086042</v>
       </c>
       <c r="P4" t="n">
-        <v>62.87295061128195</v>
+        <v>75.74648613235246</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.26634326212785</v>
+        <v>61.10881979575431</v>
       </c>
       <c r="R4" t="n">
-        <v>69.17327111157465</v>
+        <v>67.92348942159518</v>
       </c>
       <c r="S4" t="n">
-        <v>69.11540108191083</v>
+        <v>67.8773997852492</v>
       </c>
       <c r="T4" t="n">
-        <v>61.11554306983881</v>
+        <v>76.9054172604263</v>
       </c>
       <c r="U4" t="n">
-        <v>64.02398581128682</v>
+        <v>66.14095599441464</v>
       </c>
       <c r="V4" t="n">
-        <v>77.74924801928873</v>
+        <v>73.52783675100224</v>
       </c>
       <c r="W4" t="n">
-        <v>67.39292036213368</v>
+        <v>63.67487994958267</v>
       </c>
       <c r="X4" t="n">
-        <v>70.4778807994919</v>
+        <v>69.23521888659201</v>
       </c>
       <c r="Y4" t="n">
-        <v>71.65678183577258</v>
+        <v>73.55809128483558</v>
       </c>
       <c r="Z4" t="n">
-        <v>69.6240061488356</v>
+        <v>66.88880541556142</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.44476881916788</v>
+        <v>63.65855718875027</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.67214662121867</v>
+        <v>63.59794592415918</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.36819158735678</v>
+        <v>66.91472394286166</v>
       </c>
       <c r="AD4" t="n">
-        <v>82.37654986781534</v>
+        <v>57.68665567687462</v>
       </c>
       <c r="AE4" t="n">
-        <v>70.84329055186298</v>
+        <v>60.32785363491923</v>
       </c>
       <c r="AF4" t="n">
-        <v>74.67900761405261</v>
+        <v>62.192367667142</v>
       </c>
       <c r="AG4" t="n">
-        <v>65.0985787855456</v>
+        <v>58.0291333077177</v>
       </c>
       <c r="AH4" t="n">
-        <v>65.25067187990274</v>
+        <v>61.95606242402166</v>
       </c>
       <c r="AI4" t="n">
-        <v>50.98050917052793</v>
+        <v>61.57335966774146</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50.45058775254346</v>
+        <v>65.09855136863267</v>
       </c>
       <c r="AK4" t="n">
-        <v>45.35876677261851</v>
+        <v>62.40213507566835</v>
       </c>
       <c r="AL4" t="n">
-        <v>36.11836775130513</v>
+        <v>66.86101965630975</v>
       </c>
       <c r="AM4" t="n">
-        <v>29.78870285856775</v>
+        <v>18.78261724250032</v>
       </c>
       <c r="AN4" t="n">
-        <v>23.48670034142552</v>
+        <v>15.68710593392488</v>
       </c>
       <c r="AO4" t="n">
-        <v>22.27597002364101</v>
+        <v>18.39287180685476</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.02218182032095</v>
+        <v>17.53580432788777</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18.74323067494089</v>
+        <v>17.44248975016405</v>
       </c>
       <c r="AR4" t="n">
-        <v>17.06181071002968</v>
+        <v>16.62786480178035</v>
       </c>
       <c r="AS4" t="n">
-        <v>15.10906913003705</v>
+        <v>18.73133956545777</v>
       </c>
       <c r="AT4" t="n">
-        <v>15.88559802199758</v>
+        <v>16.05506188168377</v>
       </c>
       <c r="AU4" t="n">
-        <v>12.86298708253616</v>
+        <v>18.01677103506683</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.28948358177823</v>
+        <v>18.06907560560763</v>
       </c>
       <c r="AW4" t="n">
-        <v>11.63962991998835</v>
+        <v>18.88873093453722</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.75328141386362</v>
+        <v>18.52479330563505</v>
       </c>
     </row>
     <row r="5">
@@ -1053,148 +1053,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.98271782293401</v>
+        <v>32.33285226325273</v>
       </c>
       <c r="D5" t="n">
-        <v>7.828978713913435</v>
+        <v>22.79912611255822</v>
       </c>
       <c r="E5" t="n">
-        <v>9.412115626676176</v>
+        <v>17.19466512946417</v>
       </c>
       <c r="F5" t="n">
-        <v>11.69154138695006</v>
+        <v>31.32137094776692</v>
       </c>
       <c r="G5" t="n">
-        <v>11.26150127805929</v>
+        <v>29.81101037562909</v>
       </c>
       <c r="H5" t="n">
-        <v>28.2894911640267</v>
+        <v>23.64790154004339</v>
       </c>
       <c r="I5" t="n">
-        <v>36.65229383018776</v>
+        <v>23.07482731943147</v>
       </c>
       <c r="J5" t="n">
-        <v>49.89016071722747</v>
+        <v>22.76145824370458</v>
       </c>
       <c r="K5" t="n">
-        <v>47.44059560964428</v>
+        <v>18.41892479042914</v>
       </c>
       <c r="L5" t="n">
-        <v>43.04058946080417</v>
+        <v>23.43177569118332</v>
       </c>
       <c r="M5" t="n">
-        <v>57.12974325414566</v>
+        <v>27.31637077327373</v>
       </c>
       <c r="N5" t="n">
-        <v>76.87347626300274</v>
+        <v>25.94263032168841</v>
       </c>
       <c r="O5" t="n">
-        <v>64.84542868931091</v>
+        <v>61.42161878259822</v>
       </c>
       <c r="P5" t="n">
-        <v>55.28614270719016</v>
+        <v>53.87646021173808</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.81457648194908</v>
+        <v>54.09863029541933</v>
       </c>
       <c r="R5" t="n">
-        <v>57.95249685476331</v>
+        <v>59.23650999909849</v>
       </c>
       <c r="S5" t="n">
-        <v>56.70360371657004</v>
+        <v>52.52911996982208</v>
       </c>
       <c r="T5" t="n">
-        <v>46.42048697920234</v>
+        <v>60.08708998668219</v>
       </c>
       <c r="U5" t="n">
-        <v>66.86149148916698</v>
+        <v>55.63971894079762</v>
       </c>
       <c r="V5" t="n">
-        <v>61.10641388778446</v>
+        <v>56.16179727178005</v>
       </c>
       <c r="W5" t="n">
-        <v>44.67685555400057</v>
+        <v>61.23050884938954</v>
       </c>
       <c r="X5" t="n">
-        <v>53.42862074278924</v>
+        <v>60.63329011692972</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.59826453511126</v>
+        <v>57.94330881490143</v>
       </c>
       <c r="Z5" t="n">
-        <v>42.55143526707447</v>
+        <v>52.11364512472976</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.64847430403142</v>
+        <v>35.16751257513531</v>
       </c>
       <c r="AB5" t="n">
-        <v>41.06257221205498</v>
+        <v>32.81333673171885</v>
       </c>
       <c r="AC5" t="n">
-        <v>38.26414541390841</v>
+        <v>39.37381012422229</v>
       </c>
       <c r="AD5" t="n">
-        <v>50.8940277072481</v>
+        <v>33.35688418734975</v>
       </c>
       <c r="AE5" t="n">
-        <v>37.72926390530592</v>
+        <v>29.8258418144087</v>
       </c>
       <c r="AF5" t="n">
-        <v>35.56764836474756</v>
+        <v>35.67752342404911</v>
       </c>
       <c r="AG5" t="n">
-        <v>34.5612446734085</v>
+        <v>31.84746161995444</v>
       </c>
       <c r="AH5" t="n">
-        <v>30.39326995955579</v>
+        <v>37.63921361965103</v>
       </c>
       <c r="AI5" t="n">
-        <v>32.2588785155824</v>
+        <v>38.84779085971937</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36.17344542269131</v>
+        <v>33.33473334603818</v>
       </c>
       <c r="AK5" t="n">
-        <v>27.72831208345873</v>
+        <v>33.72127799484612</v>
       </c>
       <c r="AL5" t="n">
-        <v>29.69177426139225</v>
+        <v>34.42726671932964</v>
       </c>
       <c r="AM5" t="n">
-        <v>24.17793426928997</v>
+        <v>24.08120229305921</v>
       </c>
       <c r="AN5" t="n">
-        <v>23.1149644405701</v>
+        <v>20.71929120611087</v>
       </c>
       <c r="AO5" t="n">
-        <v>21.64971422114515</v>
+        <v>21.13380678210019</v>
       </c>
       <c r="AP5" t="n">
-        <v>25.89221576766632</v>
+        <v>24.22023567130957</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24.74474177563332</v>
+        <v>23.61320601262194</v>
       </c>
       <c r="AR5" t="n">
-        <v>22.76259300527692</v>
+        <v>24.08303299938526</v>
       </c>
       <c r="AS5" t="n">
-        <v>20.69284701665691</v>
+        <v>23.35321545535906</v>
       </c>
       <c r="AT5" t="n">
-        <v>24.14496174557714</v>
+        <v>21.54552668194663</v>
       </c>
       <c r="AU5" t="n">
-        <v>23.94822177152718</v>
+        <v>21.69590101811173</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.5174740279413</v>
+        <v>20.93905603187075</v>
       </c>
       <c r="AW5" t="n">
-        <v>20.51076044207241</v>
+        <v>23.27320131058734</v>
       </c>
       <c r="AX5" t="n">
-        <v>21.54464126018494</v>
+        <v>21.96772985404899</v>
       </c>
     </row>
     <row r="6">
@@ -1205,148 +1205,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.164604450480177</v>
+        <v>11.73103064665072</v>
       </c>
       <c r="D6" t="n">
-        <v>3.026975129288552</v>
+        <v>13.29073337591394</v>
       </c>
       <c r="E6" t="n">
-        <v>2.940999602905303</v>
+        <v>13.55732808591353</v>
       </c>
       <c r="F6" t="n">
-        <v>3.597641851999924</v>
+        <v>11.84556306723804</v>
       </c>
       <c r="G6" t="n">
-        <v>3.661997940679414</v>
+        <v>16.5749066122208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.7726008925719</v>
+        <v>12.93239602786296</v>
       </c>
       <c r="I6" t="n">
-        <v>18.31925859906218</v>
+        <v>11.58723961091108</v>
       </c>
       <c r="J6" t="n">
-        <v>24.9598329386567</v>
+        <v>12.72830987118595</v>
       </c>
       <c r="K6" t="n">
-        <v>24.51811919283126</v>
+        <v>11.584042869164</v>
       </c>
       <c r="L6" t="n">
-        <v>24.5318150847457</v>
+        <v>12.03487065134652</v>
       </c>
       <c r="M6" t="n">
-        <v>30.25460613722691</v>
+        <v>15.04399815297388</v>
       </c>
       <c r="N6" t="n">
-        <v>28.5982029718685</v>
+        <v>12.09184302722155</v>
       </c>
       <c r="O6" t="n">
-        <v>27.45138528428514</v>
+        <v>25.31540775940275</v>
       </c>
       <c r="P6" t="n">
-        <v>27.32775097640751</v>
+        <v>25.57790966901025</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.94091914901869</v>
+        <v>24.36454781231318</v>
       </c>
       <c r="R6" t="n">
-        <v>25.86602077717005</v>
+        <v>25.74666479593915</v>
       </c>
       <c r="S6" t="n">
-        <v>24.19338857584506</v>
+        <v>26.39928979806395</v>
       </c>
       <c r="T6" t="n">
-        <v>27.74614510219207</v>
+        <v>24.7297084468493</v>
       </c>
       <c r="U6" t="n">
-        <v>22.21465748023657</v>
+        <v>23.85421530672342</v>
       </c>
       <c r="V6" t="n">
-        <v>25.26572856560291</v>
+        <v>30.0268522619695</v>
       </c>
       <c r="W6" t="n">
-        <v>23.24242923079735</v>
+        <v>25.10134294078034</v>
       </c>
       <c r="X6" t="n">
-        <v>23.34226271719622</v>
+        <v>24.965562123446</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.95203728295628</v>
+        <v>25.21701606445111</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.52464711244921</v>
+        <v>28.19366055445465</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.72157307126932</v>
+        <v>14.43938400314385</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.82052417429097</v>
+        <v>14.99334013476404</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.82878745982073</v>
+        <v>14.71954595859339</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.13654425408739</v>
+        <v>12.78497287898131</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.81210415786871</v>
+        <v>12.96401912730813</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.82331894271706</v>
+        <v>12.85723189179482</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.14712743551041</v>
+        <v>12.29728093558864</v>
       </c>
       <c r="AH6" t="n">
-        <v>12.82831136624977</v>
+        <v>13.63128675273819</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.8161668686519</v>
+        <v>15.29786198779659</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.661487079966534</v>
+        <v>15.02891222824321</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.389829853885987</v>
+        <v>13.73409142866725</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.06294097213099</v>
+        <v>13.76531984060086</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.061747987913663</v>
+        <v>3.388686665280492</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.62652935194592</v>
+        <v>3.675654376231252</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.106950867788637</v>
+        <v>3.24834135053482</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.542508265252936</v>
+        <v>3.976887709607075</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.614596441263837</v>
+        <v>3.517118040049493</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.348007713752571</v>
+        <v>3.388832829061086</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.809114268877166</v>
+        <v>3.613609271323513</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.014192662144859</v>
+        <v>3.425527518357891</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.590920629550724</v>
+        <v>2.906147801820976</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.825376688389033</v>
+        <v>3.427302401676434</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.664619494001822</v>
+        <v>3.509539878815838</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.968533707514865</v>
+        <v>3.317151012222827</v>
       </c>
     </row>
     <row r="7">
@@ -1357,148 +1357,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.893104616991954</v>
+        <v>22.83838293100399</v>
       </c>
       <c r="D7" t="n">
-        <v>6.139789283706043</v>
+        <v>16.37170219570621</v>
       </c>
       <c r="E7" t="n">
-        <v>6.822858926752324</v>
+        <v>16.4041615920463</v>
       </c>
       <c r="F7" t="n">
-        <v>5.304794816144798</v>
+        <v>18.0421684650437</v>
       </c>
       <c r="G7" t="n">
-        <v>11.62874404253335</v>
+        <v>18.30099324510675</v>
       </c>
       <c r="H7" t="n">
-        <v>26.04489849019448</v>
+        <v>21.21523961469773</v>
       </c>
       <c r="I7" t="n">
-        <v>27.07938321817903</v>
+        <v>21.62738078815784</v>
       </c>
       <c r="J7" t="n">
-        <v>19.38726636446496</v>
+        <v>13.53680722321563</v>
       </c>
       <c r="K7" t="n">
-        <v>39.46512312871292</v>
+        <v>21.19681968615492</v>
       </c>
       <c r="L7" t="n">
-        <v>44.03980896896162</v>
+        <v>17.47125573743141</v>
       </c>
       <c r="M7" t="n">
-        <v>38.20781889547488</v>
+        <v>23.51615263521171</v>
       </c>
       <c r="N7" t="n">
-        <v>55.77682159942239</v>
+        <v>23.09382426311815</v>
       </c>
       <c r="O7" t="n">
-        <v>42.99807215171304</v>
+        <v>33.17755061053815</v>
       </c>
       <c r="P7" t="n">
-        <v>44.19373873726239</v>
+        <v>34.60996596655591</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.6967535082072</v>
+        <v>33.30440351946794</v>
       </c>
       <c r="R7" t="n">
-        <v>43.91717368374924</v>
+        <v>31.09058178160123</v>
       </c>
       <c r="S7" t="n">
-        <v>29.8012158685151</v>
+        <v>29.5936346866349</v>
       </c>
       <c r="T7" t="n">
-        <v>28.85044923527841</v>
+        <v>30.2915825705415</v>
       </c>
       <c r="U7" t="n">
-        <v>32.47965946028934</v>
+        <v>28.81244353677549</v>
       </c>
       <c r="V7" t="n">
-        <v>33.08566970248439</v>
+        <v>33.62868525100173</v>
       </c>
       <c r="W7" t="n">
-        <v>21.99220329002026</v>
+        <v>37.00146997325346</v>
       </c>
       <c r="X7" t="n">
-        <v>22.08971265487608</v>
+        <v>36.46230981590665</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.27099709559024</v>
+        <v>33.98990590102799</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.60929868100998</v>
+        <v>29.91856894856852</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.03167398404442</v>
+        <v>10.22833194252429</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5972093132477</v>
+        <v>14.57788023817333</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.04002859043469</v>
+        <v>11.26936915919754</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.49145328416109</v>
+        <v>13.18897783418691</v>
       </c>
       <c r="AE7" t="n">
-        <v>12.15477759046965</v>
+        <v>14.18720047432236</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.58984995708171</v>
+        <v>13.58670987982199</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.7903866699893</v>
+        <v>12.89739307632402</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.975274089799479</v>
+        <v>10.1926071729819</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.709493214636946</v>
+        <v>10.32272815160599</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.66552180730348</v>
+        <v>12.80573626810993</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.46085194808547</v>
+        <v>12.18759187492524</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.666214814480234</v>
+        <v>10.88645160296084</v>
       </c>
       <c r="AM7" t="n">
-        <v>10.28104058060126</v>
+        <v>9.126393194457673</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.616556660557379</v>
+        <v>8.155323255630009</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.02616881058951</v>
+        <v>7.594877371485451</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.062842952639599</v>
+        <v>7.203100041871051</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9.37388058121539</v>
+        <v>7.02032893674582</v>
       </c>
       <c r="AR7" t="n">
-        <v>9.561900571563918</v>
+        <v>7.549307592688408</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.471013591955957</v>
+        <v>7.401346049227087</v>
       </c>
       <c r="AT7" t="n">
-        <v>8.530300768465809</v>
+        <v>9.720363889104538</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.601059396387553</v>
+        <v>6.838662542442758</v>
       </c>
       <c r="AV7" t="n">
-        <v>7.923645003423173</v>
+        <v>8.243378653108669</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.529547049663306</v>
+        <v>8.65483225374264</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.750303771291824</v>
+        <v>9.637292504106727</v>
       </c>
     </row>
     <row r="8">
@@ -1509,148 +1509,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.441677886473157</v>
+        <v>35.12182040978934</v>
       </c>
       <c r="D8" t="n">
-        <v>10.61671870660464</v>
+        <v>35.01465910181125</v>
       </c>
       <c r="E8" t="n">
-        <v>14.85797893996849</v>
+        <v>36.70019905265899</v>
       </c>
       <c r="F8" t="n">
-        <v>14.35880252001919</v>
+        <v>26.24820181503062</v>
       </c>
       <c r="G8" t="n">
-        <v>17.18254042416368</v>
+        <v>54.92888413851749</v>
       </c>
       <c r="H8" t="n">
-        <v>38.11730451706107</v>
+        <v>29.44181393210638</v>
       </c>
       <c r="I8" t="n">
-        <v>56.75556467964092</v>
+        <v>40.78518992215302</v>
       </c>
       <c r="J8" t="n">
-        <v>67.35577954503221</v>
+        <v>53.8567616124591</v>
       </c>
       <c r="K8" t="n">
-        <v>70.98238894981944</v>
+        <v>37.80352604557263</v>
       </c>
       <c r="L8" t="n">
-        <v>76.00737973173946</v>
+        <v>33.18524472503747</v>
       </c>
       <c r="M8" t="n">
-        <v>81.353656030948</v>
+        <v>37.97048026128365</v>
       </c>
       <c r="N8" t="n">
-        <v>83.77841143134533</v>
+        <v>31.87106720161687</v>
       </c>
       <c r="O8" t="n">
-        <v>78.530620519876</v>
+        <v>65.52937226033218</v>
       </c>
       <c r="P8" t="n">
-        <v>64.62981447520501</v>
+        <v>69.1306829126857</v>
       </c>
       <c r="Q8" t="n">
-        <v>67.33442814368364</v>
+        <v>72.27014782694373</v>
       </c>
       <c r="R8" t="n">
-        <v>66.78761350100014</v>
+        <v>76.99976655527544</v>
       </c>
       <c r="S8" t="n">
-        <v>56.03103191645616</v>
+        <v>67.24206881683068</v>
       </c>
       <c r="T8" t="n">
-        <v>63.12271474511216</v>
+        <v>63.46461866674117</v>
       </c>
       <c r="U8" t="n">
-        <v>59.30697524787489</v>
+        <v>74.67566373875569</v>
       </c>
       <c r="V8" t="n">
-        <v>72.35264404098329</v>
+        <v>72.1253002152539</v>
       </c>
       <c r="W8" t="n">
-        <v>75.95551679879348</v>
+        <v>65.95784428892891</v>
       </c>
       <c r="X8" t="n">
-        <v>71.37664025031221</v>
+        <v>67.72083004539223</v>
       </c>
       <c r="Y8" t="n">
-        <v>78.01012878242219</v>
+        <v>70.00036024189446</v>
       </c>
       <c r="Z8" t="n">
-        <v>79.38715223073238</v>
+        <v>75.6074950389786</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.57426350617813</v>
+        <v>97.90131687538424</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.55082523275888</v>
+        <v>99.79492673185067</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.55948943662</v>
+        <v>95.86245720858467</v>
       </c>
       <c r="AD8" t="n">
-        <v>117.8053243972522</v>
+        <v>98.37135006498457</v>
       </c>
       <c r="AE8" t="n">
-        <v>115.0366821026897</v>
+        <v>91.75833975992261</v>
       </c>
       <c r="AF8" t="n">
-        <v>116.9430745903525</v>
+        <v>104.5281301365666</v>
       </c>
       <c r="AG8" t="n">
-        <v>118.5481239036439</v>
+        <v>97.33616658233512</v>
       </c>
       <c r="AH8" t="n">
-        <v>103.8856488534231</v>
+        <v>90.59447438229896</v>
       </c>
       <c r="AI8" t="n">
-        <v>82.93479448698741</v>
+        <v>89.72608258015192</v>
       </c>
       <c r="AJ8" t="n">
-        <v>74.13653375673933</v>
+        <v>98.7833172953524</v>
       </c>
       <c r="AK8" t="n">
-        <v>61.18508492389911</v>
+        <v>97.0025776522117</v>
       </c>
       <c r="AL8" t="n">
-        <v>63.60342622013341</v>
+        <v>89.98870864614412</v>
       </c>
       <c r="AM8" t="n">
-        <v>45.90596796163675</v>
+        <v>24.53920366071533</v>
       </c>
       <c r="AN8" t="n">
-        <v>39.29424731878962</v>
+        <v>28.15803734713337</v>
       </c>
       <c r="AO8" t="n">
-        <v>33.58852503091506</v>
+        <v>29.87474459421112</v>
       </c>
       <c r="AP8" t="n">
-        <v>27.04270509094088</v>
+        <v>27.33578639155315</v>
       </c>
       <c r="AQ8" t="n">
-        <v>25.85889963538954</v>
+        <v>26.91638033072174</v>
       </c>
       <c r="AR8" t="n">
-        <v>24.78217158224511</v>
+        <v>26.08889461718205</v>
       </c>
       <c r="AS8" t="n">
-        <v>22.12067610736493</v>
+        <v>31.63593232505656</v>
       </c>
       <c r="AT8" t="n">
-        <v>22.90726325501494</v>
+        <v>29.01652159046672</v>
       </c>
       <c r="AU8" t="n">
-        <v>23.11528702843761</v>
+        <v>28.59295255670949</v>
       </c>
       <c r="AV8" t="n">
-        <v>20.37215805720168</v>
+        <v>25.65624796016014</v>
       </c>
       <c r="AW8" t="n">
-        <v>21.51138677069067</v>
+        <v>27.17914770087007</v>
       </c>
       <c r="AX8" t="n">
-        <v>19.29137097566664</v>
+        <v>28.24994858064984</v>
       </c>
     </row>
     <row r="9">
@@ -1661,148 +1661,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.319700203998283</v>
+        <v>3.053777322421466</v>
       </c>
       <c r="D9" t="n">
-        <v>1.59121426692228</v>
+        <v>3.502850424960092</v>
       </c>
       <c r="E9" t="n">
-        <v>1.404384019957362</v>
+        <v>2.766176938678567</v>
       </c>
       <c r="F9" t="n">
-        <v>1.482794407758514</v>
+        <v>2.903263979066126</v>
       </c>
       <c r="G9" t="n">
-        <v>1.367401736519406</v>
+        <v>2.575123948113731</v>
       </c>
       <c r="H9" t="n">
-        <v>3.022827427182045</v>
+        <v>2.780705828652553</v>
       </c>
       <c r="I9" t="n">
-        <v>3.754257378350612</v>
+        <v>2.73948639412152</v>
       </c>
       <c r="J9" t="n">
-        <v>5.338085780911837</v>
+        <v>2.491673890676653</v>
       </c>
       <c r="K9" t="n">
-        <v>4.021244105853131</v>
+        <v>2.632859786536251</v>
       </c>
       <c r="L9" t="n">
-        <v>4.204667261781835</v>
+        <v>3.391975599096899</v>
       </c>
       <c r="M9" t="n">
-        <v>4.708485501225018</v>
+        <v>3.1293151168799</v>
       </c>
       <c r="N9" t="n">
-        <v>5.630563560844402</v>
+        <v>2.248394272047198</v>
       </c>
       <c r="O9" t="n">
-        <v>4.783930506880735</v>
+        <v>4.842034680822789</v>
       </c>
       <c r="P9" t="n">
-        <v>4.567036053596522</v>
+        <v>4.473099791753956</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.008097563074682</v>
+        <v>4.214291886829478</v>
       </c>
       <c r="R9" t="n">
-        <v>4.805821870035196</v>
+        <v>4.801308370716305</v>
       </c>
       <c r="S9" t="n">
-        <v>4.385033230455381</v>
+        <v>4.848814336901165</v>
       </c>
       <c r="T9" t="n">
-        <v>4.153671136512436</v>
+        <v>4.007325861146182</v>
       </c>
       <c r="U9" t="n">
-        <v>3.994830710091345</v>
+        <v>4.369738359103385</v>
       </c>
       <c r="V9" t="n">
-        <v>4.667188339625117</v>
+        <v>4.925697855309165</v>
       </c>
       <c r="W9" t="n">
-        <v>4.282235263555222</v>
+        <v>5.084651507841165</v>
       </c>
       <c r="X9" t="n">
-        <v>4.384772625090882</v>
+        <v>4.497985531472918</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.38996401759728</v>
+        <v>4.111684669354916</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.03232028886966</v>
+        <v>4.732883666550993</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.52182237881547</v>
+        <v>5.392919619293126</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.982270970356539</v>
+        <v>5.093230234161287</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.238821388156492</v>
+        <v>5.048518540051963</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.849862707022221</v>
+        <v>5.139230254458038</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.646612065056331</v>
+        <v>5.427226851995096</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.619666135030027</v>
+        <v>5.676886848517491</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.637204883701329</v>
+        <v>5.364856534166319</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.242662437565007</v>
+        <v>5.188055816089052</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.874972618127543</v>
+        <v>5.382721617942966</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.64088748109199</v>
+        <v>5.202025210235727</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.735032643251379</v>
+        <v>5.19610487243662</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.370352196378098</v>
+        <v>5.291356664776146</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.435154956340853</v>
+        <v>3.839861844525997</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.300791219406511</v>
+        <v>3.827675146156674</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.039380520958971</v>
+        <v>3.823936998695901</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.593739269709675</v>
+        <v>3.855834984061655</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.020251408775174</v>
+        <v>3.771680317995667</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.662608964131166</v>
+        <v>4.094435803456557</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.604704801280246</v>
+        <v>3.800803362225401</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.474626091282866</v>
+        <v>3.781164397404328</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.764423534435959</v>
+        <v>3.971124803828386</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.669855572857737</v>
+        <v>3.803606591108354</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.150634192694997</v>
+        <v>3.946604229048922</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.142512767790531</v>
+        <v>3.802257898764943</v>
       </c>
     </row>
     <row r="10">
@@ -1813,148 +1813,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5.075778639141227</v>
+        <v>38.85510664367956</v>
       </c>
       <c r="D10" t="n">
-        <v>7.116386631764543</v>
+        <v>24.1523742908728</v>
       </c>
       <c r="E10" t="n">
-        <v>5.002582947422908</v>
+        <v>42.60006496102425</v>
       </c>
       <c r="F10" t="n">
-        <v>14.23523580820868</v>
+        <v>39.87874570453612</v>
       </c>
       <c r="G10" t="n">
-        <v>10.95064363614758</v>
+        <v>27.93234289803297</v>
       </c>
       <c r="H10" t="n">
-        <v>27.53771988535886</v>
+        <v>29.84214618706703</v>
       </c>
       <c r="I10" t="n">
-        <v>47.72094069612455</v>
+        <v>32.34457851940061</v>
       </c>
       <c r="J10" t="n">
-        <v>67.51362111444296</v>
+        <v>33.66187580749725</v>
       </c>
       <c r="K10" t="n">
-        <v>61.95928520552678</v>
+        <v>39.45190059078814</v>
       </c>
       <c r="L10" t="n">
-        <v>68.13453118910587</v>
+        <v>36.46440543564751</v>
       </c>
       <c r="M10" t="n">
-        <v>86.95166959733962</v>
+        <v>30.13683282640927</v>
       </c>
       <c r="N10" t="n">
-        <v>77.76640327930322</v>
+        <v>29.85975904171812</v>
       </c>
       <c r="O10" t="n">
-        <v>74.90831799875457</v>
+        <v>75.93803930668599</v>
       </c>
       <c r="P10" t="n">
-        <v>79.19854585466231</v>
+        <v>72.41016928404203</v>
       </c>
       <c r="Q10" t="n">
-        <v>83.7662217626016</v>
+        <v>73.35838552638442</v>
       </c>
       <c r="R10" t="n">
-        <v>77.57340644933066</v>
+        <v>74.82422706885721</v>
       </c>
       <c r="S10" t="n">
-        <v>61.06023103836538</v>
+        <v>62.72483741234662</v>
       </c>
       <c r="T10" t="n">
-        <v>69.51206944137049</v>
+        <v>63.01500233532523</v>
       </c>
       <c r="U10" t="n">
-        <v>63.94562156625597</v>
+        <v>68.10833351201755</v>
       </c>
       <c r="V10" t="n">
-        <v>83.35604212175407</v>
+        <v>59.8002676138859</v>
       </c>
       <c r="W10" t="n">
-        <v>70.80578767961124</v>
+        <v>71.28216155548016</v>
       </c>
       <c r="X10" t="n">
-        <v>68.67416862244205</v>
+        <v>72.54700808339159</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.59465175514744</v>
+        <v>75.42534087516046</v>
       </c>
       <c r="Z10" t="n">
-        <v>74.88320186289485</v>
+        <v>68.42729384582542</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.79660552329946</v>
+        <v>66.4811977111619</v>
       </c>
       <c r="AB10" t="n">
-        <v>74.55555602609178</v>
+        <v>65.19367482569163</v>
       </c>
       <c r="AC10" t="n">
-        <v>77.5436612157266</v>
+        <v>65.70672849467924</v>
       </c>
       <c r="AD10" t="n">
-        <v>87.26156684540831</v>
+        <v>60.66478446850802</v>
       </c>
       <c r="AE10" t="n">
-        <v>75.48781885318085</v>
+        <v>64.57781483594617</v>
       </c>
       <c r="AF10" t="n">
-        <v>69.73332127537047</v>
+        <v>68.95721329129238</v>
       </c>
       <c r="AG10" t="n">
-        <v>65.36680190910647</v>
+        <v>57.34398058775471</v>
       </c>
       <c r="AH10" t="n">
-        <v>62.93925555937571</v>
+        <v>60.74338328328446</v>
       </c>
       <c r="AI10" t="n">
-        <v>55.08066208554399</v>
+        <v>62.15166658104838</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51.01771825678373</v>
+        <v>60.33007882633355</v>
       </c>
       <c r="AK10" t="n">
-        <v>41.98443088579949</v>
+        <v>56.29420128655403</v>
       </c>
       <c r="AL10" t="n">
-        <v>38.42343666812172</v>
+        <v>64.92328493342829</v>
       </c>
       <c r="AM10" t="n">
-        <v>30.03557934039169</v>
+        <v>18.03607215771728</v>
       </c>
       <c r="AN10" t="n">
-        <v>25.38435405556699</v>
+        <v>17.45384044202707</v>
       </c>
       <c r="AO10" t="n">
-        <v>21.75701859271167</v>
+        <v>17.93180970683765</v>
       </c>
       <c r="AP10" t="n">
-        <v>19.16463663121043</v>
+        <v>17.69013787648628</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19.24635955965806</v>
+        <v>18.33180508180397</v>
       </c>
       <c r="AR10" t="n">
-        <v>14.84294356710248</v>
+        <v>16.70895437462416</v>
       </c>
       <c r="AS10" t="n">
-        <v>14.68542808895551</v>
+        <v>15.56984179148392</v>
       </c>
       <c r="AT10" t="n">
-        <v>12.95567691307378</v>
+        <v>17.77982298651752</v>
       </c>
       <c r="AU10" t="n">
-        <v>13.82014948192754</v>
+        <v>17.19077352189015</v>
       </c>
       <c r="AV10" t="n">
-        <v>13.74041956639468</v>
+        <v>17.09474712531376</v>
       </c>
       <c r="AW10" t="n">
-        <v>13.21138712131079</v>
+        <v>17.0782879122308</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.6977900268255</v>
+        <v>17.39919571280945</v>
       </c>
     </row>
     <row r="11">
@@ -1965,148 +1965,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>8.374586041486939</v>
+        <v>30.60211615999523</v>
       </c>
       <c r="D11" t="n">
-        <v>11.01026510390238</v>
+        <v>21.38028970567403</v>
       </c>
       <c r="E11" t="n">
-        <v>10.36996702935598</v>
+        <v>24.12863375317556</v>
       </c>
       <c r="F11" t="n">
-        <v>12.98344953755699</v>
+        <v>18.69956365926112</v>
       </c>
       <c r="G11" t="n">
-        <v>13.12498867350266</v>
+        <v>18.57320090068341</v>
       </c>
       <c r="H11" t="n">
-        <v>28.7085670806824</v>
+        <v>20.42139599826217</v>
       </c>
       <c r="I11" t="n">
-        <v>39.95984368890561</v>
+        <v>22.47730923955626</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0005786588051</v>
+        <v>31.29816307822578</v>
       </c>
       <c r="K11" t="n">
-        <v>57.61537020319686</v>
+        <v>28.96549627761109</v>
       </c>
       <c r="L11" t="n">
-        <v>50.27150857974888</v>
+        <v>29.52489746355959</v>
       </c>
       <c r="M11" t="n">
-        <v>49.35037581170189</v>
+        <v>29.72199295055869</v>
       </c>
       <c r="N11" t="n">
-        <v>63.26461135474184</v>
+        <v>29.15954702192238</v>
       </c>
       <c r="O11" t="n">
-        <v>55.75810426448811</v>
+        <v>50.24355554799151</v>
       </c>
       <c r="P11" t="n">
-        <v>56.60219992388782</v>
+        <v>48.68661417604826</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42983098510557</v>
+        <v>62.24794850214771</v>
       </c>
       <c r="R11" t="n">
-        <v>59.5337574265758</v>
+        <v>63.87181447772932</v>
       </c>
       <c r="S11" t="n">
-        <v>64.70838461007141</v>
+        <v>61.53339646293882</v>
       </c>
       <c r="T11" t="n">
-        <v>46.27997669965284</v>
+        <v>52.75230203812512</v>
       </c>
       <c r="U11" t="n">
-        <v>51.98030347267965</v>
+        <v>49.57701651831064</v>
       </c>
       <c r="V11" t="n">
-        <v>52.15323188750283</v>
+        <v>66.87106344489888</v>
       </c>
       <c r="W11" t="n">
-        <v>52.29086080459482</v>
+        <v>50.8589778070554</v>
       </c>
       <c r="X11" t="n">
-        <v>44.88246449988376</v>
+        <v>52.86992286098043</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.66949092822406</v>
+        <v>58.65066470556326</v>
       </c>
       <c r="Z11" t="n">
-        <v>43.95006937599975</v>
+        <v>58.46599829565234</v>
       </c>
       <c r="AA11" t="n">
-        <v>41.94500616807585</v>
+        <v>30.07829464236662</v>
       </c>
       <c r="AB11" t="n">
-        <v>34.89670369141737</v>
+        <v>30.25602333488121</v>
       </c>
       <c r="AC11" t="n">
-        <v>35.48043819378402</v>
+        <v>41.49449924708398</v>
       </c>
       <c r="AD11" t="n">
-        <v>43.38010705332421</v>
+        <v>31.58425171048245</v>
       </c>
       <c r="AE11" t="n">
-        <v>41.71940309623418</v>
+        <v>34.57284135607912</v>
       </c>
       <c r="AF11" t="n">
-        <v>33.77607660500365</v>
+        <v>40.51810535190261</v>
       </c>
       <c r="AG11" t="n">
-        <v>27.09841956775209</v>
+        <v>35.34059151823616</v>
       </c>
       <c r="AH11" t="n">
-        <v>30.26404239092337</v>
+        <v>39.75727371821905</v>
       </c>
       <c r="AI11" t="n">
-        <v>35.29234280573414</v>
+        <v>33.26299839893851</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32.16400046700295</v>
+        <v>34.25527526191747</v>
       </c>
       <c r="AK11" t="n">
-        <v>25.98400133456202</v>
+        <v>35.56584475820642</v>
       </c>
       <c r="AL11" t="n">
-        <v>29.19319524873763</v>
+        <v>35.06942897932013</v>
       </c>
       <c r="AM11" t="n">
-        <v>23.10455490148534</v>
+        <v>22.91239132443529</v>
       </c>
       <c r="AN11" t="n">
-        <v>23.30188117712636</v>
+        <v>22.79463314538533</v>
       </c>
       <c r="AO11" t="n">
-        <v>24.05432559139573</v>
+        <v>22.05287336455891</v>
       </c>
       <c r="AP11" t="n">
-        <v>24.37215317276388</v>
+        <v>23.61446239866208</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24.08599170573447</v>
+        <v>23.40803732085998</v>
       </c>
       <c r="AR11" t="n">
-        <v>21.67471043399105</v>
+        <v>24.05669039908199</v>
       </c>
       <c r="AS11" t="n">
-        <v>21.24069500189439</v>
+        <v>23.90572977702422</v>
       </c>
       <c r="AT11" t="n">
-        <v>26.29160446887552</v>
+        <v>23.94985128731269</v>
       </c>
       <c r="AU11" t="n">
-        <v>24.83940210941263</v>
+        <v>23.67659085055104</v>
       </c>
       <c r="AV11" t="n">
-        <v>23.69696541801744</v>
+        <v>22.60465578313409</v>
       </c>
       <c r="AW11" t="n">
-        <v>20.31745229426333</v>
+        <v>23.46686769462484</v>
       </c>
       <c r="AX11" t="n">
-        <v>21.38630624595765</v>
+        <v>23.89141757787797</v>
       </c>
     </row>
     <row r="12">
@@ -2117,148 +2117,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.271828781576556</v>
+        <v>15.33290182115873</v>
       </c>
       <c r="D12" t="n">
-        <v>2.283943520522665</v>
+        <v>10.34755175249935</v>
       </c>
       <c r="E12" t="n">
-        <v>3.608176765946512</v>
+        <v>12.25376961411966</v>
       </c>
       <c r="F12" t="n">
-        <v>4.760235574796782</v>
+        <v>10.48995188914244</v>
       </c>
       <c r="G12" t="n">
-        <v>4.676907647827023</v>
+        <v>12.26450572082417</v>
       </c>
       <c r="H12" t="n">
-        <v>12.28378097307567</v>
+        <v>9.023331537363187</v>
       </c>
       <c r="I12" t="n">
-        <v>19.17255335619434</v>
+        <v>9.287985988485977</v>
       </c>
       <c r="J12" t="n">
-        <v>29.0721237729859</v>
+        <v>9.30937762207655</v>
       </c>
       <c r="K12" t="n">
-        <v>18.85121338855655</v>
+        <v>12.1836628684337</v>
       </c>
       <c r="L12" t="n">
-        <v>27.53232344341232</v>
+        <v>11.74109861519343</v>
       </c>
       <c r="M12" t="n">
-        <v>29.62699921711369</v>
+        <v>11.97463324830166</v>
       </c>
       <c r="N12" t="n">
-        <v>30.97010147372534</v>
+        <v>11.72101612684959</v>
       </c>
       <c r="O12" t="n">
-        <v>30.07312681405756</v>
+        <v>23.5469924466305</v>
       </c>
       <c r="P12" t="n">
-        <v>28.85844343502053</v>
+        <v>24.73035820022432</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.1418259631691</v>
+        <v>24.95342556506967</v>
       </c>
       <c r="R12" t="n">
-        <v>28.0817518244245</v>
+        <v>27.18248577270925</v>
       </c>
       <c r="S12" t="n">
-        <v>26.33170083912902</v>
+        <v>26.17805569647649</v>
       </c>
       <c r="T12" t="n">
-        <v>25.8575978552861</v>
+        <v>24.22642996867236</v>
       </c>
       <c r="U12" t="n">
-        <v>23.72595181199421</v>
+        <v>25.32099254974496</v>
       </c>
       <c r="V12" t="n">
-        <v>31.91235690078885</v>
+        <v>24.93551342948109</v>
       </c>
       <c r="W12" t="n">
-        <v>21.50628407889405</v>
+        <v>25.36319004154274</v>
       </c>
       <c r="X12" t="n">
-        <v>24.66499714676889</v>
+        <v>24.51634493975314</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.05675669938945</v>
+        <v>29.94940801700949</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8408190158708</v>
+        <v>23.43485984617389</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.78336119058163</v>
+        <v>14.84688540582024</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.46229995404186</v>
+        <v>12.94463352737087</v>
       </c>
       <c r="AC12" t="n">
-        <v>18.47991544067678</v>
+        <v>13.76353366657303</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.53558070683841</v>
+        <v>13.43453961560723</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.71161565110918</v>
+        <v>14.11679100608924</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.47386365965817</v>
+        <v>14.24319540302861</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.44177140642068</v>
+        <v>13.47793648067493</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.51233126091314</v>
+        <v>14.42307942682463</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.53853140456998</v>
+        <v>13.30667995072612</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.69469376316164</v>
+        <v>15.53506880082319</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.321604009051191</v>
+        <v>14.43157137304346</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.677285219668622</v>
+        <v>15.92332221120638</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.30431963608005</v>
+        <v>3.227420922624202</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.141571590371913</v>
+        <v>3.337866702896432</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.024994035614037</v>
+        <v>3.101432846490216</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.727647987388719</v>
+        <v>3.517671747930423</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.369591993895032</v>
+        <v>3.362122806037732</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.906739495579673</v>
+        <v>3.48010387485252</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.825898868575012</v>
+        <v>3.588115870299785</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.144745831021843</v>
+        <v>3.473865004316723</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.730053696473566</v>
+        <v>2.910095501586532</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.739219360969111</v>
+        <v>3.543546868513051</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.215874299114631</v>
+        <v>3.391047044868218</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.879420064337135</v>
+        <v>3.377109019626558</v>
       </c>
     </row>
     <row r="13">
@@ -2269,148 +2269,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.545396979327182</v>
+        <v>16.31924974947515</v>
       </c>
       <c r="D13" t="n">
-        <v>5.254788661898459</v>
+        <v>19.6375581099097</v>
       </c>
       <c r="E13" t="n">
-        <v>5.446078461637572</v>
+        <v>17.73488464084958</v>
       </c>
       <c r="F13" t="n">
-        <v>8.014360568803818</v>
+        <v>22.29491568974614</v>
       </c>
       <c r="G13" t="n">
-        <v>12.1328863265003</v>
+        <v>21.43368737573963</v>
       </c>
       <c r="H13" t="n">
-        <v>26.60783131617937</v>
+        <v>17.48555596989304</v>
       </c>
       <c r="I13" t="n">
-        <v>25.43625074540092</v>
+        <v>17.51206865266717</v>
       </c>
       <c r="J13" t="n">
-        <v>29.52511791934724</v>
+        <v>19.05031843990434</v>
       </c>
       <c r="K13" t="n">
-        <v>41.03571163153418</v>
+        <v>17.09894492558139</v>
       </c>
       <c r="L13" t="n">
-        <v>42.355543008988</v>
+        <v>23.13925180405475</v>
       </c>
       <c r="M13" t="n">
-        <v>44.72263090018846</v>
+        <v>17.48332559404279</v>
       </c>
       <c r="N13" t="n">
-        <v>42.66231277718965</v>
+        <v>15.84080254192045</v>
       </c>
       <c r="O13" t="n">
-        <v>46.89157555645498</v>
+        <v>28.63789273499906</v>
       </c>
       <c r="P13" t="n">
-        <v>40.45295610267717</v>
+        <v>28.54029919802908</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.21960122246698</v>
+        <v>33.69345306205643</v>
       </c>
       <c r="R13" t="n">
-        <v>42.39957863012516</v>
+        <v>29.0791483228541</v>
       </c>
       <c r="S13" t="n">
-        <v>33.16463088192933</v>
+        <v>27.91562220506511</v>
       </c>
       <c r="T13" t="n">
-        <v>29.65301518968509</v>
+        <v>37.74300024367925</v>
       </c>
       <c r="U13" t="n">
-        <v>28.29942438757334</v>
+        <v>30.9260782592528</v>
       </c>
       <c r="V13" t="n">
-        <v>30.20312662995063</v>
+        <v>32.4844678882665</v>
       </c>
       <c r="W13" t="n">
-        <v>22.03657401672318</v>
+        <v>32.7642060640114</v>
       </c>
       <c r="X13" t="n">
-        <v>25.51161418417754</v>
+        <v>34.12894222212228</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.17902268659582</v>
+        <v>29.64922927229728</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.10573023595953</v>
+        <v>32.68691193943511</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.92308522361619</v>
+        <v>10.03693064127328</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.32397988532249</v>
+        <v>11.26320442224781</v>
       </c>
       <c r="AC13" t="n">
-        <v>17.42173587041162</v>
+        <v>9.94116266275158</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.79259849575291</v>
+        <v>12.66034923898011</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.78635763032809</v>
+        <v>14.59618731093192</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.37213990082743</v>
+        <v>12.30705648820202</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.24415242030458</v>
+        <v>14.48742828635345</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.47717003610125</v>
+        <v>11.47007294445481</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.090794219838019</v>
+        <v>12.48986973015754</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.445871542635496</v>
+        <v>9.447699155775485</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.821538053834104</v>
+        <v>12.18597449915339</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.064617190723233</v>
+        <v>12.02840822216807</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.72668941663086</v>
+        <v>9.49370117326532</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.036533470359121</v>
+        <v>10.91108259643397</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.37354686646602</v>
+        <v>6.767633798257883</v>
       </c>
       <c r="AP13" t="n">
-        <v>10.29707229570782</v>
+        <v>10.41442627955252</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10.28444456684113</v>
+        <v>8.48884325083011</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.543619818790621</v>
+        <v>9.58180411954714</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.228048646522573</v>
+        <v>8.174182410569667</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.104103953550259</v>
+        <v>10.27869844685296</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.48695148962924</v>
+        <v>9.565920621360105</v>
       </c>
       <c r="AV13" t="n">
-        <v>8.359850535909812</v>
+        <v>8.860200405913799</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.749977197754184</v>
+        <v>8.515354512190012</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.487083632268121</v>
+        <v>8.60883725322525</v>
       </c>
     </row>
     <row r="14">
@@ -2421,148 +2421,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>10.76462477134666</v>
+        <v>28.29024022354444</v>
       </c>
       <c r="D14" t="n">
-        <v>10.52823908239717</v>
+        <v>25.29875821922336</v>
       </c>
       <c r="E14" t="n">
-        <v>10.37459866517043</v>
+        <v>35.15364286538331</v>
       </c>
       <c r="F14" t="n">
-        <v>16.49821057090319</v>
+        <v>37.65000475768487</v>
       </c>
       <c r="G14" t="n">
-        <v>21.22381818397743</v>
+        <v>32.34944188686202</v>
       </c>
       <c r="H14" t="n">
-        <v>35.53896483720938</v>
+        <v>37.11604930302954</v>
       </c>
       <c r="I14" t="n">
-        <v>49.09146085263053</v>
+        <v>25.46269376265231</v>
       </c>
       <c r="J14" t="n">
-        <v>110.8626250373233</v>
+        <v>41.84803761057204</v>
       </c>
       <c r="K14" t="n">
-        <v>73.92132018026804</v>
+        <v>31.4244402785061</v>
       </c>
       <c r="L14" t="n">
-        <v>71.45002454869268</v>
+        <v>32.93065491834309</v>
       </c>
       <c r="M14" t="n">
-        <v>82.64906031232277</v>
+        <v>41.00200531883923</v>
       </c>
       <c r="N14" t="n">
-        <v>76.53716948945051</v>
+        <v>37.8220096988203</v>
       </c>
       <c r="O14" t="n">
-        <v>75.53521942096295</v>
+        <v>75.70250110976171</v>
       </c>
       <c r="P14" t="n">
-        <v>68.02381272615789</v>
+        <v>68.45597937393877</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.19879996923012</v>
+        <v>72.28302540816678</v>
       </c>
       <c r="R14" t="n">
-        <v>58.33586760370079</v>
+        <v>73.90386417262619</v>
       </c>
       <c r="S14" t="n">
-        <v>61.17526819188335</v>
+        <v>72.06207306131761</v>
       </c>
       <c r="T14" t="n">
-        <v>65.1441365865665</v>
+        <v>63.26110994218302</v>
       </c>
       <c r="U14" t="n">
-        <v>71.44230828277711</v>
+        <v>64.73196877987965</v>
       </c>
       <c r="V14" t="n">
-        <v>79.33225866460424</v>
+        <v>68.26056239635722</v>
       </c>
       <c r="W14" t="n">
-        <v>59.35045647130973</v>
+        <v>71.44566350799789</v>
       </c>
       <c r="X14" t="n">
-        <v>66.13374621594841</v>
+        <v>72.29571105091235</v>
       </c>
       <c r="Y14" t="n">
-        <v>70.90084144373955</v>
+        <v>71.33918330413285</v>
       </c>
       <c r="Z14" t="n">
-        <v>81.93964143040235</v>
+        <v>68.52649499420151</v>
       </c>
       <c r="AA14" t="n">
-        <v>82.68094985079146</v>
+        <v>100.393494317667</v>
       </c>
       <c r="AB14" t="n">
-        <v>97.65584637646151</v>
+        <v>97.8145386381298</v>
       </c>
       <c r="AC14" t="n">
-        <v>104.083283810691</v>
+        <v>92.82343546240806</v>
       </c>
       <c r="AD14" t="n">
-        <v>114.6390480884637</v>
+        <v>90.64573173654169</v>
       </c>
       <c r="AE14" t="n">
-        <v>112.4680750203373</v>
+        <v>91.0617915043008</v>
       </c>
       <c r="AF14" t="n">
-        <v>107.8563053585707</v>
+        <v>95.57419610362443</v>
       </c>
       <c r="AG14" t="n">
-        <v>109.0246650405998</v>
+        <v>91.14353015252955</v>
       </c>
       <c r="AH14" t="n">
-        <v>102.2598814261713</v>
+        <v>90.74569723925704</v>
       </c>
       <c r="AI14" t="n">
-        <v>85.44085550779162</v>
+        <v>95.93935300410088</v>
       </c>
       <c r="AJ14" t="n">
-        <v>76.32620714025899</v>
+        <v>91.32715430034519</v>
       </c>
       <c r="AK14" t="n">
-        <v>67.85860780585435</v>
+        <v>97.69334205184073</v>
       </c>
       <c r="AL14" t="n">
-        <v>58.80477828529288</v>
+        <v>105.1951704036686</v>
       </c>
       <c r="AM14" t="n">
-        <v>44.98502753344373</v>
+        <v>28.99038385154062</v>
       </c>
       <c r="AN14" t="n">
-        <v>38.79201904466611</v>
+        <v>28.23445878016125</v>
       </c>
       <c r="AO14" t="n">
-        <v>32.41280459647583</v>
+        <v>28.47095335553945</v>
       </c>
       <c r="AP14" t="n">
-        <v>29.93581379075259</v>
+        <v>27.04315768504032</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26.88444162125279</v>
+        <v>26.398144388631</v>
       </c>
       <c r="AR14" t="n">
-        <v>25.05394676961076</v>
+        <v>28.83848435144635</v>
       </c>
       <c r="AS14" t="n">
-        <v>23.66302600332828</v>
+        <v>25.82179631405864</v>
       </c>
       <c r="AT14" t="n">
-        <v>22.95874958670095</v>
+        <v>27.35850992642654</v>
       </c>
       <c r="AU14" t="n">
-        <v>20.62523249803855</v>
+        <v>27.09733704820381</v>
       </c>
       <c r="AV14" t="n">
-        <v>21.19714473318159</v>
+        <v>25.40094548589393</v>
       </c>
       <c r="AW14" t="n">
-        <v>21.96349453237675</v>
+        <v>27.70427630708752</v>
       </c>
       <c r="AX14" t="n">
-        <v>19.09538148073762</v>
+        <v>26.78033735655952</v>
       </c>
     </row>
     <row r="15">
@@ -2573,148 +2573,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1.626751255108262</v>
+        <v>3.485432975889509</v>
       </c>
       <c r="D15" t="n">
-        <v>1.580841387557955</v>
+        <v>2.803204917691744</v>
       </c>
       <c r="E15" t="n">
-        <v>1.433062056477306</v>
+        <v>2.686792866864769</v>
       </c>
       <c r="F15" t="n">
-        <v>1.106750916131654</v>
+        <v>2.446149948814562</v>
       </c>
       <c r="G15" t="n">
-        <v>1.41275611006394</v>
+        <v>2.945114553552819</v>
       </c>
       <c r="H15" t="n">
-        <v>2.549649939843043</v>
+        <v>2.302042847002092</v>
       </c>
       <c r="I15" t="n">
-        <v>3.80414503902625</v>
+        <v>2.858460884664414</v>
       </c>
       <c r="J15" t="n">
-        <v>4.649620744242207</v>
+        <v>2.483003687485257</v>
       </c>
       <c r="K15" t="n">
-        <v>3.946440606180246</v>
+        <v>2.899706411713587</v>
       </c>
       <c r="L15" t="n">
-        <v>4.712950997525604</v>
+        <v>2.239239817834962</v>
       </c>
       <c r="M15" t="n">
-        <v>5.366641719653411</v>
+        <v>2.501546111443067</v>
       </c>
       <c r="N15" t="n">
-        <v>4.533667637195678</v>
+        <v>2.038392056693666</v>
       </c>
       <c r="O15" t="n">
-        <v>4.758303254164968</v>
+        <v>4.495226718429002</v>
       </c>
       <c r="P15" t="n">
-        <v>4.298974715485226</v>
+        <v>4.203124073055535</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.822267091146386</v>
+        <v>4.495351269657939</v>
       </c>
       <c r="R15" t="n">
-        <v>4.466296107204515</v>
+        <v>4.091778039894203</v>
       </c>
       <c r="S15" t="n">
-        <v>4.807909945650957</v>
+        <v>4.546369754799423</v>
       </c>
       <c r="T15" t="n">
-        <v>4.386762608780711</v>
+        <v>4.105189980911984</v>
       </c>
       <c r="U15" t="n">
-        <v>4.956641965777083</v>
+        <v>4.732097652350088</v>
       </c>
       <c r="V15" t="n">
-        <v>4.899302981360695</v>
+        <v>4.194607224611188</v>
       </c>
       <c r="W15" t="n">
-        <v>4.168557807674344</v>
+        <v>4.648560581435192</v>
       </c>
       <c r="X15" t="n">
-        <v>4.335013592929718</v>
+        <v>4.546996353278446</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.189996642691947</v>
+        <v>4.393226286401577</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.079648385167228</v>
+        <v>4.403391018639162</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.247241296952578</v>
+        <v>5.17745617615939</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.793013271963798</v>
+        <v>5.519654740845132</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.881668565561452</v>
+        <v>4.808574475630079</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.495960749277531</v>
+        <v>5.193639026448989</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.735619345390495</v>
+        <v>4.924058373368882</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.479747912357344</v>
+        <v>5.568515403043158</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.664037628790598</v>
+        <v>5.683529585055123</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.091444807178672</v>
+        <v>4.970287186651476</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.395468653602379</v>
+        <v>5.32495129325199</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.883161682291953</v>
+        <v>5.138853665114384</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.763569244858368</v>
+        <v>5.313618888316046</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.619621757345556</v>
+        <v>5.745669111226866</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.901338519255014</v>
+        <v>3.635356671428784</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.548738552766546</v>
+        <v>3.797816544707629</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.12540243256323</v>
+        <v>3.299537687014304</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.102543349221087</v>
+        <v>3.793035058484449</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.326809913652573</v>
+        <v>3.762107814545207</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.104328529341447</v>
+        <v>3.732523181825019</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.56248537043854</v>
+        <v>3.901214475044192</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.379739826661874</v>
+        <v>3.931731960931907</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.600232629995396</v>
+        <v>3.825380745305839</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.240370853708868</v>
+        <v>3.663948601443943</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.106487836235164</v>
+        <v>3.643097740166245</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.979810216337955</v>
+        <v>3.727608168524889</v>
       </c>
     </row>
     <row r="16">
@@ -2725,148 +2725,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6.626708555453775</v>
+        <v>34.95743125485731</v>
       </c>
       <c r="D16" t="n">
-        <v>6.138363898469843</v>
+        <v>30.01410551763486</v>
       </c>
       <c r="E16" t="n">
-        <v>7.638412502171446</v>
+        <v>30.66789080574917</v>
       </c>
       <c r="F16" t="n">
-        <v>12.13217186373902</v>
+        <v>29.98264089210175</v>
       </c>
       <c r="G16" t="n">
-        <v>11.77224741053403</v>
+        <v>25.04964739488031</v>
       </c>
       <c r="H16" t="n">
-        <v>29.8131509731978</v>
+        <v>32.38378135527172</v>
       </c>
       <c r="I16" t="n">
-        <v>43.96352743048598</v>
+        <v>21.48640035724667</v>
       </c>
       <c r="J16" t="n">
-        <v>77.4430770916772</v>
+        <v>37.84094545654592</v>
       </c>
       <c r="K16" t="n">
-        <v>62.48771951843065</v>
+        <v>37.74328491891807</v>
       </c>
       <c r="L16" t="n">
-        <v>71.06622313576669</v>
+        <v>23.61059148758435</v>
       </c>
       <c r="M16" t="n">
-        <v>85.94080921675044</v>
+        <v>38.12424634889724</v>
       </c>
       <c r="N16" t="n">
-        <v>91.25079136588928</v>
+        <v>30.4930500510187</v>
       </c>
       <c r="O16" t="n">
-        <v>78.98532590997947</v>
+        <v>73.71765241347239</v>
       </c>
       <c r="P16" t="n">
-        <v>83.10464541947971</v>
+        <v>72.65014134153877</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.94195249072031</v>
+        <v>74.88405525304563</v>
       </c>
       <c r="R16" t="n">
-        <v>61.82860042528943</v>
+        <v>76.25472473278958</v>
       </c>
       <c r="S16" t="n">
-        <v>65.54478137183109</v>
+        <v>67.76919768013157</v>
       </c>
       <c r="T16" t="n">
-        <v>60.82561787875323</v>
+        <v>74.2330026090314</v>
       </c>
       <c r="U16" t="n">
-        <v>65.76477640821909</v>
+        <v>80.87521168370704</v>
       </c>
       <c r="V16" t="n">
-        <v>82.5366084405657</v>
+        <v>63.13313820452917</v>
       </c>
       <c r="W16" t="n">
-        <v>64.79870769393069</v>
+        <v>75.11056340171426</v>
       </c>
       <c r="X16" t="n">
-        <v>71.58263842207855</v>
+        <v>68.4235983609227</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.21396509199398</v>
+        <v>69.82735169589537</v>
       </c>
       <c r="Z16" t="n">
-        <v>67.2702564325001</v>
+        <v>74.1902824076459</v>
       </c>
       <c r="AA16" t="n">
-        <v>66.68795483142145</v>
+        <v>61.12099783825096</v>
       </c>
       <c r="AB16" t="n">
-        <v>79.20347270913288</v>
+        <v>62.06069506654811</v>
       </c>
       <c r="AC16" t="n">
-        <v>74.77663721983362</v>
+        <v>65.27937659876267</v>
       </c>
       <c r="AD16" t="n">
-        <v>92.51448877523846</v>
+        <v>63.35925177894241</v>
       </c>
       <c r="AE16" t="n">
-        <v>75.64318055378308</v>
+        <v>66.89584328013602</v>
       </c>
       <c r="AF16" t="n">
-        <v>68.60530399596455</v>
+        <v>57.96967096721574</v>
       </c>
       <c r="AG16" t="n">
-        <v>66.06757775595473</v>
+        <v>61.26630193168533</v>
       </c>
       <c r="AH16" t="n">
-        <v>64.21472970188199</v>
+        <v>64.5980995497293</v>
       </c>
       <c r="AI16" t="n">
-        <v>59.15329331443207</v>
+        <v>63.41302266180449</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55.91047033146938</v>
+        <v>64.07371351175881</v>
       </c>
       <c r="AK16" t="n">
-        <v>46.85995351730939</v>
+        <v>63.64677719677735</v>
       </c>
       <c r="AL16" t="n">
-        <v>37.17552740046322</v>
+        <v>60.18544921461265</v>
       </c>
       <c r="AM16" t="n">
-        <v>29.58599199703042</v>
+        <v>17.09854994488727</v>
       </c>
       <c r="AN16" t="n">
-        <v>26.59770259534833</v>
+        <v>16.49975746679233</v>
       </c>
       <c r="AO16" t="n">
-        <v>22.51000028832212</v>
+        <v>15.65687574839039</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.51447522828875</v>
+        <v>17.65518135522465</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18.25951038612748</v>
+        <v>18.02074301975855</v>
       </c>
       <c r="AR16" t="n">
-        <v>16.94602253415742</v>
+        <v>17.43076909144161</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.23603652775085</v>
+        <v>18.10993528723697</v>
       </c>
       <c r="AT16" t="n">
-        <v>13.75388565024222</v>
+        <v>18.32111892339534</v>
       </c>
       <c r="AU16" t="n">
-        <v>12.4698826546193</v>
+        <v>16.10477443977254</v>
       </c>
       <c r="AV16" t="n">
-        <v>12.73489119031316</v>
+        <v>18.63692925698572</v>
       </c>
       <c r="AW16" t="n">
-        <v>12.9140440445628</v>
+        <v>17.44477281339568</v>
       </c>
       <c r="AX16" t="n">
-        <v>11.37503665902216</v>
+        <v>18.81459559163309</v>
       </c>
     </row>
     <row r="17">
@@ -2877,148 +2877,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>12.01214630130926</v>
+        <v>25.23734902094834</v>
       </c>
       <c r="D17" t="n">
-        <v>10.46567399782247</v>
+        <v>25.60589863248141</v>
       </c>
       <c r="E17" t="n">
-        <v>9.556454096306663</v>
+        <v>31.5466210800149</v>
       </c>
       <c r="F17" t="n">
-        <v>11.36348778148013</v>
+        <v>33.13097294278742</v>
       </c>
       <c r="G17" t="n">
-        <v>15.81400256994171</v>
+        <v>22.30361185979802</v>
       </c>
       <c r="H17" t="n">
-        <v>25.91687482845599</v>
+        <v>27.24313308786448</v>
       </c>
       <c r="I17" t="n">
-        <v>38.01026914320169</v>
+        <v>29.83859496664927</v>
       </c>
       <c r="J17" t="n">
-        <v>48.99640068357196</v>
+        <v>20.70073287566016</v>
       </c>
       <c r="K17" t="n">
-        <v>51.39537992261204</v>
+        <v>30.12227487893743</v>
       </c>
       <c r="L17" t="n">
-        <v>47.14784866234988</v>
+        <v>24.24291214869874</v>
       </c>
       <c r="M17" t="n">
-        <v>56.08671853049705</v>
+        <v>24.84510771508679</v>
       </c>
       <c r="N17" t="n">
-        <v>61.60687512316085</v>
+        <v>32.38092351761526</v>
       </c>
       <c r="O17" t="n">
-        <v>70.21676360833611</v>
+        <v>53.9573828869263</v>
       </c>
       <c r="P17" t="n">
-        <v>65.58201419730467</v>
+        <v>49.45758368572557</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.46088033435345</v>
+        <v>64.98324807643766</v>
       </c>
       <c r="R17" t="n">
-        <v>64.09518834868041</v>
+        <v>57.58441231232553</v>
       </c>
       <c r="S17" t="n">
-        <v>57.56067602251174</v>
+        <v>52.26666280327917</v>
       </c>
       <c r="T17" t="n">
-        <v>49.3223348867387</v>
+        <v>61.72447256524784</v>
       </c>
       <c r="U17" t="n">
-        <v>51.50575577590268</v>
+        <v>53.3582450472421</v>
       </c>
       <c r="V17" t="n">
-        <v>62.78850081770528</v>
+        <v>52.97281671831674</v>
       </c>
       <c r="W17" t="n">
-        <v>52.47228714785442</v>
+        <v>64.04581545834591</v>
       </c>
       <c r="X17" t="n">
-        <v>47.33554158991959</v>
+        <v>55.9052018185241</v>
       </c>
       <c r="Y17" t="n">
-        <v>39.1643133307315</v>
+        <v>56.66070284528031</v>
       </c>
       <c r="Z17" t="n">
-        <v>39.91987861497362</v>
+        <v>58.03903310369815</v>
       </c>
       <c r="AA17" t="n">
-        <v>37.14090029149823</v>
+        <v>33.28862614839601</v>
       </c>
       <c r="AB17" t="n">
-        <v>34.72849722628956</v>
+        <v>38.92722964463146</v>
       </c>
       <c r="AC17" t="n">
-        <v>35.31958686362438</v>
+        <v>36.07437928232122</v>
       </c>
       <c r="AD17" t="n">
-        <v>38.9547633682262</v>
+        <v>32.33989787909503</v>
       </c>
       <c r="AE17" t="n">
-        <v>50.55330050648848</v>
+        <v>39.79392479077776</v>
       </c>
       <c r="AF17" t="n">
-        <v>28.26791134395677</v>
+        <v>43.15840211550331</v>
       </c>
       <c r="AG17" t="n">
-        <v>30.32892897225047</v>
+        <v>34.10281022295131</v>
       </c>
       <c r="AH17" t="n">
-        <v>31.45939943552115</v>
+        <v>35.0090578356128</v>
       </c>
       <c r="AI17" t="n">
-        <v>33.12100346698462</v>
+        <v>35.20442908005585</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34.49572109247544</v>
+        <v>34.64389148080398</v>
       </c>
       <c r="AK17" t="n">
-        <v>25.0622684265622</v>
+        <v>32.82592901022993</v>
       </c>
       <c r="AL17" t="n">
-        <v>30.01708040441758</v>
+        <v>32.52879887461224</v>
       </c>
       <c r="AM17" t="n">
-        <v>24.62519871854405</v>
+        <v>22.78226266543247</v>
       </c>
       <c r="AN17" t="n">
-        <v>24.15383627524299</v>
+        <v>25.31771130460914</v>
       </c>
       <c r="AO17" t="n">
-        <v>22.75075976517683</v>
+        <v>23.82831320732533</v>
       </c>
       <c r="AP17" t="n">
-        <v>24.86410316132588</v>
+        <v>24.58898450501633</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23.28138535254816</v>
+        <v>24.57528629112489</v>
       </c>
       <c r="AR17" t="n">
-        <v>22.90372669109367</v>
+        <v>21.42224205495308</v>
       </c>
       <c r="AS17" t="n">
-        <v>23.57985947803833</v>
+        <v>23.24956545920368</v>
       </c>
       <c r="AT17" t="n">
-        <v>22.62137762609697</v>
+        <v>21.74534951994768</v>
       </c>
       <c r="AU17" t="n">
-        <v>24.11196764708048</v>
+        <v>25.86018715618312</v>
       </c>
       <c r="AV17" t="n">
-        <v>21.79598848990146</v>
+        <v>22.14657729885278</v>
       </c>
       <c r="AW17" t="n">
-        <v>21.74141798085998</v>
+        <v>22.62001695899342</v>
       </c>
       <c r="AX17" t="n">
-        <v>22.47131848640359</v>
+        <v>21.31112262440232</v>
       </c>
     </row>
     <row r="18">
@@ -3029,148 +3029,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.067434410712337</v>
+        <v>9.883422389828723</v>
       </c>
       <c r="D18" t="n">
-        <v>2.528686061377086</v>
+        <v>10.76876866943597</v>
       </c>
       <c r="E18" t="n">
-        <v>3.603167032131938</v>
+        <v>15.48147054196695</v>
       </c>
       <c r="F18" t="n">
-        <v>3.034793254461841</v>
+        <v>11.11580776403139</v>
       </c>
       <c r="G18" t="n">
-        <v>4.982880751460226</v>
+        <v>11.9147421348844</v>
       </c>
       <c r="H18" t="n">
-        <v>13.94323841309146</v>
+        <v>10.64235847191394</v>
       </c>
       <c r="I18" t="n">
-        <v>21.43454957413714</v>
+        <v>12.34463474951775</v>
       </c>
       <c r="J18" t="n">
-        <v>33.29139642981313</v>
+        <v>10.91273404319336</v>
       </c>
       <c r="K18" t="n">
-        <v>23.83798847140513</v>
+        <v>8.73926214614418</v>
       </c>
       <c r="L18" t="n">
-        <v>23.06367586382046</v>
+        <v>10.81598940674383</v>
       </c>
       <c r="M18" t="n">
-        <v>35.71578157532057</v>
+        <v>11.23355794573262</v>
       </c>
       <c r="N18" t="n">
-        <v>31.4431298369139</v>
+        <v>9.826925245081249</v>
       </c>
       <c r="O18" t="n">
-        <v>31.60663053448796</v>
+        <v>25.15215900449652</v>
       </c>
       <c r="P18" t="n">
-        <v>29.57748301988322</v>
+        <v>23.14291951596559</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.06667815436943</v>
+        <v>24.06268961906025</v>
       </c>
       <c r="R18" t="n">
-        <v>27.56078360690019</v>
+        <v>26.16163695271113</v>
       </c>
       <c r="S18" t="n">
-        <v>27.82779932131029</v>
+        <v>28.71571481585281</v>
       </c>
       <c r="T18" t="n">
-        <v>26.9218300792711</v>
+        <v>25.75974713072393</v>
       </c>
       <c r="U18" t="n">
-        <v>23.94468951674015</v>
+        <v>26.61664791309807</v>
       </c>
       <c r="V18" t="n">
-        <v>28.16540967605517</v>
+        <v>25.38479790268077</v>
       </c>
       <c r="W18" t="n">
-        <v>21.79534318038348</v>
+        <v>27.92350913594948</v>
       </c>
       <c r="X18" t="n">
-        <v>20.81406465751483</v>
+        <v>24.88061327814679</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.96834980629901</v>
+        <v>24.44874519604118</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.88947988347768</v>
+        <v>24.76157352476166</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.10669144270469</v>
+        <v>14.43934193099597</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.76746301531044</v>
+        <v>13.28237399672713</v>
       </c>
       <c r="AC18" t="n">
-        <v>20.36711792812431</v>
+        <v>15.87827949514781</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.73390696415996</v>
+        <v>13.87019886428876</v>
       </c>
       <c r="AE18" t="n">
-        <v>17.46275874216051</v>
+        <v>15.11734142047686</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.0578078768173</v>
+        <v>14.5510060604823</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.4905978156658</v>
+        <v>15.43805120382241</v>
       </c>
       <c r="AH18" t="n">
-        <v>12.06405516270602</v>
+        <v>13.56567432540451</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.53680439058484</v>
+        <v>13.0681729381223</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.06789500513429</v>
+        <v>14.51869295439044</v>
       </c>
       <c r="AK18" t="n">
-        <v>7.764103884471354</v>
+        <v>15.37158926915178</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.152615177608793</v>
+        <v>13.95391277884537</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.681192985202873</v>
+        <v>3.462294468488085</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.133470781197636</v>
+        <v>3.474999144177654</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.886943830423919</v>
+        <v>3.472195050697588</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.670969119148213</v>
+        <v>3.251725289662608</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.396431472680914</v>
+        <v>3.576851467403034</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.676427858455872</v>
+        <v>3.710015127386584</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.32654933457473</v>
+        <v>3.596288112129508</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.056096684092934</v>
+        <v>3.318156705238474</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.062672252078109</v>
+        <v>3.634907745665452</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.848068980623373</v>
+        <v>3.846033445214501</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.263827504349296</v>
+        <v>3.628621828929522</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.06871739479598</v>
+        <v>3.312291206308642</v>
       </c>
     </row>
     <row r="19">
@@ -3181,148 +3181,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>9.607640785608872</v>
+        <v>16.88240081854396</v>
       </c>
       <c r="D19" t="n">
-        <v>6.345251954925279</v>
+        <v>18.65395119901185</v>
       </c>
       <c r="E19" t="n">
-        <v>7.221563561588917</v>
+        <v>14.33709424865474</v>
       </c>
       <c r="F19" t="n">
-        <v>4.769102949016593</v>
+        <v>16.84309172646772</v>
       </c>
       <c r="G19" t="n">
-        <v>17.04611828032768</v>
+        <v>16.12351002879899</v>
       </c>
       <c r="H19" t="n">
-        <v>27.83542849854429</v>
+        <v>19.79432864005547</v>
       </c>
       <c r="I19" t="n">
-        <v>30.1537426394068</v>
+        <v>15.10961673660979</v>
       </c>
       <c r="J19" t="n">
-        <v>26.72457377900972</v>
+        <v>18.69234836632504</v>
       </c>
       <c r="K19" t="n">
-        <v>37.59237012915515</v>
+        <v>18.61183770739629</v>
       </c>
       <c r="L19" t="n">
-        <v>39.39210795309943</v>
+        <v>15.32197226558017</v>
       </c>
       <c r="M19" t="n">
-        <v>38.81897996881166</v>
+        <v>14.793971959845</v>
       </c>
       <c r="N19" t="n">
-        <v>39.86132791691527</v>
+        <v>16.62226733827442</v>
       </c>
       <c r="O19" t="n">
-        <v>43.92887432889015</v>
+        <v>30.95826829942278</v>
       </c>
       <c r="P19" t="n">
-        <v>39.91016640810231</v>
+        <v>34.36972125500895</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.76067291077641</v>
+        <v>33.36555737341484</v>
       </c>
       <c r="R19" t="n">
-        <v>40.71515555045233</v>
+        <v>36.3971492691071</v>
       </c>
       <c r="S19" t="n">
-        <v>29.52325401269804</v>
+        <v>31.00167271730053</v>
       </c>
       <c r="T19" t="n">
-        <v>28.48275756661042</v>
+        <v>30.1513173797668</v>
       </c>
       <c r="U19" t="n">
-        <v>29.41274335667411</v>
+        <v>30.6036286576276</v>
       </c>
       <c r="V19" t="n">
-        <v>31.53481759587</v>
+        <v>31.79321320795522</v>
       </c>
       <c r="W19" t="n">
-        <v>21.2340994389371</v>
+        <v>34.24952640732538</v>
       </c>
       <c r="X19" t="n">
-        <v>22.95491496618203</v>
+        <v>27.82221771661542</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.00487451615666</v>
+        <v>36.78647671456904</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.89593848297699</v>
+        <v>31.61843022191618</v>
       </c>
       <c r="AA19" t="n">
-        <v>15.39673563755597</v>
+        <v>12.87089338236021</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.18464939587467</v>
+        <v>12.26316416997134</v>
       </c>
       <c r="AC19" t="n">
-        <v>16.81856770289879</v>
+        <v>11.25520204905606</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.28483742073804</v>
+        <v>12.23070179850365</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.4981740104232</v>
+        <v>11.03571044342477</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.75199469621093</v>
+        <v>12.48399083866316</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.05297886951628</v>
+        <v>13.42858703632925</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.8141187887878</v>
+        <v>12.66424882082383</v>
       </c>
       <c r="AI19" t="n">
-        <v>10.72555026073639</v>
+        <v>13.31766539228899</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.380559852935551</v>
+        <v>12.83217524636127</v>
       </c>
       <c r="AK19" t="n">
-        <v>11.48787433451883</v>
+        <v>11.85068421939156</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.77471631452414</v>
+        <v>13.67053426259986</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.364940922605658</v>
+        <v>8.479050218916649</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.788817506254141</v>
+        <v>7.599603457349262</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.94111708848118</v>
+        <v>7.772552422212141</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.100595354494429</v>
+        <v>10.12181584188814</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.343847044072827</v>
+        <v>9.543859534561827</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.864713272516525</v>
+        <v>8.362720536806869</v>
       </c>
       <c r="AS19" t="n">
-        <v>8.420739958224818</v>
+        <v>8.617432923867886</v>
       </c>
       <c r="AT19" t="n">
-        <v>7.998664949470295</v>
+        <v>8.543071866239892</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.156260047898148</v>
+        <v>9.569791467070349</v>
       </c>
       <c r="AV19" t="n">
-        <v>8.701625054724476</v>
+        <v>7.393341859334615</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.248698590830248</v>
+        <v>10.35485383914475</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.705566493401255</v>
+        <v>9.858624569163878</v>
       </c>
     </row>
     <row r="20">
@@ -3333,148 +3333,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>9.604458201604013</v>
+        <v>38.70757177553894</v>
       </c>
       <c r="D20" t="n">
-        <v>9.228753797963059</v>
+        <v>36.48340319812949</v>
       </c>
       <c r="E20" t="n">
-        <v>13.32893845198605</v>
+        <v>39.70878751822341</v>
       </c>
       <c r="F20" t="n">
-        <v>20.70975405135325</v>
+        <v>28.91994062659621</v>
       </c>
       <c r="G20" t="n">
-        <v>16.9698035447564</v>
+        <v>38.41854367305277</v>
       </c>
       <c r="H20" t="n">
-        <v>29.81001800870504</v>
+        <v>35.91761301506469</v>
       </c>
       <c r="I20" t="n">
-        <v>56.34046116234301</v>
+        <v>42.91453340306157</v>
       </c>
       <c r="J20" t="n">
-        <v>77.17265200672638</v>
+        <v>30.14194518256506</v>
       </c>
       <c r="K20" t="n">
-        <v>71.86164602703045</v>
+        <v>42.62263891117928</v>
       </c>
       <c r="L20" t="n">
-        <v>74.99120967277926</v>
+        <v>42.44558228420547</v>
       </c>
       <c r="M20" t="n">
-        <v>81.72172869182354</v>
+        <v>34.26145858689588</v>
       </c>
       <c r="N20" t="n">
-        <v>84.18759854464959</v>
+        <v>37.1026158540723</v>
       </c>
       <c r="O20" t="n">
-        <v>81.1306585597202</v>
+        <v>72.2995987926367</v>
       </c>
       <c r="P20" t="n">
-        <v>66.84005369986376</v>
+        <v>68.86783282161873</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.47289540157007</v>
+        <v>61.95825440193816</v>
       </c>
       <c r="R20" t="n">
-        <v>64.28687008082792</v>
+        <v>69.08569611950438</v>
       </c>
       <c r="S20" t="n">
-        <v>62.01882152596999</v>
+        <v>72.67732517442158</v>
       </c>
       <c r="T20" t="n">
-        <v>60.52604327348857</v>
+        <v>70.9422381957956</v>
       </c>
       <c r="U20" t="n">
-        <v>63.99586848394883</v>
+        <v>72.33085472424112</v>
       </c>
       <c r="V20" t="n">
-        <v>65.40752089460793</v>
+        <v>63.80361522368338</v>
       </c>
       <c r="W20" t="n">
-        <v>72.67278399557705</v>
+        <v>75.57911227897816</v>
       </c>
       <c r="X20" t="n">
-        <v>69.12054022843442</v>
+        <v>71.80052763925825</v>
       </c>
       <c r="Y20" t="n">
-        <v>67.47563018759588</v>
+        <v>64.93059593274823</v>
       </c>
       <c r="Z20" t="n">
-        <v>76.7340350326532</v>
+        <v>64.34566332058971</v>
       </c>
       <c r="AA20" t="n">
-        <v>85.49404182943177</v>
+        <v>99.70341603732081</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.32053809320877</v>
+        <v>90.83018155129386</v>
       </c>
       <c r="AC20" t="n">
-        <v>107.6248065675379</v>
+        <v>87.94978776241194</v>
       </c>
       <c r="AD20" t="n">
-        <v>119.463700530159</v>
+        <v>101.0591517865812</v>
       </c>
       <c r="AE20" t="n">
-        <v>114.5643520152622</v>
+        <v>98.42107916208629</v>
       </c>
       <c r="AF20" t="n">
-        <v>111.1656830400277</v>
+        <v>101.5907241838893</v>
       </c>
       <c r="AG20" t="n">
-        <v>109.293777454964</v>
+        <v>86.82868788936243</v>
       </c>
       <c r="AH20" t="n">
-        <v>101.0292513739579</v>
+        <v>101.6831750278886</v>
       </c>
       <c r="AI20" t="n">
-        <v>87.29321095692434</v>
+        <v>88.61469451049445</v>
       </c>
       <c r="AJ20" t="n">
-        <v>79.6476409997336</v>
+        <v>98.33745841249331</v>
       </c>
       <c r="AK20" t="n">
-        <v>58.65169918810408</v>
+        <v>99.00333056513165</v>
       </c>
       <c r="AL20" t="n">
-        <v>55.70348500865002</v>
+        <v>94.16110957857228</v>
       </c>
       <c r="AM20" t="n">
-        <v>45.00392119721173</v>
+        <v>28.88898152085767</v>
       </c>
       <c r="AN20" t="n">
-        <v>39.91458097252043</v>
+        <v>27.87969452149954</v>
       </c>
       <c r="AO20" t="n">
-        <v>33.09021495992836</v>
+        <v>26.72018045894484</v>
       </c>
       <c r="AP20" t="n">
-        <v>28.56183469269444</v>
+        <v>28.52936997805197</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26.86407567479453</v>
+        <v>28.01372803738052</v>
       </c>
       <c r="AR20" t="n">
-        <v>25.08945990549731</v>
+        <v>27.57837971787976</v>
       </c>
       <c r="AS20" t="n">
-        <v>22.91316023739542</v>
+        <v>28.1271103245491</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.08523950646076</v>
+        <v>27.73735562189969</v>
       </c>
       <c r="AU20" t="n">
-        <v>21.26383658825112</v>
+        <v>28.12260937461847</v>
       </c>
       <c r="AV20" t="n">
-        <v>21.40723603476582</v>
+        <v>27.35011968431971</v>
       </c>
       <c r="AW20" t="n">
-        <v>20.33720618592391</v>
+        <v>26.79251291206774</v>
       </c>
       <c r="AX20" t="n">
-        <v>19.84752267886405</v>
+        <v>27.94163598082374</v>
       </c>
     </row>
     <row r="21">
@@ -3485,148 +3485,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.595109337052378</v>
+        <v>2.368109470107633</v>
       </c>
       <c r="D21" t="n">
-        <v>1.475103742794679</v>
+        <v>2.514590264105189</v>
       </c>
       <c r="E21" t="n">
-        <v>1.47700967269584</v>
+        <v>2.572267159907413</v>
       </c>
       <c r="F21" t="n">
-        <v>1.575951871831338</v>
+        <v>2.92979391778908</v>
       </c>
       <c r="G21" t="n">
-        <v>1.408934644487209</v>
+        <v>2.066367234482194</v>
       </c>
       <c r="H21" t="n">
-        <v>2.711552228943285</v>
+        <v>2.551597263903644</v>
       </c>
       <c r="I21" t="n">
-        <v>3.918764628477077</v>
+        <v>3.273109167684419</v>
       </c>
       <c r="J21" t="n">
-        <v>4.44082333235268</v>
+        <v>2.550400895782932</v>
       </c>
       <c r="K21" t="n">
-        <v>3.551112071782711</v>
+        <v>2.254337861904885</v>
       </c>
       <c r="L21" t="n">
-        <v>4.281245515983968</v>
+        <v>2.573805349776072</v>
       </c>
       <c r="M21" t="n">
-        <v>4.944565296142785</v>
+        <v>2.206536558583558</v>
       </c>
       <c r="N21" t="n">
-        <v>5.053328694561197</v>
+        <v>2.898757326932552</v>
       </c>
       <c r="O21" t="n">
-        <v>5.063142949289901</v>
+        <v>4.291474811275015</v>
       </c>
       <c r="P21" t="n">
-        <v>5.012170448783739</v>
+        <v>4.318037216502668</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.765430471618239</v>
+        <v>4.34692002324898</v>
       </c>
       <c r="R21" t="n">
-        <v>4.498602073994872</v>
+        <v>4.540273708168014</v>
       </c>
       <c r="S21" t="n">
-        <v>4.357373097127901</v>
+        <v>4.996695365553824</v>
       </c>
       <c r="T21" t="n">
-        <v>4.414570854216514</v>
+        <v>4.063468696744573</v>
       </c>
       <c r="U21" t="n">
-        <v>5.146106169883028</v>
+        <v>4.711902729182523</v>
       </c>
       <c r="V21" t="n">
-        <v>5.080675007030975</v>
+        <v>4.30203418778602</v>
       </c>
       <c r="W21" t="n">
-        <v>4.382194251014841</v>
+        <v>4.503145482836949</v>
       </c>
       <c r="X21" t="n">
-        <v>4.410099059405672</v>
+        <v>4.337252853657163</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.425092423169085</v>
+        <v>4.536217667283991</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.355210146696909</v>
+        <v>4.089097786654881</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.270769594914898</v>
+        <v>5.22377088471587</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.758850463736319</v>
+        <v>5.351717036003646</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.186412418101793</v>
+        <v>5.106896261764106</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.744438532389421</v>
+        <v>5.126250501761485</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.606141603263947</v>
+        <v>4.866869007212726</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.667027395538879</v>
+        <v>5.347983245180211</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.501331820646917</v>
+        <v>5.071063783486256</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.854519389549279</v>
+        <v>5.387718903418724</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.025487474460687</v>
+        <v>5.394381643670719</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.346390977701068</v>
+        <v>5.470936942733534</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.862154839251485</v>
+        <v>5.49780667737991</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.713451704003976</v>
+        <v>5.279505780706287</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.049817024893777</v>
+        <v>3.894199519969163</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.563138705648971</v>
+        <v>3.88412031045565</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.058685550598817</v>
+        <v>3.56869219352378</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.622660536720025</v>
+        <v>3.830865402082052</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.634313792021216</v>
+        <v>3.92021295644896</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.732332525087463</v>
+        <v>3.889091239010311</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.796026442587319</v>
+        <v>3.973582827535599</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.774150135332529</v>
+        <v>3.838255247721309</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.585148915925125</v>
+        <v>4.161964026544612</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.529631253859621</v>
+        <v>3.848112876254568</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.569012995621496</v>
+        <v>3.793525188851123</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.940193438294654</v>
+        <v>3.878270975297906</v>
       </c>
     </row>
     <row r="22">
@@ -3637,148 +3637,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>4.963313919064659</v>
+        <v>31.03936569183465</v>
       </c>
       <c r="D22" t="n">
-        <v>4.845146574378782</v>
+        <v>28.13687457153998</v>
       </c>
       <c r="E22" t="n">
-        <v>7.130673264358315</v>
+        <v>27.28378580924039</v>
       </c>
       <c r="F22" t="n">
-        <v>8.063412080621966</v>
+        <v>33.87129593639784</v>
       </c>
       <c r="G22" t="n">
-        <v>7.647936561901194</v>
+        <v>21.13315873185743</v>
       </c>
       <c r="H22" t="n">
-        <v>33.15649288941889</v>
+        <v>28.80511003167388</v>
       </c>
       <c r="I22" t="n">
-        <v>51.15839913708144</v>
+        <v>45.72008147883104</v>
       </c>
       <c r="J22" t="n">
-        <v>89.28682285203985</v>
+        <v>27.63784267273386</v>
       </c>
       <c r="K22" t="n">
-        <v>59.01193910793572</v>
+        <v>33.23787470059677</v>
       </c>
       <c r="L22" t="n">
-        <v>61.78082018050633</v>
+        <v>31.66255458934729</v>
       </c>
       <c r="M22" t="n">
-        <v>91.92787408050782</v>
+        <v>31.3277793261307</v>
       </c>
       <c r="N22" t="n">
-        <v>92.37777274015731</v>
+        <v>27.5700228014827</v>
       </c>
       <c r="O22" t="n">
-        <v>68.66544274083138</v>
+        <v>69.34822942203419</v>
       </c>
       <c r="P22" t="n">
-        <v>77.81708873804756</v>
+        <v>66.25689356045767</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.1212205668142</v>
+        <v>63.32508633161396</v>
       </c>
       <c r="R22" t="n">
-        <v>78.79350731360817</v>
+        <v>77.27088207490961</v>
       </c>
       <c r="S22" t="n">
-        <v>60.66166289297028</v>
+        <v>66.80800309815332</v>
       </c>
       <c r="T22" t="n">
-        <v>57.86245943154997</v>
+        <v>65.54122089973801</v>
       </c>
       <c r="U22" t="n">
-        <v>63.14842954668574</v>
+        <v>69.91716699723159</v>
       </c>
       <c r="V22" t="n">
-        <v>69.18757998790976</v>
+        <v>64.06918288259621</v>
       </c>
       <c r="W22" t="n">
-        <v>64.08227350719697</v>
+        <v>64.35731655090383</v>
       </c>
       <c r="X22" t="n">
-        <v>68.37609365393145</v>
+        <v>70.93023631748768</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.34541461437783</v>
+        <v>67.77717594316485</v>
       </c>
       <c r="Z22" t="n">
-        <v>66.47572781776805</v>
+        <v>65.08377001237153</v>
       </c>
       <c r="AA22" t="n">
-        <v>66.97806587104814</v>
+        <v>62.222934979111</v>
       </c>
       <c r="AB22" t="n">
-        <v>70.86427846127224</v>
+        <v>61.94221456749574</v>
       </c>
       <c r="AC22" t="n">
-        <v>72.63111856730025</v>
+        <v>62.43951581133866</v>
       </c>
       <c r="AD22" t="n">
-        <v>83.6677877469405</v>
+        <v>66.00425038088599</v>
       </c>
       <c r="AE22" t="n">
-        <v>74.43166771032186</v>
+        <v>61.40707745766207</v>
       </c>
       <c r="AF22" t="n">
-        <v>70.91998264878234</v>
+        <v>66.52134014099552</v>
       </c>
       <c r="AG22" t="n">
-        <v>68.70545800746402</v>
+        <v>65.39299072986793</v>
       </c>
       <c r="AH22" t="n">
-        <v>61.22564522983525</v>
+        <v>68.47148172719821</v>
       </c>
       <c r="AI22" t="n">
-        <v>59.26625753411382</v>
+        <v>68.32689964594482</v>
       </c>
       <c r="AJ22" t="n">
-        <v>54.49640144369908</v>
+        <v>67.18332827756323</v>
       </c>
       <c r="AK22" t="n">
-        <v>40.87543887966429</v>
+        <v>62.64010252194229</v>
       </c>
       <c r="AL22" t="n">
-        <v>39.45260903713632</v>
+        <v>60.18067243885963</v>
       </c>
       <c r="AM22" t="n">
-        <v>32.60510770420083</v>
+        <v>17.6779659573265</v>
       </c>
       <c r="AN22" t="n">
-        <v>23.4245485007739</v>
+        <v>16.6355625005445</v>
       </c>
       <c r="AO22" t="n">
-        <v>22.07077422146277</v>
+        <v>19.67067090232727</v>
       </c>
       <c r="AP22" t="n">
-        <v>18.13628951005615</v>
+        <v>15.43669920687969</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17.58596586185201</v>
+        <v>16.23408466671244</v>
       </c>
       <c r="AR22" t="n">
-        <v>16.71615966842784</v>
+        <v>17.04849958213608</v>
       </c>
       <c r="AS22" t="n">
-        <v>14.96205080992316</v>
+        <v>18.7134579679757</v>
       </c>
       <c r="AT22" t="n">
-        <v>14.67347961245603</v>
+        <v>15.95371720980423</v>
       </c>
       <c r="AU22" t="n">
-        <v>13.31580890301699</v>
+        <v>17.58933375047857</v>
       </c>
       <c r="AV22" t="n">
-        <v>11.6388196776154</v>
+        <v>18.03049953950841</v>
       </c>
       <c r="AW22" t="n">
-        <v>12.47814175351029</v>
+        <v>18.94445669743341</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.48107788977228</v>
+        <v>18.19274005421234</v>
       </c>
     </row>
     <row r="23">
@@ -3789,148 +3789,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>10.47534802324693</v>
+        <v>22.64658930340056</v>
       </c>
       <c r="D23" t="n">
-        <v>10.66598169230211</v>
+        <v>24.05672743200574</v>
       </c>
       <c r="E23" t="n">
-        <v>9.619970060588358</v>
+        <v>31.18485427614891</v>
       </c>
       <c r="F23" t="n">
-        <v>10.53355092811341</v>
+        <v>32.43307294723171</v>
       </c>
       <c r="G23" t="n">
-        <v>11.42087737818145</v>
+        <v>27.27891226494875</v>
       </c>
       <c r="H23" t="n">
-        <v>33.21785095532147</v>
+        <v>24.44567354426858</v>
       </c>
       <c r="I23" t="n">
-        <v>37.54812623647225</v>
+        <v>20.4538093323771</v>
       </c>
       <c r="J23" t="n">
-        <v>46.18238493898197</v>
+        <v>21.20812259938129</v>
       </c>
       <c r="K23" t="n">
-        <v>48.12476577861963</v>
+        <v>20.91810530025411</v>
       </c>
       <c r="L23" t="n">
-        <v>52.40949748138726</v>
+        <v>24.44802147870437</v>
       </c>
       <c r="M23" t="n">
-        <v>56.54734824236985</v>
+        <v>29.32424826875078</v>
       </c>
       <c r="N23" t="n">
-        <v>70.29568516447475</v>
+        <v>27.81610442249821</v>
       </c>
       <c r="O23" t="n">
-        <v>55.19046792951085</v>
+        <v>45.03473880256936</v>
       </c>
       <c r="P23" t="n">
-        <v>61.60551164417402</v>
+        <v>55.06848160364058</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.31299972723731</v>
+        <v>55.92050931096083</v>
       </c>
       <c r="R23" t="n">
-        <v>61.59200433552935</v>
+        <v>55.37692474718977</v>
       </c>
       <c r="S23" t="n">
-        <v>64.87873160300745</v>
+        <v>47.29114240055549</v>
       </c>
       <c r="T23" t="n">
-        <v>56.70814726188325</v>
+        <v>53.71153124102243</v>
       </c>
       <c r="U23" t="n">
-        <v>54.99828790516984</v>
+        <v>54.19185011410072</v>
       </c>
       <c r="V23" t="n">
-        <v>57.26622808266738</v>
+        <v>57.75831907554676</v>
       </c>
       <c r="W23" t="n">
-        <v>44.1723854136455</v>
+        <v>52.6288751082558</v>
       </c>
       <c r="X23" t="n">
-        <v>51.18402392616358</v>
+        <v>60.25782652014653</v>
       </c>
       <c r="Y23" t="n">
-        <v>44.15419266684407</v>
+        <v>49.05506884992226</v>
       </c>
       <c r="Z23" t="n">
-        <v>46.95304194829217</v>
+        <v>60.66348169041644</v>
       </c>
       <c r="AA23" t="n">
-        <v>42.67663146666433</v>
+        <v>35.60242267741571</v>
       </c>
       <c r="AB23" t="n">
-        <v>39.60175567297301</v>
+        <v>32.99172548048679</v>
       </c>
       <c r="AC23" t="n">
-        <v>40.6491387381212</v>
+        <v>39.32757619104347</v>
       </c>
       <c r="AD23" t="n">
-        <v>43.0450849737546</v>
+        <v>34.90590400248725</v>
       </c>
       <c r="AE23" t="n">
-        <v>39.99485116900217</v>
+        <v>34.23946830699304</v>
       </c>
       <c r="AF23" t="n">
-        <v>34.78314367575656</v>
+        <v>36.86257178146107</v>
       </c>
       <c r="AG23" t="n">
-        <v>29.69577822198184</v>
+        <v>43.51093430284275</v>
       </c>
       <c r="AH23" t="n">
-        <v>36.21844029634767</v>
+        <v>37.37554280428756</v>
       </c>
       <c r="AI23" t="n">
-        <v>35.47287794135947</v>
+        <v>31.10006722446081</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28.45787558488847</v>
+        <v>39.61332248331815</v>
       </c>
       <c r="AK23" t="n">
-        <v>24.93564632213783</v>
+        <v>34.11522771691332</v>
       </c>
       <c r="AL23" t="n">
-        <v>28.59900638282593</v>
+        <v>34.54338624972269</v>
       </c>
       <c r="AM23" t="n">
-        <v>23.35151358597302</v>
+        <v>21.64128983337705</v>
       </c>
       <c r="AN23" t="n">
-        <v>24.22381750261717</v>
+        <v>20.5194579318177</v>
       </c>
       <c r="AO23" t="n">
-        <v>24.97349367966126</v>
+        <v>23.72550838984474</v>
       </c>
       <c r="AP23" t="n">
-        <v>25.06912772400668</v>
+        <v>21.86458982763328</v>
       </c>
       <c r="AQ23" t="n">
-        <v>24.08819307070271</v>
+        <v>21.92090984603418</v>
       </c>
       <c r="AR23" t="n">
-        <v>23.92027339106362</v>
+        <v>23.48195439434223</v>
       </c>
       <c r="AS23" t="n">
-        <v>23.70061973817674</v>
+        <v>23.73827251789557</v>
       </c>
       <c r="AT23" t="n">
-        <v>21.57919408404048</v>
+        <v>23.90453722574179</v>
       </c>
       <c r="AU23" t="n">
-        <v>23.75026599453214</v>
+        <v>24.09218768585274</v>
       </c>
       <c r="AV23" t="n">
-        <v>24.65722514581693</v>
+        <v>24.14921872790046</v>
       </c>
       <c r="AW23" t="n">
-        <v>22.24926193809654</v>
+        <v>22.3072161679879</v>
       </c>
       <c r="AX23" t="n">
-        <v>22.07539054178823</v>
+        <v>27.07906426563018</v>
       </c>
     </row>
     <row r="24">
@@ -3941,148 +3941,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>1.934825419809368</v>
+        <v>12.80175156315637</v>
       </c>
       <c r="D24" t="n">
-        <v>2.721143601242153</v>
+        <v>10.53474773275381</v>
       </c>
       <c r="E24" t="n">
-        <v>3.332157515264137</v>
+        <v>10.96970076046244</v>
       </c>
       <c r="F24" t="n">
-        <v>3.402752027108537</v>
+        <v>13.53550051800766</v>
       </c>
       <c r="G24" t="n">
-        <v>4.157864177126371</v>
+        <v>12.12052135761811</v>
       </c>
       <c r="H24" t="n">
-        <v>12.0552703425234</v>
+        <v>9.002371251922909</v>
       </c>
       <c r="I24" t="n">
-        <v>17.77083737455147</v>
+        <v>10.83754516426343</v>
       </c>
       <c r="J24" t="n">
-        <v>26.03579065582229</v>
+        <v>8.278253557682424</v>
       </c>
       <c r="K24" t="n">
-        <v>25.46172942744425</v>
+        <v>14.2219288109671</v>
       </c>
       <c r="L24" t="n">
-        <v>22.9524071404908</v>
+        <v>16.20710345531939</v>
       </c>
       <c r="M24" t="n">
-        <v>30.61795305125527</v>
+        <v>11.6828541472541</v>
       </c>
       <c r="N24" t="n">
-        <v>31.49305301636855</v>
+        <v>17.25068301678742</v>
       </c>
       <c r="O24" t="n">
-        <v>27.3884280062605</v>
+        <v>24.50582618242434</v>
       </c>
       <c r="P24" t="n">
-        <v>29.01533947728326</v>
+        <v>22.04720475353015</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.74413435478387</v>
+        <v>27.85247903886779</v>
       </c>
       <c r="R24" t="n">
-        <v>28.39320540158253</v>
+        <v>24.40961735487156</v>
       </c>
       <c r="S24" t="n">
-        <v>28.22315847173475</v>
+        <v>26.01294343305733</v>
       </c>
       <c r="T24" t="n">
-        <v>27.46482170877493</v>
+        <v>25.67623697837874</v>
       </c>
       <c r="U24" t="n">
-        <v>21.95911065654114</v>
+        <v>28.14572766118926</v>
       </c>
       <c r="V24" t="n">
-        <v>25.59323763409971</v>
+        <v>26.23966125276344</v>
       </c>
       <c r="W24" t="n">
-        <v>20.89647505236571</v>
+        <v>25.01985129787665</v>
       </c>
       <c r="X24" t="n">
-        <v>21.87083865852455</v>
+        <v>26.41265810773114</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.41147706227068</v>
+        <v>24.72566593275084</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.98498525423531</v>
+        <v>26.04539100892827</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.3521288935303</v>
+        <v>12.81089145396231</v>
       </c>
       <c r="AB24" t="n">
-        <v>19.61049390707298</v>
+        <v>14.37909212458564</v>
       </c>
       <c r="AC24" t="n">
-        <v>16.87679244796662</v>
+        <v>14.02901647812285</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.04812149561251</v>
+        <v>13.5328417990672</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.68404558050448</v>
+        <v>13.38400630063487</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.39839040153102</v>
+        <v>13.76426147097942</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.64283829662081</v>
+        <v>14.72247263372311</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.45106582310293</v>
+        <v>14.62484218691058</v>
       </c>
       <c r="AI24" t="n">
-        <v>10.85390889991505</v>
+        <v>14.80916020928335</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.177160410832448</v>
+        <v>12.96464685763853</v>
       </c>
       <c r="AK24" t="n">
-        <v>7.895179396913986</v>
+        <v>14.40189283552582</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.23309706800165</v>
+        <v>14.69833891432883</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.757873991925575</v>
+        <v>3.375830130419309</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.548839190584141</v>
+        <v>3.372733775269929</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.677221126604632</v>
+        <v>3.453899683984535</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.360280690501211</v>
+        <v>3.391786377553447</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.559564967684047</v>
+        <v>3.762866862326115</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.090935591042543</v>
+        <v>3.439528554311656</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.036999343962357</v>
+        <v>3.387518506307779</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.044062636692904</v>
+        <v>3.620450360714429</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.651683610407483</v>
+        <v>3.284580783441479</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.6190498805365</v>
+        <v>4.161084297846336</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.049996652959515</v>
+        <v>3.563126733078684</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.039353880604379</v>
+        <v>4.083735649307972</v>
       </c>
     </row>
     <row r="25">
@@ -4093,148 +4093,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.562346915635576</v>
+        <v>21.80289270717586</v>
       </c>
       <c r="D25" t="n">
-        <v>5.688260618348222</v>
+        <v>15.19772008379785</v>
       </c>
       <c r="E25" t="n">
-        <v>6.706870584872811</v>
+        <v>16.00118287736015</v>
       </c>
       <c r="F25" t="n">
-        <v>5.994818218688247</v>
+        <v>14.85237338778692</v>
       </c>
       <c r="G25" t="n">
-        <v>8.488165037942458</v>
+        <v>19.87110816223176</v>
       </c>
       <c r="H25" t="n">
-        <v>28.04202627730448</v>
+        <v>19.26686803029618</v>
       </c>
       <c r="I25" t="n">
-        <v>28.23876419288912</v>
+        <v>16.98351021314937</v>
       </c>
       <c r="J25" t="n">
-        <v>22.23362086584308</v>
+        <v>22.36005685235742</v>
       </c>
       <c r="K25" t="n">
-        <v>38.19872354959496</v>
+        <v>25.60430134325473</v>
       </c>
       <c r="L25" t="n">
-        <v>38.34299039428992</v>
+        <v>22.16584890423289</v>
       </c>
       <c r="M25" t="n">
-        <v>44.28513707274293</v>
+        <v>21.87619785116505</v>
       </c>
       <c r="N25" t="n">
-        <v>35.15219228009113</v>
+        <v>20.57049012809572</v>
       </c>
       <c r="O25" t="n">
-        <v>43.93650481460563</v>
+        <v>35.47763086534406</v>
       </c>
       <c r="P25" t="n">
-        <v>47.9515610167305</v>
+        <v>34.21629615733803</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.99983880425376</v>
+        <v>32.88780370997859</v>
       </c>
       <c r="R25" t="n">
-        <v>43.45891564549099</v>
+        <v>30.74188369051712</v>
       </c>
       <c r="S25" t="n">
-        <v>29.5130808614561</v>
+        <v>25.34863205967725</v>
       </c>
       <c r="T25" t="n">
-        <v>29.761389176923</v>
+        <v>34.78783290714907</v>
       </c>
       <c r="U25" t="n">
-        <v>31.46895723806405</v>
+        <v>33.76751055503351</v>
       </c>
       <c r="V25" t="n">
-        <v>31.50757375113738</v>
+        <v>31.33065910116552</v>
       </c>
       <c r="W25" t="n">
-        <v>23.92168045636284</v>
+        <v>35.88881121584237</v>
       </c>
       <c r="X25" t="n">
-        <v>20.43610048661074</v>
+        <v>40.24313770504735</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.06711836824193</v>
+        <v>32.1777732023444</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.32303588446912</v>
+        <v>30.41052294191695</v>
       </c>
       <c r="AA25" t="n">
-        <v>16.71392063882424</v>
+        <v>11.23797824526278</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.10267001171837</v>
+        <v>12.16729996164358</v>
       </c>
       <c r="AC25" t="n">
-        <v>13.10599889351152</v>
+        <v>10.96173084621237</v>
       </c>
       <c r="AD25" t="n">
-        <v>17.83095920919867</v>
+        <v>13.5550050720009</v>
       </c>
       <c r="AE25" t="n">
-        <v>12.3772348924772</v>
+        <v>10.86299461121645</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.60351482459694</v>
+        <v>11.80209755176136</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.94273143102073</v>
+        <v>10.10287331882242</v>
       </c>
       <c r="AH25" t="n">
-        <v>10.75590323309952</v>
+        <v>13.4700444027078</v>
       </c>
       <c r="AI25" t="n">
-        <v>8.795416792906462</v>
+        <v>12.40259409089178</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.7847458797976</v>
+        <v>12.00861878335514</v>
       </c>
       <c r="AK25" t="n">
-        <v>7.749454975552722</v>
+        <v>12.04452309150983</v>
       </c>
       <c r="AL25" t="n">
-        <v>11.41436034762327</v>
+        <v>10.33565085974458</v>
       </c>
       <c r="AM25" t="n">
-        <v>10.5714449466469</v>
+        <v>8.480812290675594</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.987058560970263</v>
+        <v>6.968879029655117</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.687177577099343</v>
+        <v>7.155604183115272</v>
       </c>
       <c r="AP25" t="n">
-        <v>8.792714021965466</v>
+        <v>8.658195849021851</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.191234720602985</v>
+        <v>7.906666276198974</v>
       </c>
       <c r="AR25" t="n">
-        <v>10.60519461827499</v>
+        <v>7.956137850834816</v>
       </c>
       <c r="AS25" t="n">
-        <v>9.337111490743347</v>
+        <v>8.080469299764943</v>
       </c>
       <c r="AT25" t="n">
-        <v>8.064981320352516</v>
+        <v>7.87431545986006</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.163800211117373</v>
+        <v>8.576942022376032</v>
       </c>
       <c r="AV25" t="n">
-        <v>9.04251323809023</v>
+        <v>8.699677172461259</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.7440023096211</v>
+        <v>8.475105373465528</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.171296300186533</v>
+        <v>8.003800680146492</v>
       </c>
     </row>
     <row r="26">
@@ -4245,148 +4245,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.34127542536506</v>
+        <v>33.33143103178507</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4470664067482</v>
+        <v>32.48338322063449</v>
       </c>
       <c r="E26" t="n">
-        <v>15.20506500570892</v>
+        <v>36.84478502015679</v>
       </c>
       <c r="F26" t="n">
-        <v>16.71212599661859</v>
+        <v>41.35771193102251</v>
       </c>
       <c r="G26" t="n">
-        <v>20.50438113010859</v>
+        <v>52.08380711936901</v>
       </c>
       <c r="H26" t="n">
-        <v>41.35602990773046</v>
+        <v>37.69470477342811</v>
       </c>
       <c r="I26" t="n">
-        <v>69.65119520708943</v>
+        <v>29.93965660752935</v>
       </c>
       <c r="J26" t="n">
-        <v>91.51874722536826</v>
+        <v>37.27190426209931</v>
       </c>
       <c r="K26" t="n">
-        <v>73.42208422592243</v>
+        <v>34.91155656763689</v>
       </c>
       <c r="L26" t="n">
-        <v>79.8907206748723</v>
+        <v>37.41025276976862</v>
       </c>
       <c r="M26" t="n">
-        <v>87.38533765899484</v>
+        <v>30.50665131964315</v>
       </c>
       <c r="N26" t="n">
-        <v>97.46021602933141</v>
+        <v>36.47293106410498</v>
       </c>
       <c r="O26" t="n">
-        <v>68.8216680323373</v>
+        <v>60.49788604361164</v>
       </c>
       <c r="P26" t="n">
-        <v>72.27064875665673</v>
+        <v>77.50184709845006</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.06738182006472</v>
+        <v>78.48553691493731</v>
       </c>
       <c r="R26" t="n">
-        <v>63.67322595480398</v>
+        <v>73.16437038418783</v>
       </c>
       <c r="S26" t="n">
-        <v>65.43157218914888</v>
+        <v>69.92867101054904</v>
       </c>
       <c r="T26" t="n">
-        <v>62.46349416394516</v>
+        <v>70.89136084516491</v>
       </c>
       <c r="U26" t="n">
-        <v>64.07385321405904</v>
+        <v>76.69519796896591</v>
       </c>
       <c r="V26" t="n">
-        <v>70.10937079251714</v>
+        <v>67.15233566096032</v>
       </c>
       <c r="W26" t="n">
-        <v>59.53192778838413</v>
+        <v>66.19675238474608</v>
       </c>
       <c r="X26" t="n">
-        <v>79.57993963356419</v>
+        <v>69.46851576844979</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.58008929876937</v>
+        <v>62.85703303537759</v>
       </c>
       <c r="Z26" t="n">
-        <v>75.03434129944986</v>
+        <v>65.70586574150218</v>
       </c>
       <c r="AA26" t="n">
-        <v>82.05006193577783</v>
+        <v>99.16839163474614</v>
       </c>
       <c r="AB26" t="n">
-        <v>94.8528879735123</v>
+        <v>88.91355122752958</v>
       </c>
       <c r="AC26" t="n">
-        <v>104.9463928731201</v>
+        <v>86.89114545303359</v>
       </c>
       <c r="AD26" t="n">
-        <v>118.6585524658219</v>
+        <v>102.1010905508902</v>
       </c>
       <c r="AE26" t="n">
-        <v>116.4864497340417</v>
+        <v>90.57298082526272</v>
       </c>
       <c r="AF26" t="n">
-        <v>110.6152617036129</v>
+        <v>95.39852724750149</v>
       </c>
       <c r="AG26" t="n">
-        <v>110.315806983361</v>
+        <v>88.99137823069961</v>
       </c>
       <c r="AH26" t="n">
-        <v>104.2221097245375</v>
+        <v>99.46447033587447</v>
       </c>
       <c r="AI26" t="n">
-        <v>89.71804503391921</v>
+        <v>89.78428065193643</v>
       </c>
       <c r="AJ26" t="n">
-        <v>79.53511725806719</v>
+        <v>92.85423402237225</v>
       </c>
       <c r="AK26" t="n">
-        <v>65.78910276775551</v>
+        <v>84.80421649119273</v>
       </c>
       <c r="AL26" t="n">
-        <v>53.64860752258134</v>
+        <v>90.59861422519549</v>
       </c>
       <c r="AM26" t="n">
-        <v>44.35998709784427</v>
+        <v>26.62486519228396</v>
       </c>
       <c r="AN26" t="n">
-        <v>40.70034794449319</v>
+        <v>27.13874097913528</v>
       </c>
       <c r="AO26" t="n">
-        <v>32.77915609051313</v>
+        <v>27.67719868637406</v>
       </c>
       <c r="AP26" t="n">
-        <v>30.45063390834634</v>
+        <v>28.74261279150505</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26.44196757589892</v>
+        <v>26.23137065521627</v>
       </c>
       <c r="AR26" t="n">
-        <v>26.47380559862587</v>
+        <v>27.32425335906459</v>
       </c>
       <c r="AS26" t="n">
-        <v>22.80350601849201</v>
+        <v>27.45857532537895</v>
       </c>
       <c r="AT26" t="n">
-        <v>24.09543533812152</v>
+        <v>26.35099550874343</v>
       </c>
       <c r="AU26" t="n">
-        <v>21.45784872397986</v>
+        <v>26.8284116117048</v>
       </c>
       <c r="AV26" t="n">
-        <v>22.10316832395484</v>
+        <v>26.16781513312229</v>
       </c>
       <c r="AW26" t="n">
-        <v>21.03711521786697</v>
+        <v>25.01653323408465</v>
       </c>
       <c r="AX26" t="n">
-        <v>20.71550880113745</v>
+        <v>28.45142979439194</v>
       </c>
     </row>
     <row r="27">
@@ -4397,148 +4397,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.352336843435972</v>
+        <v>2.941680603677991</v>
       </c>
       <c r="D27" t="n">
-        <v>1.215057560133559</v>
+        <v>3.122203711083817</v>
       </c>
       <c r="E27" t="n">
-        <v>1.768483924499873</v>
+        <v>2.69755034553597</v>
       </c>
       <c r="F27" t="n">
-        <v>1.64227641807956</v>
+        <v>2.357532620041784</v>
       </c>
       <c r="G27" t="n">
-        <v>1.401470997844675</v>
+        <v>1.963346410417429</v>
       </c>
       <c r="H27" t="n">
-        <v>3.32406675078922</v>
+        <v>2.611596752615456</v>
       </c>
       <c r="I27" t="n">
-        <v>3.664940771375592</v>
+        <v>3.012757603304073</v>
       </c>
       <c r="J27" t="n">
-        <v>4.783837163062358</v>
+        <v>2.317997721406462</v>
       </c>
       <c r="K27" t="n">
-        <v>4.207810312500913</v>
+        <v>2.626879670555779</v>
       </c>
       <c r="L27" t="n">
-        <v>4.541173722998378</v>
+        <v>2.7316002946994</v>
       </c>
       <c r="M27" t="n">
-        <v>4.465317195467418</v>
+        <v>2.465667713056939</v>
       </c>
       <c r="N27" t="n">
-        <v>5.238783821752841</v>
+        <v>2.718671260075591</v>
       </c>
       <c r="O27" t="n">
-        <v>5.379590491037736</v>
+        <v>4.182459297143338</v>
       </c>
       <c r="P27" t="n">
-        <v>4.921110594415811</v>
+        <v>4.256370310584507</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.881950015189595</v>
+        <v>3.989595826786936</v>
       </c>
       <c r="R27" t="n">
-        <v>4.271006380009428</v>
+        <v>4.727948077286295</v>
       </c>
       <c r="S27" t="n">
-        <v>5.037842399614602</v>
+        <v>4.412010242367413</v>
       </c>
       <c r="T27" t="n">
-        <v>4.298833468295404</v>
+        <v>4.063747832364223</v>
       </c>
       <c r="U27" t="n">
-        <v>4.499127029934502</v>
+        <v>4.851123186011946</v>
       </c>
       <c r="V27" t="n">
-        <v>4.81914195474739</v>
+        <v>4.492459698901175</v>
       </c>
       <c r="W27" t="n">
-        <v>4.041691577581066</v>
+        <v>5.163907391166783</v>
       </c>
       <c r="X27" t="n">
-        <v>4.315091853166284</v>
+        <v>4.238006820860214</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.506076544730785</v>
+        <v>4.696707331928072</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.475993554450809</v>
+        <v>4.403034160042322</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.720968686385025</v>
+        <v>5.237685802755758</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.733857562177405</v>
+        <v>5.611732153225456</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.254542036382345</v>
+        <v>5.204021919293265</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.606191242091278</v>
+        <v>5.165482253410971</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.266922922016415</v>
+        <v>5.543231970074048</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.389300254323535</v>
+        <v>5.177375539203815</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.459124375699065</v>
+        <v>5.050028564477079</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.559253168768293</v>
+        <v>5.353873329192806</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.599294418651327</v>
+        <v>5.269111568542908</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5.083308845759813</v>
+        <v>4.75615022472642</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.758828180795451</v>
+        <v>5.569263654136674</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.883012058237261</v>
+        <v>5.038327902053021</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.909802720494967</v>
+        <v>3.808629626400677</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.644484716700093</v>
+        <v>3.364435079297465</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.193946559059935</v>
+        <v>3.950873920110478</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.867310241920713</v>
+        <v>4.061895953028563</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.129957129091171</v>
+        <v>3.861710146802878</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.815786986232619</v>
+        <v>3.457737620212691</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.4684836116889</v>
+        <v>3.862493688861081</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.782808746914645</v>
+        <v>4.251496875799933</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.17750802472477</v>
+        <v>3.893247900598563</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.009137581685708</v>
+        <v>3.533105624128117</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.250685942042145</v>
+        <v>4.251537321563199</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.903586689967978</v>
+        <v>3.837532890968025</v>
       </c>
     </row>
     <row r="28">
@@ -4549,148 +4549,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>6.615958633937882</v>
+        <v>41.45800750490015</v>
       </c>
       <c r="D28" t="n">
-        <v>6.814547993435504</v>
+        <v>30.9158351082625</v>
       </c>
       <c r="E28" t="n">
-        <v>9.717612902825103</v>
+        <v>26.52881429268473</v>
       </c>
       <c r="F28" t="n">
-        <v>8.176906779237646</v>
+        <v>27.14016465730813</v>
       </c>
       <c r="G28" t="n">
-        <v>14.02027390170973</v>
+        <v>34.15441636932874</v>
       </c>
       <c r="H28" t="n">
-        <v>28.60007019347227</v>
+        <v>40.94088696569398</v>
       </c>
       <c r="I28" t="n">
-        <v>48.13651097520322</v>
+        <v>38.9963922120539</v>
       </c>
       <c r="J28" t="n">
-        <v>91.36509352863601</v>
+        <v>22.99777988798347</v>
       </c>
       <c r="K28" t="n">
-        <v>67.2342001976811</v>
+        <v>30.76239403580231</v>
       </c>
       <c r="L28" t="n">
-        <v>68.413012942826</v>
+        <v>25.94538835042431</v>
       </c>
       <c r="M28" t="n">
-        <v>73.86186467385838</v>
+        <v>32.60737060493945</v>
       </c>
       <c r="N28" t="n">
-        <v>79.28913040136911</v>
+        <v>27.75036482964338</v>
       </c>
       <c r="O28" t="n">
-        <v>74.59045695430481</v>
+        <v>69.23978440628038</v>
       </c>
       <c r="P28" t="n">
-        <v>68.37925383928614</v>
+        <v>68.33346700611096</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.11023623240591</v>
+        <v>59.55068447398175</v>
       </c>
       <c r="R28" t="n">
-        <v>71.43109591164195</v>
+        <v>67.66412647936552</v>
       </c>
       <c r="S28" t="n">
-        <v>63.26304532094859</v>
+        <v>70.32931893406457</v>
       </c>
       <c r="T28" t="n">
-        <v>58.499945315704</v>
+        <v>74.27884459622489</v>
       </c>
       <c r="U28" t="n">
-        <v>68.86726622252888</v>
+        <v>72.14269046819133</v>
       </c>
       <c r="V28" t="n">
-        <v>76.32441189669089</v>
+        <v>72.98023365567855</v>
       </c>
       <c r="W28" t="n">
-        <v>65.31430160384957</v>
+        <v>72.14875010689597</v>
       </c>
       <c r="X28" t="n">
-        <v>65.78846167984899</v>
+        <v>65.72553955246613</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.7081562186259</v>
+        <v>74.53246577738445</v>
       </c>
       <c r="Z28" t="n">
-        <v>73.66363381672996</v>
+        <v>71.19594176071692</v>
       </c>
       <c r="AA28" t="n">
-        <v>62.88813043169637</v>
+        <v>59.83807111690047</v>
       </c>
       <c r="AB28" t="n">
-        <v>69.75934399837497</v>
+        <v>63.10967753895258</v>
       </c>
       <c r="AC28" t="n">
-        <v>75.64620993027428</v>
+        <v>61.88912738041517</v>
       </c>
       <c r="AD28" t="n">
-        <v>75.90562746031134</v>
+        <v>58.78033593884629</v>
       </c>
       <c r="AE28" t="n">
-        <v>73.7703718551745</v>
+        <v>62.85269813029149</v>
       </c>
       <c r="AF28" t="n">
-        <v>69.32034127514302</v>
+        <v>56.92499463383061</v>
       </c>
       <c r="AG28" t="n">
-        <v>66.76066676887822</v>
+        <v>61.44938398298477</v>
       </c>
       <c r="AH28" t="n">
-        <v>67.03122808938946</v>
+        <v>63.04935467735537</v>
       </c>
       <c r="AI28" t="n">
-        <v>53.81715648566906</v>
+        <v>62.66309869078427</v>
       </c>
       <c r="AJ28" t="n">
-        <v>52.27711372604748</v>
+        <v>64.63868755859583</v>
       </c>
       <c r="AK28" t="n">
-        <v>39.76947389352929</v>
+        <v>58.89704412705105</v>
       </c>
       <c r="AL28" t="n">
-        <v>35.59017721139782</v>
+        <v>65.30443896002532</v>
       </c>
       <c r="AM28" t="n">
-        <v>30.27521048888696</v>
+        <v>17.48561555801345</v>
       </c>
       <c r="AN28" t="n">
-        <v>25.84162513654732</v>
+        <v>18.42606689247932</v>
       </c>
       <c r="AO28" t="n">
-        <v>21.31968138594591</v>
+        <v>17.08435924575651</v>
       </c>
       <c r="AP28" t="n">
-        <v>17.85208832267561</v>
+        <v>16.82483007203022</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18.39351122339729</v>
+        <v>17.41075184548922</v>
       </c>
       <c r="AR28" t="n">
-        <v>15.99941888026872</v>
+        <v>18.12718417589064</v>
       </c>
       <c r="AS28" t="n">
-        <v>15.90895648127525</v>
+        <v>20.94641546032668</v>
       </c>
       <c r="AT28" t="n">
-        <v>14.47012076190968</v>
+        <v>18.74918902453673</v>
       </c>
       <c r="AU28" t="n">
-        <v>13.74804298481194</v>
+        <v>18.06184213950025</v>
       </c>
       <c r="AV28" t="n">
-        <v>11.78020921076287</v>
+        <v>18.16116189180564</v>
       </c>
       <c r="AW28" t="n">
-        <v>11.15321141798088</v>
+        <v>14.77704889175907</v>
       </c>
       <c r="AX28" t="n">
-        <v>11.64665810063443</v>
+        <v>18.51158958929334</v>
       </c>
     </row>
     <row r="29">
@@ -4701,148 +4701,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>7.524452874294041</v>
+        <v>30.51019417419302</v>
       </c>
       <c r="D29" t="n">
-        <v>10.97990466567975</v>
+        <v>24.09083230192813</v>
       </c>
       <c r="E29" t="n">
-        <v>10.30402274919396</v>
+        <v>21.43609632700641</v>
       </c>
       <c r="F29" t="n">
-        <v>11.48435051818223</v>
+        <v>28.05504572449562</v>
       </c>
       <c r="G29" t="n">
-        <v>10.5926525752067</v>
+        <v>25.92273374380019</v>
       </c>
       <c r="H29" t="n">
-        <v>22.12293322970729</v>
+        <v>33.08753922922677</v>
       </c>
       <c r="I29" t="n">
-        <v>32.31802929684202</v>
+        <v>28.66188498878101</v>
       </c>
       <c r="J29" t="n">
-        <v>41.93088472363515</v>
+        <v>26.94384637547667</v>
       </c>
       <c r="K29" t="n">
-        <v>49.97365762130523</v>
+        <v>35.10518696030037</v>
       </c>
       <c r="L29" t="n">
-        <v>54.96092102756715</v>
+        <v>23.25701753222911</v>
       </c>
       <c r="M29" t="n">
-        <v>46.27976965299936</v>
+        <v>34.05550949224083</v>
       </c>
       <c r="N29" t="n">
-        <v>56.19720973090156</v>
+        <v>36.24211275375039</v>
       </c>
       <c r="O29" t="n">
-        <v>61.28031726374944</v>
+        <v>68.64638788168257</v>
       </c>
       <c r="P29" t="n">
-        <v>63.65881195769748</v>
+        <v>48.07352448566257</v>
       </c>
       <c r="Q29" t="n">
-        <v>74.63509299248243</v>
+        <v>49.44666862840501</v>
       </c>
       <c r="R29" t="n">
-        <v>73.30595151123788</v>
+        <v>53.26811989102117</v>
       </c>
       <c r="S29" t="n">
-        <v>52.5142510789099</v>
+        <v>49.75523359386696</v>
       </c>
       <c r="T29" t="n">
-        <v>49.88979455750358</v>
+        <v>55.49797935443949</v>
       </c>
       <c r="U29" t="n">
-        <v>60.50768332092234</v>
+        <v>51.40514529799105</v>
       </c>
       <c r="V29" t="n">
-        <v>63.05074785669903</v>
+        <v>53.0384127943214</v>
       </c>
       <c r="W29" t="n">
-        <v>50.99178213055011</v>
+        <v>50.84035924703849</v>
       </c>
       <c r="X29" t="n">
-        <v>52.97550035597237</v>
+        <v>60.11524285466353</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.76517179049723</v>
+        <v>58.49173081876543</v>
       </c>
       <c r="Z29" t="n">
-        <v>44.83424325886576</v>
+        <v>56.15039918627807</v>
       </c>
       <c r="AA29" t="n">
-        <v>36.17414068676614</v>
+        <v>33.19114344872693</v>
       </c>
       <c r="AB29" t="n">
-        <v>37.56708395878729</v>
+        <v>34.63568930910359</v>
       </c>
       <c r="AC29" t="n">
-        <v>37.74229900471347</v>
+        <v>32.04092410836723</v>
       </c>
       <c r="AD29" t="n">
-        <v>40.77531843494269</v>
+        <v>40.24139995941643</v>
       </c>
       <c r="AE29" t="n">
-        <v>46.41927788731739</v>
+        <v>36.26785735489212</v>
       </c>
       <c r="AF29" t="n">
-        <v>33.64007024269304</v>
+        <v>32.98855563117026</v>
       </c>
       <c r="AG29" t="n">
-        <v>28.93642453052653</v>
+        <v>31.90115398695619</v>
       </c>
       <c r="AH29" t="n">
-        <v>31.3236378087113</v>
+        <v>39.30573263519062</v>
       </c>
       <c r="AI29" t="n">
-        <v>32.39501572177983</v>
+        <v>35.69055913883358</v>
       </c>
       <c r="AJ29" t="n">
-        <v>33.11135449025946</v>
+        <v>32.16966752689861</v>
       </c>
       <c r="AK29" t="n">
-        <v>26.16679308703218</v>
+        <v>34.09715068958032</v>
       </c>
       <c r="AL29" t="n">
-        <v>30.8546537788372</v>
+        <v>34.84082723784239</v>
       </c>
       <c r="AM29" t="n">
-        <v>27.26375368177056</v>
+        <v>22.71209232531199</v>
       </c>
       <c r="AN29" t="n">
-        <v>23.62541000775326</v>
+        <v>23.49053477762548</v>
       </c>
       <c r="AO29" t="n">
-        <v>24.06433471043212</v>
+        <v>23.66632699625336</v>
       </c>
       <c r="AP29" t="n">
-        <v>23.25791182995453</v>
+        <v>23.67690573277628</v>
       </c>
       <c r="AQ29" t="n">
-        <v>22.19243876610115</v>
+        <v>20.42675388982671</v>
       </c>
       <c r="AR29" t="n">
-        <v>24.19464614770701</v>
+        <v>22.16941589315893</v>
       </c>
       <c r="AS29" t="n">
-        <v>23.81989041153499</v>
+        <v>23.78269437787332</v>
       </c>
       <c r="AT29" t="n">
-        <v>23.72573793578647</v>
+        <v>22.11945919557198</v>
       </c>
       <c r="AU29" t="n">
-        <v>22.5452481376981</v>
+        <v>24.71869452852222</v>
       </c>
       <c r="AV29" t="n">
-        <v>19.91713534510208</v>
+        <v>23.59351006370526</v>
       </c>
       <c r="AW29" t="n">
-        <v>21.63582244236895</v>
+        <v>23.41110410160073</v>
       </c>
       <c r="AX29" t="n">
-        <v>21.22237811081725</v>
+        <v>23.09709189539256</v>
       </c>
     </row>
     <row r="30">
@@ -4853,148 +4853,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2.020355761926706</v>
+        <v>14.35734364462594</v>
       </c>
       <c r="D30" t="n">
-        <v>2.87247456635576</v>
+        <v>9.385006634670516</v>
       </c>
       <c r="E30" t="n">
-        <v>3.396874036292693</v>
+        <v>14.03138226583007</v>
       </c>
       <c r="F30" t="n">
-        <v>4.902094322498323</v>
+        <v>10.10222178091901</v>
       </c>
       <c r="G30" t="n">
-        <v>4.554102811263417</v>
+        <v>9.71276803902998</v>
       </c>
       <c r="H30" t="n">
-        <v>14.15117735804337</v>
+        <v>15.13499439669023</v>
       </c>
       <c r="I30" t="n">
-        <v>22.54568807445649</v>
+        <v>9.161615483972032</v>
       </c>
       <c r="J30" t="n">
-        <v>26.82801745850891</v>
+        <v>10.80477427089196</v>
       </c>
       <c r="K30" t="n">
-        <v>25.95807856723561</v>
+        <v>11.68196396305667</v>
       </c>
       <c r="L30" t="n">
-        <v>24.6655798366733</v>
+        <v>14.89891471611544</v>
       </c>
       <c r="M30" t="n">
-        <v>31.50845206473858</v>
+        <v>11.31904401883041</v>
       </c>
       <c r="N30" t="n">
-        <v>31.54910288965075</v>
+        <v>10.93523095316012</v>
       </c>
       <c r="O30" t="n">
-        <v>28.89319417623611</v>
+        <v>26.82348752905284</v>
       </c>
       <c r="P30" t="n">
-        <v>29.49961166558836</v>
+        <v>26.89184105987554</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.50372339222008</v>
+        <v>23.61850159421866</v>
       </c>
       <c r="R30" t="n">
-        <v>28.79684738415751</v>
+        <v>24.77279196854566</v>
       </c>
       <c r="S30" t="n">
-        <v>28.08194732154213</v>
+        <v>28.13572007119593</v>
       </c>
       <c r="T30" t="n">
-        <v>25.41710526497973</v>
+        <v>24.7717693432905</v>
       </c>
       <c r="U30" t="n">
-        <v>23.0527400994099</v>
+        <v>22.58375541914478</v>
       </c>
       <c r="V30" t="n">
-        <v>33.02531246948912</v>
+        <v>23.18608230449652</v>
       </c>
       <c r="W30" t="n">
-        <v>21.98676616310086</v>
+        <v>25.29633842252892</v>
       </c>
       <c r="X30" t="n">
-        <v>24.16724795843609</v>
+        <v>24.70425242748259</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.31352893231372</v>
+        <v>27.28393923917289</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.32572576240217</v>
+        <v>23.84747828652899</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3176485992958</v>
+        <v>14.90798784315584</v>
       </c>
       <c r="AB30" t="n">
-        <v>20.26057565332554</v>
+        <v>14.07091876064162</v>
       </c>
       <c r="AC30" t="n">
-        <v>18.98356433139806</v>
+        <v>14.60838327832572</v>
       </c>
       <c r="AD30" t="n">
-        <v>19.11860490193467</v>
+        <v>14.01555020871788</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.41998037497277</v>
+        <v>14.49896135481143</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.05605298458837</v>
+        <v>14.47341540675565</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.69615790488738</v>
+        <v>14.92723728942729</v>
       </c>
       <c r="AH30" t="n">
-        <v>13.78501872757555</v>
+        <v>14.23517701116697</v>
       </c>
       <c r="AI30" t="n">
-        <v>10.90616448610194</v>
+        <v>15.56238558838211</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.757675627692954</v>
+        <v>14.22476679133643</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.945322716811081</v>
+        <v>13.07573954365167</v>
       </c>
       <c r="AL30" t="n">
-        <v>8.049238120487358</v>
+        <v>15.04274306267953</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.532842794143587</v>
+        <v>3.845442715390742</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.244009692877814</v>
+        <v>3.384509553925448</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.53067300819352</v>
+        <v>3.566575546374931</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.481796818031072</v>
+        <v>3.805330390458693</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.821066193227148</v>
+        <v>3.339755972584775</v>
       </c>
       <c r="AR30" t="n">
-        <v>3.222824431137354</v>
+        <v>3.665823751368862</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.738997417577023</v>
+        <v>4.015384009484085</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.811851069744673</v>
+        <v>3.126179741475536</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.638907129010647</v>
+        <v>3.53666493622481</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.710876115911095</v>
+        <v>3.090327010347597</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.202600877501658</v>
+        <v>3.445484411037321</v>
       </c>
       <c r="AX30" t="n">
-        <v>3.007255508980164</v>
+        <v>3.741824157010184</v>
       </c>
     </row>
     <row r="31">
@@ -5005,148 +5005,1060 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>4.907927992081328</v>
+        <v>20.06298255458758</v>
       </c>
       <c r="D31" t="n">
-        <v>4.475055425336906</v>
+        <v>18.47230930454253</v>
       </c>
       <c r="E31" t="n">
-        <v>5.683539136575417</v>
+        <v>18.39690901050608</v>
       </c>
       <c r="F31" t="n">
-        <v>6.990677843166029</v>
+        <v>14.83608646069647</v>
       </c>
       <c r="G31" t="n">
-        <v>9.102029063924743</v>
+        <v>17.64748600768605</v>
       </c>
       <c r="H31" t="n">
-        <v>24.69175712166571</v>
+        <v>17.45096974571493</v>
       </c>
       <c r="I31" t="n">
-        <v>23.71542630422935</v>
+        <v>14.3908756692869</v>
       </c>
       <c r="J31" t="n">
-        <v>27.51170169001502</v>
+        <v>20.78076900612874</v>
       </c>
       <c r="K31" t="n">
-        <v>37.43617949274508</v>
+        <v>15.59312438708243</v>
       </c>
       <c r="L31" t="n">
-        <v>44.5045633228455</v>
+        <v>14.98616689693921</v>
       </c>
       <c r="M31" t="n">
-        <v>47.34009266712626</v>
+        <v>19.26719934556861</v>
       </c>
       <c r="N31" t="n">
-        <v>45.89650642061027</v>
+        <v>16.58397095512479</v>
       </c>
       <c r="O31" t="n">
-        <v>47.11782256430357</v>
+        <v>36.24804992480443</v>
       </c>
       <c r="P31" t="n">
-        <v>45.59862927986282</v>
+        <v>34.99027430264814</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.5961580297618</v>
+        <v>31.54249985077898</v>
       </c>
       <c r="R31" t="n">
-        <v>45.23843050954156</v>
+        <v>30.61099589502235</v>
       </c>
       <c r="S31" t="n">
-        <v>28.60128353623311</v>
+        <v>31.28686576042828</v>
       </c>
       <c r="T31" t="n">
-        <v>32.43600136024182</v>
+        <v>35.45403362742011</v>
       </c>
       <c r="U31" t="n">
-        <v>33.56470073813902</v>
+        <v>33.00470810891796</v>
       </c>
       <c r="V31" t="n">
-        <v>32.83641243173651</v>
+        <v>36.18073823923959</v>
       </c>
       <c r="W31" t="n">
-        <v>21.82513412136883</v>
+        <v>33.34257324706912</v>
       </c>
       <c r="X31" t="n">
-        <v>25.21584864741353</v>
+        <v>34.64408656563349</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.46719816889512</v>
+        <v>32.71568981587592</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.34781090357886</v>
+        <v>33.89167371596672</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.65491479396631</v>
+        <v>10.94728207417399</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.31132184281875</v>
+        <v>12.49953850165636</v>
       </c>
       <c r="AC31" t="n">
-        <v>13.48677832449768</v>
+        <v>11.58920363870037</v>
       </c>
       <c r="AD31" t="n">
-        <v>17.13792854889842</v>
+        <v>13.83403791290037</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.2368243225497</v>
+        <v>9.10834541933615</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.4553375565878</v>
+        <v>11.51964799792272</v>
       </c>
       <c r="AG31" t="n">
-        <v>11.33819321568212</v>
+        <v>12.06372125174141</v>
       </c>
       <c r="AH31" t="n">
-        <v>11.07373582287247</v>
+        <v>11.71898488819207</v>
       </c>
       <c r="AI31" t="n">
-        <v>9.464747045339884</v>
+        <v>11.19774322802386</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.96419603639804</v>
+        <v>9.275812876335603</v>
       </c>
       <c r="AK31" t="n">
-        <v>11.85066234583433</v>
+        <v>12.55332357034388</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.29374853931089</v>
+        <v>10.67968716203245</v>
       </c>
       <c r="AM31" t="n">
-        <v>8.571882200587401</v>
+        <v>10.17953547244154</v>
       </c>
       <c r="AN31" t="n">
-        <v>11.17068338795488</v>
+        <v>8.189763474896749</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.714007652017779</v>
+        <v>8.475622482543635</v>
       </c>
       <c r="AP31" t="n">
-        <v>9.064030711453768</v>
+        <v>6.961389612373254</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6.913079623052997</v>
+        <v>9.430382282922769</v>
       </c>
       <c r="AR31" t="n">
-        <v>8.790663833335076</v>
+        <v>9.806724846497451</v>
       </c>
       <c r="AS31" t="n">
-        <v>7.779370052456832</v>
+        <v>8.042951107051275</v>
       </c>
       <c r="AT31" t="n">
-        <v>10.63884651298741</v>
+        <v>8.93451541416853</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.330904730859246</v>
+        <v>6.633012535027295</v>
       </c>
       <c r="AV31" t="n">
-        <v>9.370711847903467</v>
+        <v>9.305498370354089</v>
       </c>
       <c r="AW31" t="n">
-        <v>8.987428918507472</v>
+        <v>8.172154928882033</v>
       </c>
       <c r="AX31" t="n">
-        <v>9.645013328968725</v>
+        <v>9.13537354188537</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30.26233658117799</v>
+      </c>
+      <c r="D32" t="n">
+        <v>38.95925658541289</v>
+      </c>
+      <c r="E32" t="n">
+        <v>35.64059978641943</v>
+      </c>
+      <c r="F32" t="n">
+        <v>33.63151047319691</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30.01601201334086</v>
+      </c>
+      <c r="H32" t="n">
+        <v>35.35853948741029</v>
+      </c>
+      <c r="I32" t="n">
+        <v>41.33191611741244</v>
+      </c>
+      <c r="J32" t="n">
+        <v>31.40642212150458</v>
+      </c>
+      <c r="K32" t="n">
+        <v>41.3633653556227</v>
+      </c>
+      <c r="L32" t="n">
+        <v>36.93605233025491</v>
+      </c>
+      <c r="M32" t="n">
+        <v>36.61463362628643</v>
+      </c>
+      <c r="N32" t="n">
+        <v>42.5692657153056</v>
+      </c>
+      <c r="O32" t="n">
+        <v>73.72163918753374</v>
+      </c>
+      <c r="P32" t="n">
+        <v>71.1766032719092</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>71.8611637834674</v>
+      </c>
+      <c r="R32" t="n">
+        <v>64.18419292706606</v>
+      </c>
+      <c r="S32" t="n">
+        <v>65.10183248636902</v>
+      </c>
+      <c r="T32" t="n">
+        <v>73.39998776236919</v>
+      </c>
+      <c r="U32" t="n">
+        <v>66.37281875359889</v>
+      </c>
+      <c r="V32" t="n">
+        <v>72.47748100690262</v>
+      </c>
+      <c r="W32" t="n">
+        <v>68.94141305376465</v>
+      </c>
+      <c r="X32" t="n">
+        <v>72.47943281093842</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>72.78684925018845</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>65.96226919252109</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>101.8585117486032</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>98.14072705075999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>95.89600973593751</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>98.69811130251844</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>99.41754974884307</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>98.27940108886429</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>98.00992626367207</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>100.7733734623081</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>93.6811469432356</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>101.6998826439281</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>93.75280811361708</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>102.9124697610789</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>28.40392213692443</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>27.03147160301778</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>25.81994067697734</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>29.04448930951749</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>28.88768655892029</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>27.98429215258047</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>26.46853673829921</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>27.05887699553209</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>28.27750119895125</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>27.6030128407114</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>26.19475118449967</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>26.16904486192241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.93266959217876</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.509261517522838</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.751781741589126</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.678185052763879</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.507205047473903</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.643589292734162</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.768781257451431</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.650474630823099</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.698889342710929</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.976746775302197</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.484312138455342</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.684831914074879</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.593541356154761</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.955732989829635</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4.262094964745713</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5.013746196342205</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.137563837640751</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.7999969887655</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4.381386622686638</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4.309760220152874</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4.313929000132215</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4.758479075913123</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>4.745281316440128</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>4.559326125263396</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.298921218399203</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>5.282292150860327</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>5.496021701857318</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>5.482522182748983</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>4.647730116004479</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>5.422177411110738</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>5.013357824956228</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>5.259596102706727</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>5.521066418561398</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>5.352932657706387</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>5.03133713500399</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>5.10751971614142</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>3.971043065007211</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.886584074036086</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>3.504920458088135</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>3.905491780491836</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3.891104361973304</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>4.191728407036647</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>3.780133663741944</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.912034911467279</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>4.076316881215113</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>3.584788795530995</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>3.760841099520068</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.829773315176476</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>30.85082997730933</v>
+      </c>
+      <c r="D34" t="n">
+        <v>39.07153286635796</v>
+      </c>
+      <c r="E34" t="n">
+        <v>33.22928195590934</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32.12140928777149</v>
+      </c>
+      <c r="G34" t="n">
+        <v>21.03388082591588</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32.78428332957478</v>
+      </c>
+      <c r="I34" t="n">
+        <v>33.43072724016</v>
+      </c>
+      <c r="J34" t="n">
+        <v>34.98388594558884</v>
+      </c>
+      <c r="K34" t="n">
+        <v>28.77543038160698</v>
+      </c>
+      <c r="L34" t="n">
+        <v>35.44956310835329</v>
+      </c>
+      <c r="M34" t="n">
+        <v>27.94475130965391</v>
+      </c>
+      <c r="N34" t="n">
+        <v>31.79567217916237</v>
+      </c>
+      <c r="O34" t="n">
+        <v>70.41842764386467</v>
+      </c>
+      <c r="P34" t="n">
+        <v>63.7655644432812</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>65.4739230680827</v>
+      </c>
+      <c r="R34" t="n">
+        <v>69.88986088028641</v>
+      </c>
+      <c r="S34" t="n">
+        <v>72.74851873730732</v>
+      </c>
+      <c r="T34" t="n">
+        <v>70.95757915062016</v>
+      </c>
+      <c r="U34" t="n">
+        <v>68.41119127007546</v>
+      </c>
+      <c r="V34" t="n">
+        <v>65.94513026610421</v>
+      </c>
+      <c r="W34" t="n">
+        <v>66.47377095774272</v>
+      </c>
+      <c r="X34" t="n">
+        <v>71.39033048421146</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>77.63702959080493</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>77.00374423477295</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>63.90265610183023</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>63.86238397613819</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>63.06160546036898</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>63.39598424663543</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>70.83422907626635</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>64.2178248537093</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>62.78708487542023</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>68.37632616753621</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>63.28631839936739</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>59.18264764291341</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>64.19793916780763</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>65.58912964458401</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>16.4413901047825</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>18.51814172300196</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>17.98507258810025</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>17.53608813433434</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>16.90636851816626</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>15.8634872052973</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>16.93358515590538</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>16.69806101439663</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>17.36410218220114</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>17.21605067404994</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>17.18712017686723</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>15.70970579890006</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34.40908956571306</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19.6718335855832</v>
+      </c>
+      <c r="E35" t="n">
+        <v>27.49640529766663</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26.41389291032332</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28.73679235574482</v>
+      </c>
+      <c r="H35" t="n">
+        <v>28.97840795709089</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30.3495712844655</v>
+      </c>
+      <c r="J35" t="n">
+        <v>29.98625761742009</v>
+      </c>
+      <c r="K35" t="n">
+        <v>22.29810332907305</v>
+      </c>
+      <c r="L35" t="n">
+        <v>25.30316530538608</v>
+      </c>
+      <c r="M35" t="n">
+        <v>27.61580043864323</v>
+      </c>
+      <c r="N35" t="n">
+        <v>31.41253469736466</v>
+      </c>
+      <c r="O35" t="n">
+        <v>55.46055478876259</v>
+      </c>
+      <c r="P35" t="n">
+        <v>52.95509033741526</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>49.96366164827327</v>
+      </c>
+      <c r="R35" t="n">
+        <v>49.80286536823237</v>
+      </c>
+      <c r="S35" t="n">
+        <v>50.85078800350293</v>
+      </c>
+      <c r="T35" t="n">
+        <v>59.894079639142</v>
+      </c>
+      <c r="U35" t="n">
+        <v>58.01826435999566</v>
+      </c>
+      <c r="V35" t="n">
+        <v>49.81777556921273</v>
+      </c>
+      <c r="W35" t="n">
+        <v>55.8223996805464</v>
+      </c>
+      <c r="X35" t="n">
+        <v>58.82413001671765</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>53.1332853107066</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>51.17983323114777</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>33.59456510107414</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>35.94129603823055</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>39.29373392607506</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>36.39581360528407</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>37.06090538079344</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>35.82145103702463</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>33.26185247014006</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>33.74405073596736</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>36.60677528681526</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>35.9878933446641</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>36.60541453113383</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>37.63157457111573</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>26.36060211384972</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>23.79313345556126</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>23.75704444568101</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>23.22297733554288</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>22.34271911558775</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>23.51853191713916</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>24.44369585063076</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>20.64093240485586</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>22.34326627550712</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>21.09502882316849</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>24.58388113610699</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>25.65089494347361</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11.55824021784642</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.64930394263844</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.43725778997446</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12.34590496087416</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13.40738990988861</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12.3110864327473</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.08499994126595</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14.0451156034113</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.10091699149964</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.7945508063526</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14.83694875793812</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12.56411591746029</v>
+      </c>
+      <c r="O36" t="n">
+        <v>22.77721044966121</v>
+      </c>
+      <c r="P36" t="n">
+        <v>24.36072143427041</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>22.11000362962107</v>
+      </c>
+      <c r="R36" t="n">
+        <v>24.3758003149412</v>
+      </c>
+      <c r="S36" t="n">
+        <v>24.70624940426209</v>
+      </c>
+      <c r="T36" t="n">
+        <v>21.97671093584448</v>
+      </c>
+      <c r="U36" t="n">
+        <v>26.43679484295072</v>
+      </c>
+      <c r="V36" t="n">
+        <v>27.47291683060021</v>
+      </c>
+      <c r="W36" t="n">
+        <v>25.48309383305729</v>
+      </c>
+      <c r="X36" t="n">
+        <v>27.03929502893652</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23.72264642821965</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>27.90230195309298</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>14.74314224149016</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14.8474831524523</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15.84312595846958</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>14.57212190805911</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13.35890592320003</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>14.26087248217234</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>14.99949185543907</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>15.34967055723168</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>14.01592140186728</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>13.75476438715206</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>15.00058124489119</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>13.75002340422729</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>3.536283505518867</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>3.453688262822134</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>3.167930308653096</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>2.959970865207183</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3.093937985767074</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>3.283525198717649</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3.233422270662936</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.834169417797505</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>3.718905743280254</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>3.027193905628701</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.467122968550139</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3.677619406906843</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.02267868757211</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20.09254175117027</v>
+      </c>
+      <c r="E37" t="n">
+        <v>18.51869735763637</v>
+      </c>
+      <c r="F37" t="n">
+        <v>18.36933886256545</v>
+      </c>
+      <c r="G37" t="n">
+        <v>18.37373134556198</v>
+      </c>
+      <c r="H37" t="n">
+        <v>14.58274270934339</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16.22580182303353</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14.83531895376462</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15.8801090762174</v>
+      </c>
+      <c r="L37" t="n">
+        <v>14.66941309210261</v>
+      </c>
+      <c r="M37" t="n">
+        <v>17.8079959266866</v>
+      </c>
+      <c r="N37" t="n">
+        <v>24.21307196424224</v>
+      </c>
+      <c r="O37" t="n">
+        <v>34.93483489102022</v>
+      </c>
+      <c r="P37" t="n">
+        <v>29.29311916765314</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>33.93121855516055</v>
+      </c>
+      <c r="R37" t="n">
+        <v>33.11199942442961</v>
+      </c>
+      <c r="S37" t="n">
+        <v>35.29824282853331</v>
+      </c>
+      <c r="T37" t="n">
+        <v>34.55080737006526</v>
+      </c>
+      <c r="U37" t="n">
+        <v>24.22650108356373</v>
+      </c>
+      <c r="V37" t="n">
+        <v>28.75203603738985</v>
+      </c>
+      <c r="W37" t="n">
+        <v>31.27336485133385</v>
+      </c>
+      <c r="X37" t="n">
+        <v>36.99251146342095</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>31.17002967944343</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>33.99000743690093</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>8.784941336294125</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13.19402726106646</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12.73637534348477</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11.8181993141637</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11.18259299041436</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10.35662061196267</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>13.28703926390836</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>13.43784910601562</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11.73564235351263</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>11.81438489596883</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>13.07525596469874</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>10.58383363390016</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>9.010364540289508</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>8.100286690481065</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>9.242299307322014</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>8.852044333052289</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>8.014628683954035</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>8.152570774114011</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>8.720707912263645</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>8.039453744087927</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>9.059992960021171</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>9.926556936763406</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>7.241934175376791</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>8.166940629997558</v>
       </c>
     </row>
   </sheetData>
